--- a/AzentioAutomationFramework_FixedAsset/Test-data/KUBSTestData.xlsx
+++ b/AzentioAutomationFramework_FixedAsset/Test-data/KUBSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="AllMastersTestDataInfo" sheetId="1" r:id="rId3"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="1403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="1280">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -2517,7 +2517,7 @@
     <t>KUBS_BP_UAT_001_001_D1</t>
   </si>
   <si>
-    <t>1638</t>
+    <t>1835</t>
   </si>
   <si>
     <t>1002436</t>
@@ -2526,7 +2526,7 @@
     <t>BUDY</t>
   </si>
   <si>
-    <t>BUDY632712091</t>
+    <t>BUDY853613400</t>
   </si>
   <si>
     <t>YEARLY</t>
@@ -2550,13 +2550,13 @@
     <t>KUBS_BP_UAT_001_002_D1</t>
   </si>
   <si>
-    <t>1639</t>
+    <t>1843</t>
   </si>
   <si>
     <t>BUDM</t>
   </si>
   <si>
-    <t>BUDM823414623</t>
+    <t>BUDM763012796</t>
   </si>
   <si>
     <t>MONTHLY</t>
@@ -2577,13 +2577,13 @@
     <t>KUBS_BP_UAT_001_003_D1</t>
   </si>
   <si>
-    <t>1640</t>
+    <t>1809</t>
   </si>
   <si>
     <t>BUDQ</t>
   </si>
   <si>
-    <t>BUDQ719512616</t>
+    <t>BUDQ586712060</t>
   </si>
   <si>
     <t>QUARTERLY</t>
@@ -2604,13 +2604,13 @@
     <t>KUBS_BP_UAT_001_004_D1</t>
   </si>
   <si>
-    <t>1641</t>
+    <t>1838</t>
   </si>
   <si>
     <t>BUDHY</t>
   </si>
   <si>
-    <t>BUDHY757012498</t>
+    <t>BUDHY793714454</t>
   </si>
   <si>
     <t>HALFYEARLY</t>
@@ -2628,10 +2628,10 @@
     <t>KUBS_BP_UAT_001_001_D2</t>
   </si>
   <si>
-    <t>1642</t>
-  </si>
-  <si>
-    <t>BUDM844414440</t>
+    <t>1839</t>
+  </si>
+  <si>
+    <t>BUDM916213835</t>
   </si>
   <si>
     <t>Monthly budget Record submitted By maker</t>
@@ -2640,37 +2640,37 @@
     <t>KUBS_BP_UAT_001_001_D3</t>
   </si>
   <si>
-    <t>1643</t>
-  </si>
-  <si>
-    <t>BUDM940510410</t>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>BUDM886314627</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_001_001_D4</t>
   </si>
   <si>
-    <t>1634</t>
-  </si>
-  <si>
-    <t>BUDM912012297</t>
+    <t>1829</t>
+  </si>
+  <si>
+    <t>BUDM518913221</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_001_001_D5</t>
   </si>
   <si>
-    <t>1635</t>
-  </si>
-  <si>
-    <t>BUDM563111244</t>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>BUDM838212574</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_001_001_D6</t>
   </si>
   <si>
-    <t>1636</t>
-  </si>
-  <si>
-    <t>BUDM923513765</t>
+    <t>1831</t>
+  </si>
+  <si>
+    <t>BUDM705012264</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_001_001_D7</t>
@@ -2739,7 +2739,7 @@
     <t>KUBS_B&amp;P_UAT_001_005_D1</t>
   </si>
   <si>
-    <t>1362</t>
+    <t>1579</t>
   </si>
   <si>
     <t>Ok</t>
@@ -2766,7 +2766,7 @@
     <t>KUBS_B&amp;P_UAT_001_006_D1</t>
   </si>
   <si>
-    <t>1363</t>
+    <t>1596</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_001_01</t>
@@ -2787,7 +2787,7 @@
     <t>KUBS_BP_UAT_002_001_02_D1</t>
   </si>
   <si>
-    <t>1723</t>
+    <t>1825</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_001_03</t>
@@ -2802,7 +2802,7 @@
     <t>KUBS_BP_UAT_002_001_04_D1</t>
   </si>
   <si>
-    <t>bc27134809</t>
+    <t>bc27563771</t>
   </si>
   <si>
     <t>20000002</t>
@@ -2823,7 +2823,7 @@
     <t>KUBS_BP_UAT_002_002_02_D1</t>
   </si>
   <si>
-    <t>1628</t>
+    <t>1826</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_002_03</t>
@@ -2838,7 +2838,7 @@
     <t>KUBS_BP_UAT_002_002_04_D1</t>
   </si>
   <si>
-    <t>bc27905903</t>
+    <t>bc27101703</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_003_01</t>
@@ -2850,13 +2850,16 @@
     <t>929</t>
   </si>
   <si>
+    <t>bc37</t>
+  </si>
+  <si>
     <t>KUBS_BP_UAT_002_003_02</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_003_02_D1</t>
   </si>
   <si>
-    <t>1629</t>
+    <t>1806</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_003_03</t>
@@ -2871,7 +2874,7 @@
     <t>KUBS_BP_UAT_002_003_04_D1</t>
   </si>
   <si>
-    <t>bc27694830</t>
+    <t>bc27719270</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_004_01</t>
@@ -2889,7 +2892,7 @@
     <t>KUBS_BP_UAT_002_004_02_D1</t>
   </si>
   <si>
-    <t>1630</t>
+    <t>1807</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_004_03</t>
@@ -2904,7 +2907,7 @@
     <t>KUBS_BP_UAT_002_004_04_D1</t>
   </si>
   <si>
-    <t>bc27658738</t>
+    <t>bc27800669</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_005_01</t>
@@ -2919,7 +2922,7 @@
     <t>KUBS_BP_UAT_002_005_02_D1</t>
   </si>
   <si>
-    <t>1631</t>
+    <t>1808</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_005_03</t>
@@ -2934,7 +2937,7 @@
     <t>KUBS_BP_UAT_002_005_04_D1</t>
   </si>
   <si>
-    <t>bc27664929</t>
+    <t>bc27960505</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_005_05</t>
@@ -2943,7 +2946,7 @@
     <t>KUBS_BP_UAT_002_005_05_D1</t>
   </si>
   <si>
-    <t>1347</t>
+    <t>1535</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_005_06</t>
@@ -2964,7 +2967,7 @@
     <t>KUBS_BP_UAT_002_006_02_D1</t>
   </si>
   <si>
-    <t>1632</t>
+    <t>1827</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_006_03</t>
@@ -2979,7 +2982,7 @@
     <t>KUBS_BP_UAT_002_006_04_D1</t>
   </si>
   <si>
-    <t>bc27741656</t>
+    <t>bc27272970</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_006_05</t>
@@ -2988,7 +2991,7 @@
     <t>KUBS_BP_UAT_002_006_05_D1</t>
   </si>
   <si>
-    <t>1348</t>
+    <t>1575</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_006_06</t>
@@ -3012,7 +3015,7 @@
     <t>KUBS_BP_UAT_002_007_02_D1</t>
   </si>
   <si>
-    <t>1633</t>
+    <t>1828</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_007_03</t>
@@ -3027,7 +3030,7 @@
     <t>KUBS_BP_UAT_002_007_04_D1</t>
   </si>
   <si>
-    <t>bc27595740</t>
+    <t>bc27542063</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_002_007_05</t>
@@ -3054,7 +3057,7 @@
     <t>KUBS_B&amp;P_UAT_003_003_D1</t>
   </si>
   <si>
-    <t>1351</t>
+    <t>1576</t>
   </si>
   <si>
     <t>KUBS_B&amp;P_UAT_003_004</t>
@@ -3063,7 +3066,7 @@
     <t>KUBS_B&amp;P_UAT_003_004_D1</t>
   </si>
   <si>
-    <t>1352</t>
+    <t>1522</t>
   </si>
   <si>
     <t>KUBS_B&amp;P_UAT_003_005</t>
@@ -3072,7 +3075,7 @@
     <t>KUBS_B&amp;P_UAT_003_005_D1</t>
   </si>
   <si>
-    <t>1353</t>
+    <t>1538</t>
   </si>
   <si>
     <t>KUBS_UAT_KUBS_BP_UAT_004_001</t>
@@ -3090,7 +3093,7 @@
     <t>KUBS_UAT_KUBS_BP_UAT_004_002_D1</t>
   </si>
   <si>
-    <t>1727</t>
+    <t>1832</t>
   </si>
   <si>
     <t>KUBS_UAT_KUBS_BP_UAT_004_003</t>
@@ -3123,7 +3126,7 @@
     <t>KUBS_BP_UAT_005_001_02_D1</t>
   </si>
   <si>
-    <t>1637</t>
+    <t>1842</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_005_001_03</t>
@@ -3138,10 +3141,7 @@
     <t>KUBS_BP_UAT_005_001_04_D1</t>
   </si>
   <si>
-    <t>2022-2023</t>
-  </si>
-  <si>
-    <t>bc27180065</t>
+    <t>bc37240277</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_005_001_05</t>
@@ -3150,7 +3150,7 @@
     <t>KUBS_BP_UAT_005_001_05_D1</t>
   </si>
   <si>
-    <t>1354</t>
+    <t>1581</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_005_001_06</t>
@@ -3192,7 +3192,7 @@
     <t>KUBS_BP_UAT_005_004_02_D1</t>
   </si>
   <si>
-    <t>1357</t>
+    <t>1582</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_005_004_03</t>
@@ -3225,7 +3225,7 @@
     <t>KUBS_BP_UAT_005_005_02_D1</t>
   </si>
   <si>
-    <t>1358</t>
+    <t>1356</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_005_005_03</t>
@@ -3240,7 +3240,7 @@
     <t>KUBS_BP_UAT_005_005_04_D1</t>
   </si>
   <si>
-    <t>1100000.06</t>
+    <t>700000.04</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_005_006_01</t>
@@ -3258,7 +3258,7 @@
     <t>KUBS_BP_UAT_005_006_02_D1</t>
   </si>
   <si>
-    <t>1359</t>
+    <t>1396</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_005_006_03</t>
@@ -3273,7 +3273,7 @@
     <t>KUBS_BP_UAT_005_006_04_D1</t>
   </si>
   <si>
-    <t>1200000.06</t>
+    <t>800000.04</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_005_007</t>
@@ -3315,13 +3315,13 @@
     <t>KUBS_BP_UAT_006_001_01_D1</t>
   </si>
   <si>
-    <t>1341</t>
+    <t>696</t>
   </si>
   <si>
     <t>bc27827354</t>
   </si>
   <si>
-    <t>0</t>
+    <t>1000</t>
   </si>
   <si>
     <t>OK</t>
@@ -3360,12 +3360,6 @@
     <t>113510</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
     <t>KUBS_BP_UAT_006_004_02</t>
   </si>
   <si>
@@ -3391,9 +3385,6 @@
   </si>
   <si>
     <t>1361</t>
-  </si>
-  <si>
-    <t>1000</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_006_007_02</t>
@@ -4993,412 +4984,52 @@
     <t>KUBS_BP_UAT_005_002_06_D1</t>
   </si>
   <si>
-    <t>1457</t>
-  </si>
-  <si>
-    <t>bc27554136</t>
-  </si>
-  <si>
-    <t>1744</t>
-  </si>
-  <si>
-    <t>bc27451473</t>
-  </si>
-  <si>
-    <t>1745</t>
-  </si>
-  <si>
-    <t>bc27555859</t>
-  </si>
-  <si>
-    <t>1746</t>
-  </si>
-  <si>
-    <t>bc27323147</t>
-  </si>
-  <si>
-    <t>1747</t>
-  </si>
-  <si>
-    <t>bc27200103</t>
-  </si>
-  <si>
-    <t>1748</t>
-  </si>
-  <si>
-    <t>1477</t>
-  </si>
-  <si>
-    <t>bc27697376</t>
-  </si>
-  <si>
-    <t>1749</t>
-  </si>
-  <si>
-    <t>1478</t>
-  </si>
-  <si>
-    <t>bc27869398</t>
-  </si>
-  <si>
-    <t>1750</t>
-  </si>
-  <si>
-    <t>BUDM829612927</t>
-  </si>
-  <si>
-    <t>1751</t>
-  </si>
-  <si>
-    <t>1481</t>
-  </si>
-  <si>
-    <t>BUDM740811316</t>
-  </si>
-  <si>
-    <t>1752</t>
-  </si>
-  <si>
-    <t>1482</t>
-  </si>
-  <si>
-    <t>BUDM700412721</t>
-  </si>
-  <si>
-    <t>1753</t>
-  </si>
-  <si>
-    <t>1483</t>
-  </si>
-  <si>
-    <t>bc27592446</t>
-  </si>
-  <si>
-    <t>1754</t>
-  </si>
-  <si>
-    <t>bc27567966</t>
-  </si>
-  <si>
-    <t>1755</t>
-  </si>
-  <si>
-    <t>1485</t>
-  </si>
-  <si>
-    <t>700000.04</t>
-  </si>
-  <si>
-    <t>1413</t>
-  </si>
-  <si>
-    <t>800000.04</t>
-  </si>
-  <si>
-    <t>BUDY809510009</t>
-  </si>
-  <si>
-    <t>1756</t>
-  </si>
-  <si>
-    <t>BUDM794312143</t>
-  </si>
-  <si>
-    <t>1757</t>
-  </si>
-  <si>
-    <t>BUDQ896613255</t>
-  </si>
-  <si>
-    <t>1758</t>
-  </si>
-  <si>
-    <t>BUDHY814511101</t>
-  </si>
-  <si>
-    <t>1759</t>
-  </si>
-  <si>
-    <t>BUDM885212363</t>
-  </si>
-  <si>
-    <t>1760</t>
-  </si>
-  <si>
-    <t>1486</t>
-  </si>
-  <si>
-    <t>BUDM685611096</t>
-  </si>
-  <si>
-    <t>1761</t>
-  </si>
-  <si>
-    <t>1487</t>
-  </si>
-  <si>
-    <t>bc27153387</t>
-  </si>
-  <si>
-    <t>1764</t>
-  </si>
-  <si>
-    <t>bc27842232</t>
-  </si>
-  <si>
-    <t>1765</t>
-  </si>
-  <si>
-    <t>bc27296233</t>
-  </si>
-  <si>
-    <t>1766</t>
-  </si>
-  <si>
-    <t>bc27510108</t>
-  </si>
-  <si>
-    <t>1767</t>
-  </si>
-  <si>
-    <t>bc27692108</t>
-  </si>
-  <si>
-    <t>1768</t>
-  </si>
-  <si>
-    <t>1497</t>
-  </si>
-  <si>
-    <t>bc27955430</t>
-  </si>
-  <si>
-    <t>1769</t>
-  </si>
-  <si>
-    <t>1498</t>
-  </si>
-  <si>
-    <t>bc27442367</t>
-  </si>
-  <si>
-    <t>1770</t>
-  </si>
-  <si>
-    <t>BUDM822314289</t>
-  </si>
-  <si>
-    <t>1771</t>
-  </si>
-  <si>
-    <t>1501</t>
-  </si>
-  <si>
-    <t>BUDM552210201</t>
-  </si>
-  <si>
-    <t>1772</t>
-  </si>
-  <si>
-    <t>1502</t>
-  </si>
-  <si>
-    <t>BUDM675310569</t>
-  </si>
-  <si>
-    <t>1773</t>
-  </si>
-  <si>
-    <t>1503</t>
-  </si>
-  <si>
-    <t>bc27383808</t>
-  </si>
-  <si>
-    <t>1774</t>
-  </si>
-  <si>
-    <t>bc27495572</t>
-  </si>
-  <si>
-    <t>1775</t>
-  </si>
-  <si>
-    <t>1505</t>
-  </si>
-  <si>
-    <t>1396</t>
-  </si>
-  <si>
-    <t>BUDY595412888</t>
-  </si>
-  <si>
-    <t>1776</t>
-  </si>
-  <si>
-    <t>BUDM796612520</t>
-  </si>
-  <si>
-    <t>1777</t>
-  </si>
-  <si>
-    <t>BUDQ544714559</t>
-  </si>
-  <si>
-    <t>1778</t>
-  </si>
-  <si>
-    <t>BUDHY591810093</t>
-  </si>
-  <si>
-    <t>1779</t>
-  </si>
-  <si>
-    <t>BUDM506813553</t>
-  </si>
-  <si>
-    <t>1780</t>
-  </si>
-  <si>
-    <t>1506</t>
-  </si>
-  <si>
-    <t>BUDM899112136</t>
-  </si>
-  <si>
-    <t>1781</t>
-  </si>
-  <si>
-    <t>bc27474972</t>
-  </si>
-  <si>
-    <t>1784</t>
-  </si>
-  <si>
-    <t>bc27923730</t>
-  </si>
-  <si>
-    <t>1785</t>
-  </si>
-  <si>
-    <t>bc27579803</t>
-  </si>
-  <si>
-    <t>1786</t>
-  </si>
-  <si>
-    <t>bc27327058</t>
-  </si>
-  <si>
-    <t>1787</t>
-  </si>
-  <si>
-    <t>bc27993468</t>
-  </si>
-  <si>
-    <t>1788</t>
-  </si>
-  <si>
-    <t>1517</t>
-  </si>
-  <si>
-    <t>bc27567934</t>
-  </si>
-  <si>
-    <t>1789</t>
-  </si>
-  <si>
-    <t>1518</t>
-  </si>
-  <si>
-    <t>bc27315147</t>
-  </si>
-  <si>
-    <t>1790</t>
-  </si>
-  <si>
-    <t>BUDM503911514</t>
-  </si>
-  <si>
-    <t>1791</t>
-  </si>
-  <si>
-    <t>1521</t>
-  </si>
-  <si>
-    <t>BUDM872611190</t>
-  </si>
-  <si>
-    <t>1792</t>
-  </si>
-  <si>
-    <t>1522</t>
-  </si>
-  <si>
-    <t>BUDM550611179</t>
-  </si>
-  <si>
-    <t>1793</t>
-  </si>
-  <si>
-    <t>1523</t>
-  </si>
-  <si>
-    <t>bc27833366</t>
-  </si>
-  <si>
-    <t>1794</t>
-  </si>
-  <si>
-    <t>bc27105201</t>
-  </si>
-  <si>
-    <t>1795</t>
-  </si>
-  <si>
-    <t>1525</t>
-  </si>
-  <si>
-    <t>BUDY613212683</t>
-  </si>
-  <si>
-    <t>1796</t>
-  </si>
-  <si>
-    <t>BUDM791511448</t>
-  </si>
-  <si>
-    <t>1797</t>
-  </si>
-  <si>
-    <t>BUDQ783513580</t>
-  </si>
-  <si>
-    <t>1798</t>
-  </si>
-  <si>
-    <t>BUDHY636614613</t>
-  </si>
-  <si>
-    <t>1799</t>
-  </si>
-  <si>
-    <t>BUDM892512031</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>1526</t>
-  </si>
-  <si>
-    <t>BUDM607410399</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1527</t>
+    <t>1864</t>
+  </si>
+  <si>
+    <t>1598</t>
+  </si>
+  <si>
+    <t>1865</t>
+  </si>
+  <si>
+    <t>1866</t>
+  </si>
+  <si>
+    <t>1867</t>
+  </si>
+  <si>
+    <t>1868</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>bc375422743</t>
+  </si>
+  <si>
+    <t>1869</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>bc37501970</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>1604</t>
   </si>
 </sst>
 </file>
@@ -5788,7 +5419,7 @@
       <bottom/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -5848,8 +5479,29 @@
       <alignment/>
       <protection/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
@@ -5872,11 +5524,26 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5885,716 +5552,716 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="30" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="33" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="30" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="33" applyFont="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="30" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="33" applyFont="1" applyFill="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="30" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="33" applyFont="1" applyFill="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="30" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="33" applyFont="1" applyFill="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="30" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="33" applyFont="1" applyFill="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="30" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="33" applyFont="1" applyFill="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="30" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="33" applyFont="1" applyFill="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="30" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="33" applyFont="1" applyFill="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="30" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="33" applyFont="1" applyFill="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="7" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="30" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="33" applyFont="1" applyFill="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="30" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="33" applyFont="1" applyFill="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="13" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="13" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="33" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="30" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="33" applyFont="1" applyFill="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="30" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="33" applyFont="1" applyFill="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="1" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="28" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
       <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="48">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="15" builtinId="5"/>
     <cellStyle name="Currency" xfId="16" builtinId="4"/>
@@ -6610,24 +6277,39 @@
     <cellStyle name="Excel_5f_5f_5f_20_5f_5f_5f_Built-in_5f_5f_5f_20_5f_5f_5f_Normal" xfId="26"/>
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="27"/>
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="28"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="29"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="30"/>
-    <cellStyle name="Heading_20_1" xfId="31"/>
-    <cellStyle name="Heading1_20_1" xfId="32"/>
-    <cellStyle name="Heading1_5f_20_5f_1" xfId="33"/>
-    <cellStyle name="Heading1_5f_5f_5f_20_5f_5f_5f_1" xfId="34"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="35"/>
-    <cellStyle name="Heading_5f_20_5f_1" xfId="36"/>
-    <cellStyle name="Heading_5f_5f_5f_20_5f_5f_5f_1" xfId="37"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="38"/>
-    <cellStyle name="Result_20_1" xfId="39"/>
-    <cellStyle name="Result2_20_1" xfId="40"/>
-    <cellStyle name="Result2_5f_20_5f_1" xfId="41"/>
-    <cellStyle name="Result2_5f_5f_5f_20_5f_5f_5f_1" xfId="42"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="43"/>
-    <cellStyle name="Result_5f_20_5f_1" xfId="44"/>
-    <cellStyle name="Result_5f_5f_5f_20_5f_5f_5f_1" xfId="45"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="46"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="29"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="30"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="31"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="32"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="33"/>
+    <cellStyle name="Heading_20_1" xfId="34"/>
+    <cellStyle name="Heading1_20_1" xfId="35"/>
+    <cellStyle name="Heading1_5f_20_5f_1" xfId="36"/>
+    <cellStyle name="Heading1_5f_5f_5f_20_5f_5f_5f_1" xfId="37"/>
+    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="38"/>
+    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="39"/>
+    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="40"/>
+    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="41"/>
+    <cellStyle name="Heading_5f_20_5f_1" xfId="42"/>
+    <cellStyle name="Heading_5f_5f_5f_20_5f_5f_5f_1" xfId="43"/>
+    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="44"/>
+    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="45"/>
+    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="46"/>
+    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="47"/>
+    <cellStyle name="Result_20_1" xfId="48"/>
+    <cellStyle name="Result2_20_1" xfId="49"/>
+    <cellStyle name="Result2_5f_20_5f_1" xfId="50"/>
+    <cellStyle name="Result2_5f_5f_5f_20_5f_5f_5f_1" xfId="51"/>
+    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="52"/>
+    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="53"/>
+    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="54"/>
+    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="55"/>
+    <cellStyle name="Result_5f_20_5f_1" xfId="56"/>
+    <cellStyle name="Result_5f_5f_5f_20_5f_5f_5f_1" xfId="57"/>
+    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="58"/>
+    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="59"/>
+    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="60"/>
+    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="61"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -7004,23 +6686,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3970143c-ba8c-422a-be74-c5644a23b180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7b7a20ff-759f-4392-be01-ff411262102a}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="163.00428571428571" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="193.00428571428571" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="58.57142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" style="4" width="53.857142857142854" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" hidden="true" style="4" width="28.142857142857142" collapsed="true"/>
-    <col min="4" max="4" style="4" width="163.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="48.714285714285715" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="10" width="51.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" hidden="true" style="4" width="8.571428571428571" collapsed="true"/>
-    <col min="8" max="16384" style="4" width="163.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="69.14285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" style="4" width="63.714285714285715" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" hidden="true" style="4" width="33.142857142857146" collapsed="true"/>
+    <col min="4" max="4" style="4" width="193.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="57.57142857142857" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="60.285714285714285" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" style="4" width="9.857142857142858" collapsed="true"/>
+    <col min="8" max="16384" style="4" width="193.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.05">
@@ -7182,32 +6864,32 @@
       <c r="F16" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89b887ae-e459-4d29-9a20-dbdced0eefe1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{eb9f998b-9def-434a-bed4-0b199e3264e8}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="86.28571428571429" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="97.28571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="33.285714285714285" collapsed="true"/>
-    <col min="4" max="4" style="4" width="22.714285714285715" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="43.285714285714285" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="78.42857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="69.14285714285714" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="71.14285714285714" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="42.285714285714285" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="52.42857142857143" collapsed="true"/>
-    <col min="11" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="102.14285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="115.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="39.285714285714285" collapsed="true"/>
+    <col min="4" max="4" style="4" width="26.857142857142858" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="51.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="92.57142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="81.71428571428571" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="84.14285714285714" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="50.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="61.857142857142854" collapsed="true"/>
+    <col min="11" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.05">
@@ -7271,34 +6953,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2fe89656-ac05-4ab4-86c3-25a06decc802}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cd26fafe-c3bf-4ed8-a09f-7ec5761f84c8}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.854285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="27.004285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="91.57142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="100.57142857142857" collapsed="true"/>
-    <col min="3" max="4" style="4" width="22.857142857142858" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="43.57142857142857" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="99.57142857142857" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="43.285714285714285" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="48.714285714285715" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="40.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="31.285714285714285" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="32.142857142857146" collapsed="true"/>
-    <col min="12" max="13" style="4" width="22.857142857142858" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="35.857142857142854" collapsed="true"/>
-    <col min="15" max="16384" style="4" width="22.857142857142858" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="108.28571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="118.85714285714286" collapsed="true"/>
+    <col min="3" max="4" style="4" width="27.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="51.285714285714285" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="117.71428571428571" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="51.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="57.57142857142857" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="47.285714285714285" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="36.857142857142854" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="37.857142857142854" collapsed="true"/>
+    <col min="12" max="13" style="4" width="27.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="42.285714285714285" collapsed="true"/>
+    <col min="15" max="16384" style="4" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.05">
@@ -7386,46 +7068,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ff5fdeae-6708-4034-89a7-2df0956ccee5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ee85cff8-4104-44c4-83cd-a9fcd5e449ad}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="93.71428571428571" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="102.42857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="39.285714285714285" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="45.285714285714285" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="57.285714285714285" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" style="4" width="47.857142857142854" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="25.285714285714285" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="86.42857142857143" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="73" width="82.42857142857143" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="78.85714285714286" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="65.42857142857143" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="39.285714285714285" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="43.285714285714285" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="4" width="41.42857142857143" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" style="4" width="84.14285714285714" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="4" width="35.857142857142854" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="4" width="42.857142857142854" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="4" width="40.142857142857146" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="4" width="35.857142857142854" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="4" width="28.857142857142858" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="4" width="28.142857142857142" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="4" width="37.857142857142854" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="4" width="24.571428571428573" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="4" width="63.714285714285715" collapsed="true"/>
-    <col min="27" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="110.85714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="121.14285714285714" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="46.142857142857146" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="53.42857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="67.71428571428571" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="4" width="56.42857142857143" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="29.714285714285715" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="102.28571428571429" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="73" width="97.42857142857143" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="93.14285714285714" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="77.28571428571429" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="46.142857142857146" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="51.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="48.714285714285715" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" style="4" width="99.57142857142857" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="4" width="42.285714285714285" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="4" width="50.57142857142857" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="4" width="47.42857142857143" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="4" width="42.285714285714285" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="4" width="34.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="4" width="33.142857142857146" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="4" width="44.714285714285715" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="4" width="28.857142857142858" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="4" width="75.28571428571429" collapsed="true"/>
+    <col min="27" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="14.05">
@@ -7754,29 +7436,29 @@
       <c r="Z6" s="58"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ea0eb02e-6e6a-4f2c-90b4-5e436b56ffb3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871d3e97-2b87-4468-904f-9d95f74dad92}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.854285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="27.004285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="92.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="97.85714285714286" collapsed="true"/>
-    <col min="3" max="4" style="4" width="22.857142857142858" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="82.28571428571429" collapsed="true"/>
-    <col min="6" max="8" style="4" width="22.857142857142858" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="43.285714285714285" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="42.857142857142854" collapsed="true"/>
-    <col min="11" max="16384" style="4" width="22.857142857142858" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="108.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="115.71428571428571" collapsed="true"/>
+    <col min="3" max="4" style="4" width="27.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="97.28571428571429" collapsed="true"/>
+    <col min="6" max="8" style="4" width="27.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="51.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="50.57142857142857" collapsed="true"/>
+    <col min="11" max="16384" style="4" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.05">
@@ -7920,35 +7602,35 @@
       <c r="J6" s="34"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75a5d073-e39f-44bf-a76c-ec493560f1c5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4a2c182d-feed-497d-852f-df1e1a62aac6}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="102.28571428571429" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="110.85714285714286" collapsed="true"/>
-    <col min="3" max="3" style="4" width="22.714285714285715" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="33.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="34.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="35.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="52.857142857142854" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="56.285714285714285" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="29.857142857142858" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="31.428571428571427" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="31.571428571428573" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="39.285714285714285" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="26.714285714285715" collapsed="true"/>
-    <col min="14" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="121.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="131.14285714285714" collapsed="true"/>
+    <col min="3" max="3" style="4" width="26.857142857142858" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="38.857142857142854" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="40.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="62.42857142857143" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="66.42857142857143" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="35.142857142857146" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="37.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="37.142857142857146" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="46.142857142857146" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="31.428571428571427" collapsed="true"/>
+    <col min="14" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.05">
@@ -8535,33 +8217,33 @@
       <c r="M17" s="58"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05362c45-2fb0-40e8-affa-20fb1d430b5a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7670cf08-2f8f-4f6f-8ad4-700c27f31756}">
   <dimension ref="A1:AZ18"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="57.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="84.71428571428571" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="92.42857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="29.714285714285715" collapsed="true"/>
-    <col min="4" max="7" style="4" width="48.285714285714285" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="36.42857142857143" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="38.857142857142854" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="48.714285714285715" collapsed="true"/>
-    <col min="11" max="21" style="4" width="48.285714285714285" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="4" width="52.857142857142854" collapsed="true"/>
-    <col min="23" max="48" style="4" width="48.285714285714285" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" style="4" width="73.57142857142857" collapsed="true"/>
-    <col min="50" max="16384" style="4" width="48.285714285714285" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="100.14285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="109.28571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="35.0" collapsed="true"/>
+    <col min="4" max="7" style="4" width="57.285714285714285" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="42.857142857142854" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="45.714285714285715" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="57.57142857142857" collapsed="true"/>
+    <col min="11" max="21" style="4" width="57.285714285714285" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="4" width="62.42857142857143" collapsed="true"/>
+    <col min="23" max="48" style="4" width="57.285714285714285" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="4" width="87.0" collapsed="true"/>
+    <col min="50" max="16384" style="4" width="57.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="14.05">
@@ -10125,32 +9807,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57a6453e-8ee7-479f-8c7a-d112c4748b66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d2d83fcf-9b18-4876-ac4b-6f0ba68eaba9}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="C6">
       <selection pane="topLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="115.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="109.28571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="46.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="42.285714285714285" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="41.0" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="4" width="37.142857142857146" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="35.0" collapsed="true"/>
-    <col min="10" max="13" style="4" width="22.714285714285715" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" style="4" width="40.142857142857146" collapsed="true"/>
-    <col min="16" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="136.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="129.28571428571428" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="54.142857142857146" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="50.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="48.57142857142857" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="48.285714285714285" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="4" width="43.714285714285715" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
+    <col min="10" max="13" style="4" width="26.857142857142858" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" style="4" width="47.42857142857143" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.9">
@@ -10539,34 +10221,34 @@
       <c r="Q13" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fa1a42eb-3a7b-47db-863e-0f6c2fef48ed}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f224b9a0-07ca-4e44-8433-e5f0d5e7208f}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="J1">
-      <selection pane="topLeft" activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0" topLeftCell="B1">
+      <selection pane="topLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="92.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="80.14285714285714" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="12.5390625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="11.7578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="73.57142857142857" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="17.4765625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="4" width="74.14285714285714" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="78.42857142857143" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" style="4" width="81.85714285714286" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="138.42857142857142" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="103.28571428571429" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="82.85714285714286" collapsed="true"/>
-    <col min="15" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="108.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="94.71428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="13.142857142857142" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="12.428571428571429" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="87.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="18.428571428571427" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="4" width="87.57142857142857" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="92.57142857142857" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="4" width="96.85714285714286" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="163.85714285714286" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="122.28571428571429" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="97.85714285714286" collapsed="true"/>
+    <col min="15" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.05">
@@ -10621,7 +10303,7 @@
         <v>444</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>1390</v>
+        <v>445</v>
       </c>
       <c r="D2" s="98" t="s">
         <v>446</v>
@@ -10630,7 +10312,7 @@
         <v>447</v>
       </c>
       <c r="F2" s="98" t="s">
-        <v>1389</v>
+        <v>448</v>
       </c>
       <c r="G2" s="99" t="s">
         <v>449</v>
@@ -10665,7 +10347,7 @@
         <v>455</v>
       </c>
       <c r="C3" s="98" t="s">
-        <v>1392</v>
+        <v>456</v>
       </c>
       <c r="D3" s="98" t="s">
         <v>446</v>
@@ -10674,7 +10356,7 @@
         <v>457</v>
       </c>
       <c r="F3" s="98" t="s">
-        <v>1391</v>
+        <v>458</v>
       </c>
       <c r="G3" s="99" t="s">
         <v>459</v>
@@ -10709,7 +10391,7 @@
         <v>464</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>1394</v>
+        <v>465</v>
       </c>
       <c r="D4" s="98" t="s">
         <v>446</v>
@@ -10718,7 +10400,7 @@
         <v>466</v>
       </c>
       <c r="F4" s="98" t="s">
-        <v>1393</v>
+        <v>467</v>
       </c>
       <c r="G4" s="99" t="s">
         <v>468</v>
@@ -10753,7 +10435,7 @@
         <v>473</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>1396</v>
+        <v>474</v>
       </c>
       <c r="D5" s="98" t="s">
         <v>446</v>
@@ -10762,7 +10444,7 @@
         <v>475</v>
       </c>
       <c r="F5" s="98" t="s">
-        <v>1395</v>
+        <v>476</v>
       </c>
       <c r="G5" s="99" t="s">
         <v>477</v>
@@ -10797,7 +10479,7 @@
         <v>481</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>1398</v>
+        <v>482</v>
       </c>
       <c r="D6" s="98" t="s">
         <v>446</v>
@@ -10806,7 +10488,7 @@
         <v>457</v>
       </c>
       <c r="F6" s="98" t="s">
-        <v>1397</v>
+        <v>483</v>
       </c>
       <c r="G6" s="99" t="s">
         <v>449</v>
@@ -10841,7 +10523,7 @@
         <v>485</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>1401</v>
+        <v>486</v>
       </c>
       <c r="D7" s="98" t="s">
         <v>446</v>
@@ -10850,7 +10532,7 @@
         <v>457</v>
       </c>
       <c r="F7" s="98" t="s">
-        <v>1400</v>
+        <v>487</v>
       </c>
       <c r="G7" s="99" t="s">
         <v>449</v>
@@ -10885,7 +10567,7 @@
         <v>488</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>1376</v>
+        <v>489</v>
       </c>
       <c r="D8" s="98" t="s">
         <v>446</v>
@@ -10894,7 +10576,7 @@
         <v>457</v>
       </c>
       <c r="F8" s="98" t="s">
-        <v>1375</v>
+        <v>490</v>
       </c>
       <c r="G8" s="99" t="s">
         <v>459</v>
@@ -10929,7 +10611,7 @@
         <v>491</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>1379</v>
+        <v>492</v>
       </c>
       <c r="D9" s="98" t="s">
         <v>446</v>
@@ -10938,7 +10620,7 @@
         <v>457</v>
       </c>
       <c r="F9" s="98" t="s">
-        <v>1378</v>
+        <v>493</v>
       </c>
       <c r="G9" s="99" t="s">
         <v>468</v>
@@ -10973,7 +10655,7 @@
         <v>494</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>1382</v>
+        <v>495</v>
       </c>
       <c r="D10" s="98" t="s">
         <v>446</v>
@@ -10982,7 +10664,7 @@
         <v>457</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>1381</v>
+        <v>496</v>
       </c>
       <c r="G10" s="99" t="s">
         <v>477</v>
@@ -11390,46 +11072,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678ea1c7-c7e7-4120-8540-ef6f3ebdb0ec}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d6a6be9f-9973-4825-b3fe-6e82e8bec572}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A13">
-      <selection pane="topLeft" activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0" topLeftCell="O12">
+      <selection pane="topLeft" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="73.14285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="74.85714285714286" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="12.7734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="12.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="17.0703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="13.25" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" style="4" width="58.857142857142854" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="73" width="62.57142857142857" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="4" width="62.57142857142857" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="99.14285714285714" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="103.42857142857143" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="4" width="96.57142857142857" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="4" width="44.714285714285715" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="4" width="19.390625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="4" width="44.714285714285715" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="4" width="59.714285714285715" collapsed="true"/>
-    <col min="20" max="22" customWidth="true" style="4" width="63.714285714285715" collapsed="true"/>
-    <col min="23" max="23" style="4" width="22.714285714285715" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="4" width="48.57142857142857" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="4" width="46.714285714285715" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="4" width="60.57142857142857" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="73" width="40.57142857142857" collapsed="true"/>
-    <col min="28" max="1023" style="4" width="22.714285714285715" collapsed="true"/>
-    <col min="1024" max="1024" customWidth="true" style="118" width="22.0" collapsed="true"/>
-    <col min="1025" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="86.42857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="88.57142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="13.428571428571429" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="12.714285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="14.0" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="4" width="69.57142857142857" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="73" width="74.0" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="4" width="74.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="117.28571428571429" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="122.42857142857143" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="114.28571428571429" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="52.857142857142854" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="4" width="52.857142857142854" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="4" width="70.57142857142857" collapsed="true"/>
+    <col min="20" max="22" customWidth="true" style="4" width="75.28571428571429" collapsed="true"/>
+    <col min="23" max="23" style="4" width="26.857142857142858" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="4" width="57.285714285714285" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="4" width="55.285714285714285" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="4" width="71.57142857142857" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="73" width="47.857142857142854" collapsed="true"/>
+    <col min="28" max="1023" style="4" width="26.857142857142858" collapsed="true"/>
+    <col min="1024" max="1024" customWidth="true" style="118" width="25.857142857142858" collapsed="true"/>
+    <col min="1025" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.05">
@@ -11523,13 +11205,13 @@
         <v>518</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>1399</v>
+        <v>519</v>
       </c>
       <c r="D2" s="98" t="s">
         <v>446</v>
       </c>
       <c r="E2" s="98" t="s">
-        <v>1397</v>
+        <v>483</v>
       </c>
       <c r="F2" s="98" t="s">
         <v>449</v>
@@ -11588,13 +11270,13 @@
         <v>527</v>
       </c>
       <c r="C3" s="103" t="s">
-        <v>1402</v>
+        <v>528</v>
       </c>
       <c r="D3" s="103" t="s">
         <v>446</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>1400</v>
+        <v>487</v>
       </c>
       <c r="F3" s="103" t="s">
         <v>449</v>
@@ -11704,7 +11386,7 @@
         <v>534</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>1360</v>
+        <v>535</v>
       </c>
       <c r="D5" s="98" t="s">
         <v>446</v>
@@ -11808,7 +11490,7 @@
       <c r="O7" s="60"/>
       <c r="P7" s="60"/>
       <c r="Q7" s="60" t="s">
-        <v>1384</v>
+        <v>540</v>
       </c>
       <c r="R7" s="60"/>
       <c r="S7" s="60"/>
@@ -11888,7 +11570,7 @@
         <v>546</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>1362</v>
+        <v>547</v>
       </c>
       <c r="D9" s="98" t="s">
         <v>446</v>
@@ -11992,7 +11674,7 @@
       <c r="O11" s="60"/>
       <c r="P11" s="60"/>
       <c r="Q11" s="60" t="s">
-        <v>1361</v>
+        <v>552</v>
       </c>
       <c r="R11" s="60"/>
       <c r="S11" s="60"/>
@@ -12042,7 +11724,7 @@
       <c r="N12" s="60"/>
       <c r="O12" s="60"/>
       <c r="P12" s="60" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="Q12" s="60"/>
       <c r="R12" s="60">
@@ -12070,13 +11752,13 @@
     </row>
     <row r="13" spans="1:27" ht="14.05">
       <c r="A13" s="60" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>1364</v>
+        <v>559</v>
       </c>
       <c r="D13" s="98" t="s">
         <v>446</v>
@@ -12115,10 +11797,10 @@
     </row>
     <row r="14" spans="1:27" ht="14.05">
       <c r="A14" s="60" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C14" s="98"/>
       <c r="D14" s="98"/>
@@ -12156,10 +11838,10 @@
     </row>
     <row r="15" spans="1:27" ht="14.05">
       <c r="A15" s="60" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C15" s="98"/>
       <c r="D15" s="98"/>
@@ -12180,7 +11862,7 @@
       <c r="O15" s="60"/>
       <c r="P15" s="60"/>
       <c r="Q15" s="60" t="s">
-        <v>1363</v>
+        <v>564</v>
       </c>
       <c r="R15" s="60"/>
       <c r="S15" s="60"/>
@@ -12203,10 +11885,10 @@
     </row>
     <row r="16" spans="1:27" ht="14.05">
       <c r="A16" s="60" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C16" s="98"/>
       <c r="D16" s="98"/>
@@ -12226,7 +11908,7 @@
       <c r="N16" s="60"/>
       <c r="O16" s="60"/>
       <c r="P16" s="60" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60">
@@ -12236,7 +11918,7 @@
       <c r="T16" s="60"/>
       <c r="U16" s="60"/>
       <c r="V16" s="60" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="W16" s="60" t="s">
         <v>520</v>
@@ -12254,13 +11936,13 @@
     </row>
     <row r="17" spans="1:27" ht="14.05">
       <c r="A17" s="60" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>1366</v>
+        <v>570</v>
       </c>
       <c r="D17" s="98" t="s">
         <v>446</v>
@@ -12299,10 +11981,10 @@
     </row>
     <row r="18" spans="1:27" ht="14.05">
       <c r="A18" s="60" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C18" s="98"/>
       <c r="D18" s="98"/>
@@ -12340,10 +12022,10 @@
     </row>
     <row r="19" spans="1:27" ht="14.05">
       <c r="A19" s="60" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C19" s="98"/>
       <c r="D19" s="98"/>
@@ -12364,7 +12046,7 @@
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="60" t="s">
-        <v>1365</v>
+        <v>575</v>
       </c>
       <c r="R19" s="60"/>
       <c r="S19" s="60"/>
@@ -12387,10 +12069,10 @@
     </row>
     <row r="20" spans="1:27" ht="14.05">
       <c r="A20" s="60" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C20" s="98"/>
       <c r="D20" s="98"/>
@@ -12410,7 +12092,7 @@
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60">
@@ -12420,7 +12102,7 @@
       <c r="T20" s="60"/>
       <c r="U20" s="60"/>
       <c r="V20" s="60" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="W20" s="60" t="s">
         <v>520</v>
@@ -12438,13 +12120,13 @@
     </row>
     <row r="21" spans="1:27" ht="14.05">
       <c r="A21" s="60" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>1368</v>
+        <v>580</v>
       </c>
       <c r="D21" s="98" t="s">
         <v>446</v>
@@ -12483,10 +12165,10 @@
     </row>
     <row r="22" spans="1:27" ht="14.05">
       <c r="A22" s="60" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C22" s="98"/>
       <c r="D22" s="98"/>
@@ -12524,10 +12206,10 @@
     </row>
     <row r="23" spans="1:27" ht="14.05">
       <c r="A23" s="60" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C23" s="98"/>
       <c r="D23" s="98"/>
@@ -12548,7 +12230,7 @@
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="60" t="s">
-        <v>1367</v>
+        <v>585</v>
       </c>
       <c r="R23" s="60"/>
       <c r="S23" s="60"/>
@@ -12573,13 +12255,13 @@
     </row>
     <row r="24" spans="1:27" ht="14.05">
       <c r="A24" s="60" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>1369</v>
+        <v>588</v>
       </c>
       <c r="D24" s="98" t="s">
         <v>446</v>
@@ -12618,10 +12300,10 @@
     </row>
     <row r="25" spans="1:27" ht="14.05">
       <c r="A25" s="60" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C25" s="98"/>
       <c r="D25" s="98"/>
@@ -12659,10 +12341,10 @@
     </row>
     <row r="26" spans="1:27" ht="14.05">
       <c r="A26" s="60" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C26" s="98"/>
       <c r="D26" s="98"/>
@@ -12682,7 +12364,7 @@
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="Q26" s="60"/>
       <c r="R26" s="60">
@@ -12692,7 +12374,7 @@
       <c r="T26" s="60"/>
       <c r="U26" s="60"/>
       <c r="V26" s="60" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="W26" s="60" t="s">
         <v>520</v>
@@ -12710,13 +12392,13 @@
     </row>
     <row r="27" spans="1:27" ht="14.05">
       <c r="A27" s="60" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>1371</v>
+        <v>595</v>
       </c>
       <c r="D27" s="98" t="s">
         <v>446</v>
@@ -12755,10 +12437,10 @@
     </row>
     <row r="28" spans="1:27" ht="14.05">
       <c r="A28" s="60" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C28" s="98"/>
       <c r="D28" s="98"/>
@@ -12796,10 +12478,10 @@
     </row>
     <row r="29" spans="1:27" ht="14.05">
       <c r="A29" s="60" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C29" s="98"/>
       <c r="D29" s="98"/>
@@ -12820,7 +12502,7 @@
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="60" t="s">
-        <v>1370</v>
+        <v>600</v>
       </c>
       <c r="R29" s="60"/>
       <c r="S29" s="60"/>
@@ -12845,13 +12527,13 @@
     </row>
     <row r="30" spans="1:27" ht="14.05">
       <c r="A30" s="60" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>1372</v>
+        <v>603</v>
       </c>
       <c r="D30" s="98" t="s">
         <v>446</v>
@@ -12890,10 +12572,10 @@
     </row>
     <row r="31" spans="1:27" ht="14.05">
       <c r="A31" s="60" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C31" s="98"/>
       <c r="D31" s="98"/>
@@ -12918,7 +12600,7 @@
       <c r="U31" s="60"/>
       <c r="V31" s="60"/>
       <c r="W31" s="60" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="X31" s="60" t="s">
         <v>520</v>
@@ -12931,10 +12613,10 @@
     </row>
     <row r="32" spans="1:27" ht="14.05">
       <c r="A32" s="60" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C32" s="98"/>
       <c r="D32" s="98"/>
@@ -12954,7 +12636,7 @@
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="Q32" s="60"/>
       <c r="R32" s="60">
@@ -12964,7 +12646,7 @@
       <c r="T32" s="60"/>
       <c r="U32" s="60"/>
       <c r="V32" s="60" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="W32" s="60" t="s">
         <v>520</v>
@@ -12982,13 +12664,13 @@
     </row>
     <row r="33" spans="1:27" ht="14.05">
       <c r="A33" s="60" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C33" s="98" t="s">
-        <v>1374</v>
+        <v>611</v>
       </c>
       <c r="D33" s="98" t="s">
         <v>446</v>
@@ -13027,10 +12709,10 @@
     </row>
     <row r="34" spans="1:27" ht="14.05">
       <c r="A34" s="60" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C34" s="98"/>
       <c r="D34" s="98"/>
@@ -13068,10 +12750,10 @@
     </row>
     <row r="35" spans="1:27" ht="14.05">
       <c r="A35" s="60" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C35" s="98"/>
       <c r="D35" s="98"/>
@@ -13092,7 +12774,7 @@
       <c r="O35" s="111"/>
       <c r="P35" s="111"/>
       <c r="Q35" s="111" t="s">
-        <v>1373</v>
+        <v>616</v>
       </c>
       <c r="R35" s="111"/>
       <c r="S35" s="111"/>
@@ -13117,10 +12799,10 @@
     </row>
     <row r="36" spans="1:27" ht="14.05">
       <c r="A36" s="60" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C36" s="98"/>
       <c r="D36" s="98"/>
@@ -13162,10 +12844,10 @@
     </row>
     <row r="37" spans="1:27" ht="14.05">
       <c r="A37" s="60" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C37" s="55"/>
       <c r="D37" s="55"/>
@@ -13181,7 +12863,7 @@
         <v>185</v>
       </c>
       <c r="J37" s="107" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K37" s="109" t="s">
         <v>520</v>
@@ -13221,15 +12903,15 @@
     </row>
     <row r="38" spans="1:27" ht="14.05">
       <c r="A38" s="60" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55" t="s">
-        <v>1397</v>
+        <v>483</v>
       </c>
       <c r="F38" s="55"/>
       <c r="G38" s="57" t="s">
@@ -13242,7 +12924,7 @@
         <v>185</v>
       </c>
       <c r="J38" s="107" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K38" s="109" t="s">
         <v>520</v>
@@ -13282,19 +12964,19 @@
     </row>
     <row r="39" spans="1:27" ht="14.05">
       <c r="A39" s="60" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>1377</v>
+        <v>625</v>
       </c>
       <c r="D39" s="55" t="s">
         <v>446</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>1375</v>
+        <v>490</v>
       </c>
       <c r="F39" s="55" t="s">
         <v>459</v>
@@ -13347,19 +13029,19 @@
     </row>
     <row r="40" spans="1:27" ht="14.05">
       <c r="A40" s="60" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>1380</v>
+        <v>628</v>
       </c>
       <c r="D40" s="55" t="s">
         <v>446</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>1378</v>
+        <v>493</v>
       </c>
       <c r="F40" s="55" t="s">
         <v>468</v>
@@ -13412,19 +13094,19 @@
     </row>
     <row r="41" spans="1:27" ht="14.05">
       <c r="A41" s="60" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>1383</v>
+        <v>631</v>
       </c>
       <c r="D41" s="55" t="s">
         <v>446</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>1381</v>
+        <v>496</v>
       </c>
       <c r="F41" s="55" t="s">
         <v>477</v>
@@ -13477,13 +13159,13 @@
     </row>
     <row r="42" spans="1:27" ht="14.05">
       <c r="A42" s="60" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C42" s="98" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D42" s="98" t="s">
         <v>446</v>
@@ -13504,7 +13186,7 @@
       <c r="N42" s="60"/>
       <c r="O42" s="60"/>
       <c r="P42" s="60" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="Q42" s="60"/>
       <c r="R42" s="60">
@@ -13532,13 +13214,13 @@
     </row>
     <row r="43" spans="1:27" ht="14.05">
       <c r="A43" s="60" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>1385</v>
+        <v>637</v>
       </c>
       <c r="D43" s="55" t="s">
         <v>446</v>
@@ -13579,10 +13261,10 @@
     </row>
     <row r="44" spans="1:27" ht="14.05">
       <c r="A44" s="60" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
@@ -13622,10 +13304,10 @@
     </row>
     <row r="45" spans="1:27" ht="14.05">
       <c r="A45" s="60" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B45" s="60" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="55"/>
@@ -13641,7 +13323,7 @@
         <v>185</v>
       </c>
       <c r="J45" s="107" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K45" s="109" t="s">
         <v>520</v>
@@ -13660,7 +13342,7 @@
       </c>
       <c r="P45" s="60"/>
       <c r="Q45" s="60" t="s">
-        <v>1384</v>
+        <v>540</v>
       </c>
       <c r="R45" s="60"/>
       <c r="S45" s="60"/>
@@ -13684,31 +13366,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5e3e77fc-dd1e-429e-88b8-c2c98e0be302}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c28abbb7-3f8e-4d69-bc75-922fa8e4aa78}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0" topLeftCell="L1">
+      <selection pane="topLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.144285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="55.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="56.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="74.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="66.14285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="87.42857142857143" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="12.7734375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="12.08984375" collapsed="true"/>
-    <col min="5" max="15" style="4" width="47.142857142857146" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="4" width="19.390625" collapsed="true"/>
-    <col min="17" max="26" style="4" width="47.142857142857146" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="4" width="12.6796875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="4" width="55.714285714285715" collapsed="true"/>
-    <col min="29" max="16384" style="4" width="47.142857142857146" collapsed="true"/>
+    <col min="5" max="15" style="4" width="55.857142857142854" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="20.428571428571427" collapsed="true"/>
+    <col min="17" max="26" style="4" width="55.857142857142854" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="4" width="14.714285714285714" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="4" width="65.85714285714286" collapsed="true"/>
+    <col min="29" max="16384" style="4" width="55.857142857142854" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.05">
@@ -13791,18 +13473,18 @@
         <v>516</v>
       </c>
       <c r="AA1" s="120" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AB1" s="120" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="14.05">
       <c r="A2" s="60" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
@@ -13819,7 +13501,7 @@
       <c r="M2" s="60"/>
       <c r="N2" s="60"/>
       <c r="O2" s="60" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="P2" s="60"/>
       <c r="Q2" s="60">
@@ -13829,7 +13511,7 @@
       <c r="S2" s="60"/>
       <c r="T2" s="60"/>
       <c r="U2" s="60" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="V2" s="60" t="s">
         <v>520</v>
@@ -13849,13 +13531,13 @@
     </row>
     <row r="3" spans="1:28" ht="14.05">
       <c r="A3" s="60" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C3" s="98" t="s">
-        <v>1387</v>
+        <v>1275</v>
       </c>
       <c r="D3" s="98" t="s">
         <v>446</v>
@@ -13893,10 +13575,10 @@
     </row>
     <row r="4" spans="1:28" ht="14.05">
       <c r="A4" s="60" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
@@ -13933,17 +13615,17 @@
     </row>
     <row r="5" spans="1:28" ht="14.05">
       <c r="A5" s="60" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
       <c r="F5" s="98"/>
       <c r="G5" s="57" t="s">
-        <v>652</v>
+        <v>368</v>
       </c>
       <c r="H5" s="105"/>
       <c r="I5" s="105"/>
@@ -13954,7 +13636,7 @@
       <c r="N5" s="60"/>
       <c r="O5" s="60"/>
       <c r="P5" s="60" t="s">
-        <v>1386</v>
+        <v>653</v>
       </c>
       <c r="Q5" s="60"/>
       <c r="R5" s="60"/>
@@ -13987,7 +13669,7 @@
         <v>655</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>1388</v>
+        <v>1276</v>
       </c>
       <c r="D6" s="98" t="s">
         <v>446</v>
@@ -14075,7 +13757,7 @@
       <c r="E8" s="98"/>
       <c r="F8" s="55"/>
       <c r="G8" s="57" t="s">
-        <v>652</v>
+        <v>368</v>
       </c>
       <c r="H8" s="105" t="s">
         <v>264</v>
@@ -14090,7 +13772,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="60"/>
       <c r="P8" s="60" t="s">
-        <v>1386</v>
+        <v>653</v>
       </c>
       <c r="Q8" s="60"/>
       <c r="R8" s="60"/>
@@ -14127,7 +13809,7 @@
       <c r="E9" s="98"/>
       <c r="F9" s="98"/>
       <c r="G9" s="57" t="s">
-        <v>652</v>
+        <v>368</v>
       </c>
       <c r="H9" s="105" t="s">
         <v>264</v>
@@ -14142,7 +13824,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="60"/>
       <c r="P9" s="60" t="s">
-        <v>1386</v>
+        <v>653</v>
       </c>
       <c r="Q9" s="60"/>
       <c r="R9" s="60"/>
@@ -14179,7 +13861,7 @@
       <c r="E10" s="98"/>
       <c r="F10" s="98"/>
       <c r="G10" s="57" t="s">
-        <v>652</v>
+        <v>368</v>
       </c>
       <c r="H10" s="105" t="s">
         <v>264</v>
@@ -14194,7 +13876,7 @@
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
       <c r="P10" s="60" t="s">
-        <v>1386</v>
+        <v>653</v>
       </c>
       <c r="Q10" s="60"/>
       <c r="R10" s="60"/>
@@ -14324,7 +14006,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
       <c r="P13" s="60" t="s">
-        <v>1386</v>
+        <v>653</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -14353,7 +14035,7 @@
       <c r="E14" s="98"/>
       <c r="F14" s="98"/>
       <c r="G14" s="57" t="s">
-        <v>652</v>
+        <v>368</v>
       </c>
       <c r="H14" s="105" t="s">
         <v>264</v>
@@ -14368,7 +14050,7 @@
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
       <c r="P14" s="60" t="s">
-        <v>1386</v>
+        <v>653</v>
       </c>
       <c r="Q14" s="60"/>
       <c r="R14" s="60"/>
@@ -14401,7 +14083,7 @@
         <v>680</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>1345</v>
+        <v>681</v>
       </c>
       <c r="D15" s="98" t="s">
         <v>446</v>
@@ -14498,7 +14180,7 @@
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60" t="s">
-        <v>1386</v>
+        <v>653</v>
       </c>
       <c r="Q17" s="60"/>
       <c r="R17" s="60"/>
@@ -14517,7 +14199,7 @@
       <c r="Y17" s="112"/>
       <c r="Z17" s="61"/>
       <c r="AA17" s="121" t="s">
-        <v>1298</v>
+        <v>686</v>
       </c>
       <c r="AB17" s="105"/>
     </row>
@@ -14533,7 +14215,7 @@
       <c r="E18" s="98"/>
       <c r="F18" s="98"/>
       <c r="G18" s="57" t="s">
-        <v>652</v>
+        <v>368</v>
       </c>
       <c r="H18" s="105" t="s">
         <v>264</v>
@@ -14548,7 +14230,7 @@
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60" t="s">
-        <v>1386</v>
+        <v>653</v>
       </c>
       <c r="Q18" s="60"/>
       <c r="R18" s="60"/>
@@ -14581,7 +14263,7 @@
         <v>691</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>1345</v>
+        <v>692</v>
       </c>
       <c r="D19" s="98" t="s">
         <v>446</v>
@@ -14678,7 +14360,7 @@
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60" t="s">
-        <v>1386</v>
+        <v>653</v>
       </c>
       <c r="Q21" s="60"/>
       <c r="R21" s="60"/>
@@ -14697,7 +14379,7 @@
       <c r="Y21" s="114"/>
       <c r="Z21" s="116"/>
       <c r="AA21" s="122" t="s">
-        <v>1300</v>
+        <v>697</v>
       </c>
       <c r="AB21" s="61"/>
     </row>
@@ -14742,25 +14424,25 @@
       <c r="AB22" s="105"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068bc2ac-8360-4d7f-9ca0-d4a194e98413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e1b27601-c3bb-48b7-abd5-856135afe556}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="44.714285714285715" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="52.42857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="52.857142857142854" collapsed="true"/>
-    <col min="4" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="52.857142857142854" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="61.857142857142854" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="62.42857142857143" collapsed="true"/>
+    <col min="4" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
@@ -14863,37 +14545,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e7ee4473-59b4-4f2c-9f5c-7c797684b02b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c2c7b70a-1415-4192-bc43-6647a0c18a47}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.854285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="27.004285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="44.57142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="45.714285714285715" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="15.714285714285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="14.857142857142858" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="44.142857142857146" collapsed="true"/>
-    <col min="6" max="8" style="4" width="22.857142857142858" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="47.285714285714285" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="34.714285714285715" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="42.857142857142854" collapsed="true"/>
-    <col min="12" max="12" style="4" width="22.857142857142858" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="66.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="37.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="4" width="41.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="4" width="38.857142857142854" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="4" width="36.42857142857143" collapsed="true"/>
-    <col min="18" max="16384" style="4" width="22.857142857142858" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="52.714285714285715" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="53.857142857142854" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="12.7734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="12.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="12.19921875" collapsed="true"/>
+    <col min="6" max="8" style="4" width="27.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="55.857142857142854" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="41.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="50.57142857142857" collapsed="true"/>
+    <col min="12" max="12" style="4" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="78.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="4" width="22.07421875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="48.285714285714285" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="45.714285714285715" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="4" width="42.857142857142854" collapsed="true"/>
+    <col min="18" max="16384" style="4" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.05">
@@ -14957,13 +14639,13 @@
         <v>710</v>
       </c>
       <c r="C2" s="125" t="s">
-        <v>711</v>
+        <v>1278</v>
       </c>
       <c r="D2" s="125" t="s">
         <v>446</v>
       </c>
       <c r="E2" s="127" t="s">
-        <v>712</v>
+        <v>1271</v>
       </c>
       <c r="F2" s="127" t="s">
         <v>368</v>
@@ -14988,7 +14670,7 @@
       </c>
       <c r="M2" s="128"/>
       <c r="N2" s="127" t="s">
-        <v>715</v>
+        <v>1274</v>
       </c>
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
@@ -15079,7 +14761,7 @@
         <v>724</v>
       </c>
       <c r="C6" s="125" t="s">
-        <v>725</v>
+        <v>1279</v>
       </c>
       <c r="D6" s="125" t="s">
         <v>446</v>
@@ -15100,10 +14782,10 @@
         <v>713</v>
       </c>
       <c r="J6" s="129" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="K6" s="129" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="L6" s="127" t="s">
         <v>714</v>
@@ -15116,18 +14798,18 @@
         <v>713</v>
       </c>
       <c r="P6" s="129" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="Q6" s="129" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.05">
       <c r="A7" s="124" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C7" s="125"/>
       <c r="D7" s="125"/>
@@ -15151,10 +14833,10 @@
     </row>
     <row r="8" spans="1:17" ht="14.05">
       <c r="A8" s="124" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C8" s="125"/>
       <c r="D8" s="125"/>
@@ -15176,10 +14858,10 @@
     </row>
     <row r="9" spans="1:17" ht="14.05">
       <c r="A9" s="124" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -15201,13 +14883,13 @@
     </row>
     <row r="10" spans="1:17" ht="14.05">
       <c r="A10" s="124" t="s">
+        <v>732</v>
+      </c>
+      <c r="B10" s="124" t="s">
+        <v>733</v>
+      </c>
+      <c r="C10" s="125" t="s">
         <v>734</v>
-      </c>
-      <c r="B10" s="124" t="s">
-        <v>735</v>
-      </c>
-      <c r="C10" s="125" t="s">
-        <v>736</v>
       </c>
       <c r="D10" s="125" t="s">
         <v>446</v>
@@ -15225,13 +14907,13 @@
         <v>185</v>
       </c>
       <c r="I10" s="129" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="J10" s="129" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="K10" s="129" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="L10" s="127" t="s">
         <v>714</v>
@@ -15246,10 +14928,10 @@
     </row>
     <row r="11" spans="1:17" ht="14.05">
       <c r="A11" s="124" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C11" s="125"/>
       <c r="D11" s="125"/>
@@ -15273,10 +14955,10 @@
     </row>
     <row r="12" spans="1:17" ht="14.05">
       <c r="A12" s="124" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B12" s="124" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C12" s="125"/>
       <c r="D12" s="125"/>
@@ -15298,10 +14980,10 @@
     </row>
     <row r="13" spans="1:17" ht="14.05">
       <c r="A13" s="124" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C13" s="125"/>
       <c r="D13" s="125"/>
@@ -15322,33 +15004,33 @@
       <c r="Q13" s="128"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18296400-aa61-4adb-86e2-548138256aa6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7d4b140b-9223-43db-b545-30b7e1a26c26}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0" topLeftCell="J1">
+      <selection pane="topLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="92.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="80.14285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="62.42857142857143" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="50.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="73.57142857142857" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="74.14285714285714" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="78.42857142857143" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="81.85714285714286" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="138.42857142857142" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="103.28571428571429" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="82.85714285714286" collapsed="true"/>
-    <col min="12" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="108.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="94.71428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="73.71428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="59.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="87.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="87.57142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="92.57142857142857" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="96.85714285714286" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="163.85714285714286" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="122.28571428571429" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="97.85714285714286" collapsed="true"/>
+    <col min="12" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.05">
@@ -15362,7 +15044,7 @@
         <v>145</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E1" s="63" t="s">
         <v>438</v>
@@ -15396,7 +15078,7 @@
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="58" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F2" s="99" t="s">
         <v>459</v>
@@ -15405,7 +15087,7 @@
         <v>460</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>484</v>
@@ -15427,7 +15109,7 @@
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="58" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F3" s="99" t="s">
         <v>468</v>
@@ -15436,10 +15118,10 @@
         <v>469</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>100</v>
@@ -15458,7 +15140,7 @@
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="58" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F4" s="99" t="s">
         <v>477</v>
@@ -15467,10 +15149,10 @@
         <v>478</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>100</v>
@@ -15489,7 +15171,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="58" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F5" s="99" t="s">
         <v>449</v>
@@ -15498,10 +15180,10 @@
         <v>450</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>100</v>
@@ -15511,69 +15193,69 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9920aecb-3901-48e1-9688-42e6bd77018e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7fac3aaf-e029-4887-813e-57db062ee7cf}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.854285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="27.004285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="16384" style="4" width="22.857142857142858" collapsed="true"/>
+    <col min="1" max="16384" style="4" width="27.0" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2f3eba58-dccd-43ac-8034-61eb7f8ea84e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ee4c4d3-f5d8-4166-9219-c72eb57ef037}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.854285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="27.004285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="16384" style="4" width="22.857142857142858" collapsed="true"/>
+    <col min="1" max="16384" style="4" width="27.0" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98a2ab1a-c51b-473a-a9fd-368365ec457d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ea0a539-4b28-45a2-9863-5ed5de3b9242}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="94.14285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="100.28571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="67.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="35.857142857142854" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="68.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="53.57142857142857" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="86.28571428571429" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="4" width="81.85714285714286" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="63.714285714285715" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="55.857142857142854" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="50.57142857142857" collapsed="true"/>
-    <col min="13" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="111.28571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="118.57142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="79.14285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="42.285714285714285" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="80.28571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="63.285714285714285" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="102.14285714285714" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="4" width="96.85714285714286" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="75.28571428571429" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="66.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="59.714285714285715" collapsed="true"/>
+    <col min="13" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.05">
@@ -15587,19 +15269,19 @@
         <v>145</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>756</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>757</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>758</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>759</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>442</v>
@@ -15612,140 +15294,140 @@
     </row>
     <row r="2" spans="1:10" ht="14.05">
       <c r="A2" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
       <c r="E2" s="99" t="s">
+        <v>759</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>760</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>761</v>
+      </c>
+      <c r="H2" s="58" t="s">
         <v>762</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="I2" s="14" t="s">
         <v>763</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="J2" s="58" t="s">
         <v>764</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>765</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.9">
       <c r="A3" s="130" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B3" s="130" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C3" s="103"/>
       <c r="D3" s="103"/>
       <c r="E3" s="131" t="s">
+        <v>767</v>
+      </c>
+      <c r="F3" s="132" t="s">
+        <v>768</v>
+      </c>
+      <c r="G3" s="133" t="s">
+        <v>769</v>
+      </c>
+      <c r="H3" s="133" t="s">
         <v>770</v>
       </c>
-      <c r="F3" s="132" t="s">
-        <v>771</v>
-      </c>
-      <c r="G3" s="133" t="s">
-        <v>772</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>773</v>
-      </c>
       <c r="I3" s="14" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="J3" s="133" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.05">
       <c r="A4" s="14" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="99" t="s">
+        <v>772</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>773</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="H4" s="58" t="s">
         <v>775</v>
       </c>
-      <c r="F4" s="99" t="s">
-        <v>776</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>777</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>778</v>
-      </c>
       <c r="I4" s="14" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.05">
       <c r="A5" s="14" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
       <c r="E5" s="99" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F5" s="99"/>
       <c r="G5" s="58" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.05">
       <c r="A6" s="14" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C6" s="98"/>
       <c r="D6" s="98"/>
       <c r="E6" s="99" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -15766,34 +15448,34 @@
       <formula1>"Air Conditioner,Generaotr"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8c141992-ab65-4f16-b967-1233a9847b69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644a39c9-5af6-4e7d-a617-dc21e91e2d5b}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="59.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="69.14285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="59.285714285714285" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="51.42857142857143" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="50.57142857142857" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="64.14285714285714" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="59.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="30.428571428571427" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="62.42857142857143" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="53.857142857142854" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="4" width="84.57142857142857" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="73.71428571428571" collapsed="true"/>
-    <col min="14" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="69.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="81.71428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="70.14285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="60.857142857142854" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="59.714285714285715" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="75.85714285714286" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="69.71428571428571" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="35.857142857142854" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="73.71428571428571" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="63.714285714285715" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="4" width="100.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="87.14285714285714" collapsed="true"/>
+    <col min="14" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.05">
@@ -15807,28 +15489,28 @@
         <v>145</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>258</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>787</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>788</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>789</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>790</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>791</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>792</v>
       </c>
       <c r="L1" s="22" t="s">
         <v>442</v>
@@ -15839,16 +15521,16 @@
     </row>
     <row r="2" spans="1:13" ht="14.05">
       <c r="A2" s="14" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
       <c r="E2" s="98"/>
       <c r="F2" s="99" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G2" s="99" t="s">
         <v>228</v>
@@ -15857,19 +15539,19 @@
         <v>12</v>
       </c>
       <c r="I2" s="99" t="s">
+        <v>793</v>
+      </c>
+      <c r="J2" s="99" t="s">
+        <v>794</v>
+      </c>
+      <c r="K2" s="99" t="s">
+        <v>795</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="J2" s="99" t="s">
-        <v>797</v>
-      </c>
-      <c r="K2" s="99" t="s">
-        <v>798</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>799</v>
-      </c>
       <c r="M2" s="58" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -15890,37 +15572,37 @@
       <formula1>"Bank,Currency"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366d98d1-d8e2-4e4c-ae7f-31861b32ba27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88a54ec5-b01e-4bfe-b426-8580712b59d9}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="J1">
       <selection pane="topLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="76.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="82.42857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="54.42857142857143" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="36.857142857142854" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="59.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="55.857142857142854" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="91.28571428571429" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="40.57142857142857" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="57.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="44.142857142857146" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="39.285714285714285" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="69.14285714285714" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="87.85714285714286" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" style="4" width="84.71428571428571" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="4" width="93.14285714285714" collapsed="true"/>
-    <col min="17" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="89.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="97.42857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="64.28571428571429" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="43.285714285714285" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="69.71428571428571" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="66.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="108.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="47.857142857142854" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="67.28571428571429" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="52.285714285714285" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="46.142857142857146" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="81.71428571428571" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="103.71428571428571" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" style="4" width="100.14285714285714" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="110.14285714285714" collapsed="true"/>
+    <col min="17" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.05">
@@ -15934,37 +15616,37 @@
         <v>145</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>258</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>800</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>801</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>803</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>804</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>805</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>806</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>807</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>808</v>
       </c>
       <c r="O1" s="22" t="s">
         <v>442</v>
@@ -15975,46 +15657,46 @@
     </row>
     <row r="2" spans="1:16" ht="14.05">
       <c r="A2" s="14" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
       <c r="E2" s="98"/>
       <c r="F2" s="99" t="s">
+        <v>808</v>
+      </c>
+      <c r="G2" s="99" t="s">
+        <v>809</v>
+      </c>
+      <c r="H2" s="99" t="s">
+        <v>810</v>
+      </c>
+      <c r="I2" s="99" t="s">
         <v>811</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="J2" s="99" t="s">
         <v>812</v>
       </c>
-      <c r="H2" s="99" t="s">
+      <c r="K2" s="99" t="s">
         <v>813</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="L2" s="99" t="s">
+        <v>813</v>
+      </c>
+      <c r="M2" s="99" t="s">
         <v>814</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="N2" s="99" t="s">
+        <v>808</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>815</v>
       </c>
-      <c r="K2" s="99" t="s">
+      <c r="P2" s="58" t="s">
         <v>816</v>
-      </c>
-      <c r="L2" s="99" t="s">
-        <v>816</v>
-      </c>
-      <c r="M2" s="99" t="s">
-        <v>817</v>
-      </c>
-      <c r="N2" s="99" t="s">
-        <v>811</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>818</v>
-      </c>
-      <c r="P2" s="58" t="s">
-        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -16023,28 +15705,28 @@
       <formula1>"HDFC Bank AC HDFC098828873723238,Inter Branch GL,Vault Cash ,Inter Branch Assets,Financial Inventories,Computers &amp; Laptop,Chairs &amp; Tables,Almirah"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399b6e46-dc5f-4a53-87b5-dc1ca2839602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a128df59-d69b-42ce-a14c-98dccb62ed56}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.854285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="27.004285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="71.57142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="78.42857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="36.857142857142854" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="53.42857142857143" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="4" width="57.285714285714285" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="66.14285714285714" collapsed="true"/>
-    <col min="8" max="16384" style="4" width="22.857142857142858" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="84.57142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="92.57142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="43.285714285714285" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="63.142857142857146" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="4" width="67.71428571428571" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="78.28571428571429" collapsed="true"/>
+    <col min="8" max="16384" style="4" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.05">
@@ -16058,10 +15740,10 @@
         <v>145</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>442</v>
@@ -16072,10 +15754,10 @@
     </row>
     <row r="2" spans="1:7" ht="14.05">
       <c r="A2" s="14" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C2" s="135"/>
       <c r="D2" s="135"/>
@@ -16083,43 +15765,43 @@
         <v>1001</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911f3934-406f-419d-a8a4-c85f29deb194}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1240743f-9511-4e61-9ea0-722a0cdecac7}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="74.57142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="66.14285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="50.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="44.142857142857146" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="73.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="94.14285714285714" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="78.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="67.71428571428571" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="59.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="71.14285714285714" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="45.285714285714285" collapsed="true"/>
-    <col min="12" max="14" customWidth="true" style="4" width="62.714285714285715" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" style="4" width="55.714285714285715" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="4" width="62.285714285714285" collapsed="true"/>
-    <col min="18" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="88.14285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="78.28571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="59.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="52.285714285714285" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="86.28571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="111.28571428571429" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="92.14285714285714" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="80.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="69.71428571428571" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="84.14285714285714" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="53.42857142857143" collapsed="true"/>
+    <col min="12" max="14" customWidth="true" style="4" width="74.14285714285714" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" style="4" width="65.85714285714286" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="4" width="73.57142857142857" collapsed="true"/>
+    <col min="18" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.05">
@@ -16133,7 +15815,7 @@
         <v>145</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>257</v>
@@ -16142,31 +15824,31 @@
         <v>258</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>64</v>
       </c>
       <c r="L1" s="22" t="s">
+        <v>825</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>826</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>828</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>829</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>830</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>831</v>
       </c>
       <c r="P1" s="22" t="s">
         <v>442</v>
@@ -16177,10 +15859,10 @@
     </row>
     <row r="2" spans="1:17" ht="14.05">
       <c r="A2" s="14" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
@@ -16189,7 +15871,7 @@
       </c>
       <c r="F2" s="98"/>
       <c r="G2" s="99" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H2" s="99" t="s">
         <v>228</v>
@@ -16205,15 +15887,15 @@
         <v>267</v>
       </c>
       <c r="Q2" s="58" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14.05">
       <c r="A3" s="14" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C3" s="98"/>
       <c r="D3" s="98"/>
@@ -16222,16 +15904,16 @@
       </c>
       <c r="F3" s="98"/>
       <c r="G3" s="99" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H3" s="99" t="s">
         <v>229</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="K3" s="99" t="s">
         <v>89</v>
@@ -16252,7 +15934,7 @@
         <v>267</v>
       </c>
       <c r="Q3" s="58" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -16271,55 +15953,55 @@
       <formula2>2200</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24a6a39f-3eb1-4f9b-a5ab-dd7affa0af11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d2cb2d36-ddba-4229-a0c1-6241ef8f33d6}">
   <dimension ref="A1:AJ67"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="topLeft" state="frozenSplit"/>
+      <selection pane="topLeft" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.854285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="15.284285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="140" width="40.57142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="140" width="48.285714285714285" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="140" width="17.428571428571427" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="140" width="16.571428571428573" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="140" width="39.57142857142857" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="140" width="27.714285714285715" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="140" width="20.857142857142858" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="140" width="25.857142857142858" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="140" width="26.428571428571427" collapsed="true"/>
-    <col min="10" max="13" customWidth="true" style="140" width="16.428571428571427" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="140" width="26.428571428571427" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="140" width="28.142857142857142" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="140" width="24.571428571428573" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="140" width="34.714285714285715" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="140" width="25.857142857142858" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="140" width="38.42857142857143" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="140" width="30.428571428571427" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="140" width="17.571428571428573" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="140" width="23.285714285714285" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="140" width="17.571428571428573" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="140" width="17.714285714285715" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="140" width="28.571428571428573" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="140" width="25.857142857142858" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="140" width="28.571428571428573" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="140" width="22.571428571428573" collapsed="true"/>
-    <col min="29" max="31" customWidth="true" style="140" width="19.428571428571427" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="140" width="33.857142857142854" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="168" width="36.0" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="168" width="30.142857142857142" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="140" width="27.285714285714285" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="140" width="26.571428571428573" collapsed="true"/>
-    <col min="37" max="16384" style="140" width="12.857142857142858" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="140" width="47.857142857142854" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="140" width="57.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="140" width="20.428571428571427" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="140" width="19.428571428571427" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="140" width="46.857142857142854" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="140" width="32.57142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="140" width="24.571428571428573" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="140" width="30.428571428571427" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="140" width="31.142857142857142" collapsed="true"/>
+    <col min="10" max="13" customWidth="true" style="140" width="19.285714285714285" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="140" width="31.142857142857142" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="140" width="33.142857142857146" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="140" width="28.857142857142858" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="140" width="41.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="140" width="30.428571428571427" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="140" width="45.285714285714285" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="140" width="35.857142857142854" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="140" width="20.571428571428573" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="140" width="27.285714285714285" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="140" width="20.571428571428573" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="140" width="20.857142857142858" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="140" width="33.57142857142857" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="140" width="30.428571428571427" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="140" width="33.57142857142857" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="140" width="26.571428571428573" collapsed="true"/>
+    <col min="29" max="31" customWidth="true" style="140" width="22.714285714285715" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="140" width="39.857142857142854" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="168" width="42.42857142857143" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="168" width="35.42857142857143" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="140" width="32.142857142857146" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="140" width="31.285714285714285" collapsed="true"/>
+    <col min="37" max="16384" style="140" width="15.285714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="169" customFormat="1" ht="14.05">
@@ -16336,19 +16018,19 @@
         <v>146</v>
       </c>
       <c r="E1" s="137" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F1" s="142" t="s">
+        <v>837</v>
+      </c>
+      <c r="G1" s="137" t="s">
+        <v>838</v>
+      </c>
+      <c r="H1" s="137" t="s">
+        <v>839</v>
+      </c>
+      <c r="I1" s="137" t="s">
         <v>840</v>
-      </c>
-      <c r="G1" s="137" t="s">
-        <v>841</v>
-      </c>
-      <c r="H1" s="137" t="s">
-        <v>842</v>
-      </c>
-      <c r="I1" s="137" t="s">
-        <v>843</v>
       </c>
       <c r="J1" s="137" t="s">
         <v>31</v>
@@ -16363,92 +16045,92 @@
         <v>229</v>
       </c>
       <c r="N1" s="137" t="s">
+        <v>841</v>
+      </c>
+      <c r="O1" s="137" t="s">
+        <v>842</v>
+      </c>
+      <c r="P1" s="142" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q1" s="137" t="s">
         <v>844</v>
       </c>
-      <c r="O1" s="137" t="s">
+      <c r="R1" s="137" t="s">
         <v>845</v>
       </c>
-      <c r="P1" s="142" t="s">
+      <c r="S1" s="137" t="s">
         <v>846</v>
       </c>
-      <c r="Q1" s="137" t="s">
+      <c r="T1" s="137" t="s">
         <v>847</v>
       </c>
-      <c r="R1" s="137" t="s">
+      <c r="U1" s="137" t="s">
         <v>848</v>
       </c>
-      <c r="S1" s="137" t="s">
+      <c r="V1" s="137" t="s">
         <v>849</v>
       </c>
-      <c r="T1" s="137" t="s">
+      <c r="W1" s="142" t="s">
         <v>850</v>
       </c>
-      <c r="U1" s="137" t="s">
+      <c r="X1" s="137" t="s">
         <v>851</v>
-      </c>
-      <c r="V1" s="137" t="s">
-        <v>852</v>
-      </c>
-      <c r="W1" s="142" t="s">
-        <v>853</v>
-      </c>
-      <c r="X1" s="137" t="s">
-        <v>854</v>
       </c>
       <c r="Y1" s="137" t="s">
         <v>339</v>
       </c>
       <c r="Z1" s="137" t="s">
+        <v>852</v>
+      </c>
+      <c r="AA1" s="137" t="s">
+        <v>853</v>
+      </c>
+      <c r="AB1" s="137" t="s">
+        <v>854</v>
+      </c>
+      <c r="AC1" s="137" t="s">
         <v>855</v>
       </c>
-      <c r="AA1" s="137" t="s">
+      <c r="AD1" s="137" t="s">
         <v>856</v>
       </c>
-      <c r="AB1" s="137" t="s">
+      <c r="AE1" s="137" t="s">
         <v>857</v>
       </c>
-      <c r="AC1" s="137" t="s">
+      <c r="AF1" s="137" t="s">
         <v>858</v>
       </c>
-      <c r="AD1" s="137" t="s">
+      <c r="AG1" s="166" t="s">
         <v>859</v>
       </c>
-      <c r="AE1" s="137" t="s">
+      <c r="AH1" s="166" t="s">
         <v>860</v>
       </c>
-      <c r="AF1" s="137" t="s">
+      <c r="AI1" s="137" t="s">
         <v>861</v>
-      </c>
-      <c r="AG1" s="166" t="s">
-        <v>862</v>
-      </c>
-      <c r="AH1" s="166" t="s">
-        <v>863</v>
-      </c>
-      <c r="AI1" s="137" t="s">
-        <v>864</v>
       </c>
       <c r="AJ1" s="137"/>
     </row>
     <row r="2" spans="1:36" ht="15.25">
       <c r="A2" s="138" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C2" s="141"/>
       <c r="D2" s="141"/>
       <c r="E2" s="141"/>
       <c r="F2" s="143" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G2" s="144" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="H2" s="141"/>
       <c r="I2" s="147" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="J2" s="152" t="s">
         <v>520</v>
@@ -16488,13 +16170,13 @@
     </row>
     <row r="3" spans="1:36" ht="15.25">
       <c r="A3" s="138" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C3" s="141" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D3" s="141" t="s">
         <v>446</v>
@@ -16536,10 +16218,10 @@
     </row>
     <row r="4" spans="1:36" ht="15.25">
       <c r="A4" s="138" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B4" s="138" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C4" s="141"/>
       <c r="D4" s="141"/>
@@ -16582,10 +16264,10 @@
     </row>
     <row r="5" spans="1:36" ht="15.25">
       <c r="A5" s="138" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C5" s="141"/>
       <c r="D5" s="141"/>
@@ -16593,7 +16275,7 @@
       <c r="F5" s="143"/>
       <c r="G5" s="145"/>
       <c r="H5" s="141" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="I5" s="147"/>
       <c r="J5" s="153" t="s">
@@ -16628,23 +16310,23 @@
     </row>
     <row r="6" spans="1:36" ht="15.25">
       <c r="A6" s="138" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B6" s="138" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C6" s="141"/>
       <c r="D6" s="141"/>
       <c r="E6" s="141"/>
       <c r="F6" s="143" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G6" s="145" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H6" s="141"/>
       <c r="I6" s="148" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J6" s="153" t="s">
         <v>520</v>
@@ -16684,13 +16366,13 @@
     </row>
     <row r="7" spans="1:36" ht="15.25">
       <c r="A7" s="138" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C7" s="141" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D7" s="141" t="s">
         <v>446</v>
@@ -16732,10 +16414,10 @@
     </row>
     <row r="8" spans="1:36" ht="15.25">
       <c r="A8" s="138" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B8" s="138" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C8" s="141"/>
       <c r="D8" s="141"/>
@@ -16776,10 +16458,10 @@
     </row>
     <row r="9" spans="1:36" ht="15.25">
       <c r="A9" s="138" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B9" s="138" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C9" s="141"/>
       <c r="D9" s="141"/>
@@ -16787,7 +16469,7 @@
       <c r="F9" s="143"/>
       <c r="G9" s="145"/>
       <c r="H9" s="141" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I9" s="148"/>
       <c r="J9" s="153" t="s">
@@ -16822,23 +16504,23 @@
     </row>
     <row r="10" spans="1:36" ht="15.25">
       <c r="A10" s="138" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B10" s="138" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C10" s="141"/>
       <c r="D10" s="141"/>
       <c r="E10" s="141"/>
       <c r="F10" s="143" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G10" s="145"/>
       <c r="H10" s="141" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I10" s="148" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J10" s="153" t="s">
         <v>520</v>
@@ -16872,10 +16554,10 @@
     </row>
     <row r="11" spans="1:36" ht="15.25">
       <c r="A11" s="138" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C11" s="141"/>
       <c r="D11" s="141"/>
@@ -16891,7 +16573,7 @@
       <c r="L11" s="155"/>
       <c r="M11" s="155"/>
       <c r="N11" s="159" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="O11" s="162"/>
       <c r="P11" s="158"/>
@@ -16918,13 +16600,13 @@
     </row>
     <row r="12" spans="1:36" ht="15.25">
       <c r="A12" s="138" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B12" s="138" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C12" s="141" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D12" s="141" t="s">
         <v>446</v>
@@ -16966,10 +16648,10 @@
     </row>
     <row r="13" spans="1:36" ht="15.25">
       <c r="A13" s="138" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B13" s="138" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C13" s="141"/>
       <c r="D13" s="141"/>
@@ -17010,10 +16692,10 @@
     </row>
     <row r="14" spans="1:36" ht="15.25">
       <c r="A14" s="138" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B14" s="138" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C14" s="141"/>
       <c r="D14" s="141"/>
@@ -17030,7 +16712,7 @@
       <c r="M14" s="156"/>
       <c r="N14" s="159"/>
       <c r="O14" s="162" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="P14" s="158"/>
       <c r="Q14" s="163"/>
@@ -17056,25 +16738,25 @@
     </row>
     <row r="15" spans="1:36" ht="15.25">
       <c r="A15" s="138" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B15" s="138" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C15" s="141"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="143" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G15" s="144" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="H15" s="146" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="I15" s="147" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="J15" s="152" t="s">
         <v>520</v>
@@ -17105,7 +16787,7 @@
       <c r="AB15" s="158"/>
       <c r="AC15" s="155"/>
       <c r="AD15" s="153" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="AE15" s="153"/>
       <c r="AF15" s="164"/>
@@ -17116,13 +16798,13 @@
     </row>
     <row r="16" spans="1:36" ht="15.25">
       <c r="A16" s="138" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B16" s="138" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C16" s="141" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D16" s="141" t="s">
         <v>446</v>
@@ -17164,10 +16846,10 @@
     </row>
     <row r="17" spans="1:36" ht="15.25">
       <c r="A17" s="138" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B17" s="138" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C17" s="141"/>
       <c r="D17" s="141"/>
@@ -17208,10 +16890,10 @@
     </row>
     <row r="18" spans="1:36" ht="15.25">
       <c r="A18" s="138" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B18" s="138" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C18" s="141"/>
       <c r="D18" s="141"/>
@@ -17219,7 +16901,7 @@
       <c r="F18" s="143"/>
       <c r="G18" s="144"/>
       <c r="H18" s="146" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="I18" s="147"/>
       <c r="J18" s="153" t="s">
@@ -17254,25 +16936,25 @@
     </row>
     <row r="19" spans="1:36" ht="15.25">
       <c r="A19" s="138" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C19" s="141"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="143" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G19" s="144" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="H19" s="146" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I19" s="147" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="J19" s="152" t="s">
         <v>520</v>
@@ -17303,7 +16985,7 @@
       <c r="AB19" s="158"/>
       <c r="AC19" s="155"/>
       <c r="AD19" s="153" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="AE19" s="153"/>
       <c r="AF19" s="164"/>
@@ -17314,13 +16996,13 @@
     </row>
     <row r="20" spans="1:36" ht="15.25">
       <c r="A20" s="138" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B20" s="138" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C20" s="141" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D20" s="141" t="s">
         <v>446</v>
@@ -17362,10 +17044,10 @@
     </row>
     <row r="21" spans="1:36" ht="15.25">
       <c r="A21" s="138" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B21" s="138" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C21" s="141"/>
       <c r="D21" s="141"/>
@@ -17406,10 +17088,10 @@
     </row>
     <row r="22" spans="1:36" ht="15.25">
       <c r="A22" s="138" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B22" s="138" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C22" s="141"/>
       <c r="D22" s="141"/>
@@ -17417,7 +17099,7 @@
       <c r="F22" s="143"/>
       <c r="G22" s="144"/>
       <c r="H22" s="146" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="I22" s="147"/>
       <c r="J22" s="153" t="s">
@@ -17452,10 +17134,10 @@
     </row>
     <row r="23" spans="1:36" ht="15.25">
       <c r="A23" s="138" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B23" s="138" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C23" s="141"/>
       <c r="D23" s="141"/>
@@ -17473,17 +17155,17 @@
       <c r="N23" s="158"/>
       <c r="O23" s="161"/>
       <c r="P23" s="159" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="Q23" s="164" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="R23" s="153" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="S23" s="164"/>
       <c r="T23" s="148" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="U23" s="155"/>
       <c r="V23" s="164"/>
@@ -17504,13 +17186,13 @@
     </row>
     <row r="24" spans="1:36" ht="15.25">
       <c r="A24" s="138" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B24" s="138" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C24" s="141" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D24" s="141" t="s">
         <v>446</v>
@@ -17552,10 +17234,10 @@
     </row>
     <row r="25" spans="1:36" ht="15.25">
       <c r="A25" s="138" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B25" s="138" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C25" s="141"/>
       <c r="D25" s="141"/>
@@ -17596,10 +17278,10 @@
     </row>
     <row r="26" spans="1:36" ht="15.25">
       <c r="A26" s="138" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B26" s="138" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C26" s="141"/>
       <c r="D26" s="141"/>
@@ -17620,7 +17302,7 @@
       <c r="Q26" s="164"/>
       <c r="R26" s="153"/>
       <c r="S26" s="164" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="T26" s="148"/>
       <c r="U26" s="155"/>
@@ -17642,10 +17324,10 @@
     </row>
     <row r="27" spans="1:36" ht="15.25">
       <c r="A27" s="138" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B27" s="138" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C27" s="141"/>
       <c r="D27" s="141"/>
@@ -17663,17 +17345,17 @@
       <c r="N27" s="160"/>
       <c r="O27" s="161"/>
       <c r="P27" s="160" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="Q27" s="164" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="R27" s="153" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="S27" s="164"/>
       <c r="T27" s="151" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="U27" s="139"/>
       <c r="V27" s="164"/>
@@ -17694,13 +17376,13 @@
     </row>
     <row r="28" spans="1:36" ht="15.25">
       <c r="A28" s="138" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B28" s="138" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C28" s="141" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D28" s="141" t="s">
         <v>446</v>
@@ -17742,10 +17424,10 @@
     </row>
     <row r="29" spans="1:36" ht="15.25">
       <c r="A29" s="138" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B29" s="138" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C29" s="141"/>
       <c r="D29" s="141"/>
@@ -17786,10 +17468,10 @@
     </row>
     <row r="30" spans="1:36" ht="15.25">
       <c r="A30" s="138" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B30" s="138" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C30" s="141"/>
       <c r="D30" s="141"/>
@@ -17810,7 +17492,7 @@
       <c r="Q30" s="164"/>
       <c r="R30" s="153"/>
       <c r="S30" s="164" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="T30" s="151"/>
       <c r="U30" s="139"/>
@@ -17832,10 +17514,10 @@
     </row>
     <row r="31" spans="1:36" ht="15.25">
       <c r="A31" s="138" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B31" s="138" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C31" s="141"/>
       <c r="D31" s="141"/>
@@ -17853,17 +17535,17 @@
       <c r="N31" s="160"/>
       <c r="O31" s="161"/>
       <c r="P31" s="160" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="Q31" s="164" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="R31" s="153" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="S31" s="164"/>
       <c r="T31" s="151" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="U31" s="139"/>
       <c r="V31" s="164"/>
@@ -17884,13 +17566,13 @@
     </row>
     <row r="32" spans="1:36" ht="15.25">
       <c r="A32" s="138" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C32" s="141" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D32" s="141" t="s">
         <v>446</v>
@@ -17932,10 +17614,10 @@
     </row>
     <row r="33" spans="1:36" ht="15.25">
       <c r="A33" s="138" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B33" s="138" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C33" s="141"/>
       <c r="D33" s="141"/>
@@ -17976,10 +17658,10 @@
     </row>
     <row r="34" spans="1:36" ht="15.25">
       <c r="A34" s="138" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B34" s="138" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C34" s="141"/>
       <c r="D34" s="141"/>
@@ -18000,7 +17682,7 @@
       <c r="Q34" s="164"/>
       <c r="R34" s="153"/>
       <c r="S34" s="164" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="T34" s="151"/>
       <c r="U34" s="139"/>
@@ -18022,10 +17704,10 @@
     </row>
     <row r="35" spans="1:36" ht="15.25">
       <c r="A35" s="138" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B35" s="138" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C35" s="141"/>
       <c r="D35" s="141"/>
@@ -18043,17 +17725,17 @@
       <c r="N35" s="160"/>
       <c r="O35" s="161"/>
       <c r="P35" s="160" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="Q35" s="164" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="R35" s="153" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="S35" s="164"/>
       <c r="T35" s="151" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="U35" s="139"/>
       <c r="V35" s="164"/>
@@ -18074,13 +17756,13 @@
     </row>
     <row r="36" spans="1:36" ht="15.25">
       <c r="A36" s="138" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C36" s="141" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D36" s="141" t="s">
         <v>446</v>
@@ -18122,10 +17804,10 @@
     </row>
     <row r="37" spans="1:36" ht="15.25">
       <c r="A37" s="138" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B37" s="138" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C37" s="141"/>
       <c r="D37" s="141"/>
@@ -18166,10 +17848,10 @@
     </row>
     <row r="38" spans="1:36" ht="15.25">
       <c r="A38" s="138" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B38" s="138" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C38" s="141"/>
       <c r="D38" s="141"/>
@@ -18190,7 +17872,7 @@
       <c r="Q38" s="164"/>
       <c r="R38" s="153"/>
       <c r="S38" s="164" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="T38" s="151"/>
       <c r="U38" s="139"/>
@@ -18212,10 +17894,10 @@
     </row>
     <row r="39" spans="1:36" ht="15.25">
       <c r="A39" s="138" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B39" s="138" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C39" s="141"/>
       <c r="D39" s="141"/>
@@ -18234,11 +17916,11 @@
       <c r="O39" s="161"/>
       <c r="P39" s="158"/>
       <c r="Q39" s="164" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="R39" s="155"/>
       <c r="S39" s="164" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="T39" s="149"/>
       <c r="U39" s="155"/>
@@ -18260,10 +17942,10 @@
     </row>
     <row r="40" spans="1:36" ht="15.25">
       <c r="A40" s="138" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B40" s="138" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C40" s="141"/>
       <c r="D40" s="141"/>
@@ -18282,29 +17964,29 @@
       <c r="O40" s="161"/>
       <c r="P40" s="158"/>
       <c r="Q40" s="164" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="R40" s="155"/>
       <c r="S40" s="164" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="T40" s="148"/>
       <c r="U40" s="153" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="V40" s="164"/>
       <c r="W40" s="148" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="X40" s="148" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="Y40" s="153" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="Z40" s="164"/>
       <c r="AA40" s="164" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="AB40" s="158"/>
       <c r="AC40" s="155"/>
@@ -18318,13 +18000,13 @@
     </row>
     <row r="41" spans="1:36" ht="15.25">
       <c r="A41" s="138" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B41" s="138" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C41" s="141" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D41" s="141" t="s">
         <v>446</v>
@@ -18366,10 +18048,10 @@
     </row>
     <row r="42" spans="1:36" ht="15.25">
       <c r="A42" s="138" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B42" s="138" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C42" s="141"/>
       <c r="D42" s="141"/>
@@ -18410,10 +18092,10 @@
     </row>
     <row r="43" spans="1:36" ht="15.25">
       <c r="A43" s="138" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B43" s="138" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C43" s="141"/>
       <c r="D43" s="141"/>
@@ -18441,7 +18123,7 @@
       <c r="X43" s="148"/>
       <c r="Y43" s="153"/>
       <c r="Z43" s="164" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AA43" s="164"/>
       <c r="AB43" s="158"/>
@@ -18456,10 +18138,10 @@
     </row>
     <row r="44" spans="1:36" ht="15.25">
       <c r="A44" s="138" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B44" s="138" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C44" s="141"/>
       <c r="D44" s="141"/>
@@ -18480,29 +18162,29 @@
       <c r="Q44" s="163"/>
       <c r="R44" s="155"/>
       <c r="S44" s="164" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="T44" s="148"/>
       <c r="U44" s="153" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="V44" s="164" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="W44" s="148" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="X44" s="148" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="Y44" s="153" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="Z44" s="164" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AA44" s="164" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="AB44" s="158"/>
       <c r="AC44" s="155"/>
@@ -18516,13 +18198,13 @@
     </row>
     <row r="45" spans="1:36" ht="15.25">
       <c r="A45" s="138" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B45" s="138" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C45" s="141" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D45" s="141" t="s">
         <v>446</v>
@@ -18564,10 +18246,10 @@
     </row>
     <row r="46" spans="1:36" ht="15.25">
       <c r="A46" s="138" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B46" s="138" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C46" s="141"/>
       <c r="D46" s="141"/>
@@ -18608,10 +18290,10 @@
     </row>
     <row r="47" spans="1:36" ht="15.25">
       <c r="A47" s="138" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B47" s="138" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C47" s="141"/>
       <c r="D47" s="141"/>
@@ -18639,7 +18321,7 @@
       <c r="X47" s="148"/>
       <c r="Y47" s="153"/>
       <c r="Z47" s="164" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="AA47" s="164"/>
       <c r="AB47" s="158"/>
@@ -18654,10 +18336,10 @@
     </row>
     <row r="48" spans="1:36" ht="15.25">
       <c r="A48" s="138" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B48" s="138" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C48" s="141"/>
       <c r="D48" s="141"/>
@@ -18678,27 +18360,27 @@
       <c r="Q48" s="163"/>
       <c r="R48" s="155"/>
       <c r="S48" s="164" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="T48" s="148"/>
       <c r="U48" s="153" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="V48" s="164" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="W48" s="148" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="X48" s="148" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="Y48" s="153" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="Z48" s="164"/>
       <c r="AA48" s="164" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AB48" s="158"/>
       <c r="AC48" s="155"/>
@@ -18712,13 +18394,13 @@
     </row>
     <row r="49" spans="1:36" ht="15.25">
       <c r="A49" s="138" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C49" s="141" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D49" s="141" t="s">
         <v>446</v>
@@ -18760,10 +18442,10 @@
     </row>
     <row r="50" spans="1:36" ht="15.25">
       <c r="A50" s="138" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B50" s="138" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C50" s="141"/>
       <c r="D50" s="141"/>
@@ -18804,10 +18486,10 @@
     </row>
     <row r="51" spans="1:36" ht="15.25">
       <c r="A51" s="138" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B51" s="138" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C51" s="141"/>
       <c r="D51" s="141"/>
@@ -18835,7 +18517,7 @@
       <c r="X51" s="148"/>
       <c r="Y51" s="153"/>
       <c r="Z51" s="164" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="AA51" s="164"/>
       <c r="AB51" s="158"/>
@@ -18850,10 +18532,10 @@
     </row>
     <row r="52" spans="1:36" ht="15.25">
       <c r="A52" s="138" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B52" s="138" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C52" s="141"/>
       <c r="D52" s="141"/>
@@ -18874,26 +18556,26 @@
       <c r="Q52" s="163"/>
       <c r="R52" s="155"/>
       <c r="S52" s="164" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="T52" s="149"/>
       <c r="U52" s="153" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="V52" s="164" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="W52" s="148" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="X52" s="148" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Y52" s="153" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="Z52" s="164" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="AA52" s="164"/>
       <c r="AB52" s="159"/>
@@ -18908,13 +18590,13 @@
     </row>
     <row r="53" spans="1:36" ht="15.25">
       <c r="A53" s="138" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B53" s="138" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C53" s="141" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D53" s="141" t="s">
         <v>446</v>
@@ -18956,10 +18638,10 @@
     </row>
     <row r="54" spans="1:36" ht="15.25">
       <c r="A54" s="138" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B54" s="138" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C54" s="141"/>
       <c r="D54" s="141"/>
@@ -19000,10 +18682,10 @@
     </row>
     <row r="55" spans="1:36" ht="15.25">
       <c r="A55" s="138" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B55" s="138" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C55" s="141"/>
       <c r="D55" s="141"/>
@@ -19031,7 +18713,7 @@
       <c r="X55" s="148"/>
       <c r="Y55" s="153"/>
       <c r="Z55" s="164" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="AA55" s="164"/>
       <c r="AB55" s="159"/>
@@ -19046,10 +18728,10 @@
     </row>
     <row r="56" spans="1:36" ht="15.25">
       <c r="A56" s="138" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B56" s="138" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C56" s="141"/>
       <c r="D56" s="141"/>
@@ -19070,26 +18752,26 @@
       <c r="Q56" s="163"/>
       <c r="R56" s="155"/>
       <c r="S56" s="164" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="T56" s="149"/>
       <c r="U56" s="153" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="V56" s="164"/>
       <c r="W56" s="148" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="X56" s="148" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="Y56" s="153" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="Z56" s="164"/>
       <c r="AA56" s="164"/>
       <c r="AB56" s="159" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="AC56" s="155"/>
       <c r="AD56" s="155"/>
@@ -19102,13 +18784,13 @@
     </row>
     <row r="57" spans="1:36" ht="15.25">
       <c r="A57" s="138" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B57" s="138" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C57" s="141" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D57" s="141" t="s">
         <v>446</v>
@@ -19150,10 +18832,10 @@
     </row>
     <row r="58" spans="1:36" ht="15.25">
       <c r="A58" s="138" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B58" s="138" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C58" s="141"/>
       <c r="D58" s="141"/>
@@ -19194,10 +18876,10 @@
     </row>
     <row r="59" spans="1:36" ht="15.25">
       <c r="A59" s="138" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B59" s="138" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C59" s="141"/>
       <c r="D59" s="141"/>
@@ -19225,7 +18907,7 @@
       <c r="X59" s="148"/>
       <c r="Y59" s="153"/>
       <c r="Z59" s="164" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="AA59" s="164"/>
       <c r="AB59" s="159"/>
@@ -19240,10 +18922,10 @@
     </row>
     <row r="60" spans="1:36" ht="15.25">
       <c r="A60" s="138" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B60" s="138" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C60" s="141"/>
       <c r="D60" s="141"/>
@@ -19268,16 +18950,16 @@
       <c r="U60" s="155"/>
       <c r="V60" s="164"/>
       <c r="W60" s="148" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="X60" s="149"/>
       <c r="Y60" s="153" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="Z60" s="164"/>
       <c r="AA60" s="164"/>
       <c r="AB60" s="159" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="AC60" s="155"/>
       <c r="AD60" s="155"/>
@@ -19292,10 +18974,10 @@
     </row>
     <row r="61" spans="1:36" ht="15.25">
       <c r="A61" s="138" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B61" s="138" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C61" s="141"/>
       <c r="D61" s="141"/>
@@ -19320,16 +19002,16 @@
       <c r="U61" s="155"/>
       <c r="V61" s="164"/>
       <c r="W61" s="148" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="X61" s="149"/>
       <c r="Y61" s="153" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="Z61" s="164"/>
       <c r="AA61" s="164"/>
       <c r="AB61" s="159" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AC61" s="155"/>
       <c r="AD61" s="155"/>
@@ -19344,10 +19026,10 @@
     </row>
     <row r="62" spans="1:36" ht="15.25">
       <c r="A62" s="138" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B62" s="138" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C62" s="141"/>
       <c r="D62" s="141"/>
@@ -19375,15 +19057,15 @@
       <c r="X62" s="149"/>
       <c r="Y62" s="155"/>
       <c r="Z62" s="164" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="AA62" s="164"/>
       <c r="AB62" s="159" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="AC62" s="155"/>
       <c r="AD62" s="155" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="AE62" s="155"/>
       <c r="AF62" s="164"/>
@@ -19394,13 +19076,13 @@
     </row>
     <row r="63" spans="1:36" ht="15.25">
       <c r="A63" s="138" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B63" s="138" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C63" s="141" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D63" s="141" t="s">
         <v>446</v>
@@ -19442,10 +19124,10 @@
     </row>
     <row r="64" spans="1:36" ht="15.25">
       <c r="A64" s="138" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B64" s="138" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C64" s="141"/>
       <c r="D64" s="141"/>
@@ -19486,10 +19168,10 @@
     </row>
     <row r="65" spans="1:36" ht="15.25">
       <c r="A65" s="138" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B65" s="138" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C65" s="141"/>
       <c r="D65" s="141"/>
@@ -19517,14 +19199,14 @@
       <c r="X65" s="149"/>
       <c r="Y65" s="155"/>
       <c r="Z65" s="164" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="AA65" s="164"/>
       <c r="AB65" s="159"/>
       <c r="AC65" s="155"/>
       <c r="AD65" s="155"/>
       <c r="AE65" s="165" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="AF65" s="164"/>
       <c r="AG65" s="167"/>
@@ -19534,10 +19216,10 @@
     </row>
     <row r="66" spans="1:36" ht="15.25">
       <c r="A66" s="138" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B66" s="138" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C66" s="141"/>
       <c r="D66" s="141"/>
@@ -19574,16 +19256,16 @@
       <c r="AG66" s="167"/>
       <c r="AH66" s="167"/>
       <c r="AI66" s="144" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="AJ66" s="144"/>
     </row>
     <row r="67" spans="1:36" ht="15.25">
       <c r="A67" s="139" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B67" s="139" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C67" s="141"/>
       <c r="D67" s="141"/>
@@ -19614,7 +19296,7 @@
       <c r="AA67" s="164"/>
       <c r="AB67" s="158"/>
       <c r="AC67" s="155" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="AD67" s="155"/>
       <c r="AE67" s="155"/>
@@ -19645,22 +19327,22 @@
       <formula1>"Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="2.520866141732283" bottom="2.520866141732283" header="2.3240157480314956" footer="2.3240157480314956"/>
+  <pageMargins left="0.7" right="0.7" top="3.406299212598425" bottom="3.406299212598425" header="3.2094488188976373" footer="3.2094488188976373"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28d05dc4-3f67-447c-8a6a-7167ed57a2c4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{eab5a155-6827-4a9a-b15b-d4596ed544a6}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="98.14428571428572" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="116.2842857142857" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="16384" style="4" width="98.14285714285714" collapsed="true"/>
+    <col min="1" max="16384" style="4" width="116.28571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
@@ -19711,44 +19393,44 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82fa6c2f-582f-4cf5-90c4-20a376885d59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f9c657e1-6f07-4b21-90da-a1de624d2ba6}">
   <dimension ref="A1:BO49"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="topLeft" state="frozenSplit"/>
+      <selection pane="topLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="49.424285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="58.574285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="2" style="140" width="49.42857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="140" width="17.428571428571427" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="140" width="16.571428571428573" collapsed="true"/>
-    <col min="5" max="6" style="140" width="49.42857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="140" width="70.85714285714286" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="140" width="50.857142857142854" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="140" width="63.714285714285715" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="140" width="50.285714285714285" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="140" width="56.714285714285715" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="140" width="68.71428571428571" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="140" width="53.857142857142854" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="140" width="69.14285714285714" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="140" width="62.0" collapsed="true"/>
-    <col min="16" max="28" style="140" width="49.42857142857143" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="140" width="46.142857142857146" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="140" width="34.285714285714285" collapsed="true"/>
-    <col min="31" max="33" style="140" width="49.42857142857143" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="140" width="50.57142857142857" collapsed="true"/>
-    <col min="35" max="36" style="140" width="49.42857142857143" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="140" width="52.57142857142857" collapsed="true"/>
-    <col min="38" max="16384" style="140" width="49.42857142857143" collapsed="true"/>
+    <col min="1" max="2" style="140" width="58.57142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="140" width="20.428571428571427" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="140" width="19.428571428571427" collapsed="true"/>
+    <col min="5" max="6" style="140" width="58.57142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="140" width="83.71428571428571" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="140" width="60.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="140" width="75.28571428571429" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="140" width="59.285714285714285" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="140" width="67.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="140" width="81.14285714285714" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="140" width="63.714285714285715" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="140" width="81.71428571428571" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="140" width="73.28571428571429" collapsed="true"/>
+    <col min="16" max="28" style="140" width="58.57142857142857" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="140" width="54.42857142857143" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="140" width="40.285714285714285" collapsed="true"/>
+    <col min="31" max="33" style="140" width="58.57142857142857" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="140" width="59.714285714285715" collapsed="true"/>
+    <col min="35" max="36" style="140" width="58.57142857142857" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="140" width="62.0" collapsed="true"/>
+    <col min="38" max="16384" style="140" width="58.57142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="14.05">
@@ -19765,43 +19447,43 @@
         <v>146</v>
       </c>
       <c r="E1" s="137" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F1" s="142" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G1" s="137" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H1" s="137" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I1" s="137" t="s">
         <v>1062</v>
       </c>
-      <c r="G1" s="137" t="s">
+      <c r="J1" s="137" t="s">
         <v>1063</v>
       </c>
-      <c r="H1" s="137" t="s">
+      <c r="K1" s="137" t="s">
         <v>1064</v>
       </c>
-      <c r="I1" s="137" t="s">
+      <c r="L1" s="137" t="s">
         <v>1065</v>
       </c>
-      <c r="J1" s="137" t="s">
+      <c r="M1" s="137" t="s">
         <v>1066</v>
       </c>
-      <c r="K1" s="137" t="s">
+      <c r="N1" s="137" t="s">
         <v>1067</v>
       </c>
-      <c r="L1" s="137" t="s">
+      <c r="O1" s="137" t="s">
         <v>1068</v>
-      </c>
-      <c r="M1" s="137" t="s">
-        <v>1069</v>
-      </c>
-      <c r="N1" s="137" t="s">
-        <v>1070</v>
-      </c>
-      <c r="O1" s="137" t="s">
-        <v>1071</v>
       </c>
       <c r="P1" s="142" t="s">
         <v>257</v>
       </c>
       <c r="Q1" s="142" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="R1" s="142" t="s">
         <v>298</v>
@@ -19810,112 +19492,112 @@
         <v>156</v>
       </c>
       <c r="T1" s="137" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="U1" s="137" t="s">
         <v>60</v>
       </c>
       <c r="V1" s="137" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="W1" s="137" t="s">
         <v>66</v>
       </c>
       <c r="X1" s="137" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Y1" s="142" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Z1" s="137" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AA1" s="137" t="s">
         <v>1075</v>
       </c>
-      <c r="Y1" s="142" t="s">
+      <c r="AB1" s="137" t="s">
         <v>1076</v>
       </c>
-      <c r="Z1" s="137" t="s">
+      <c r="AC1" s="137" t="s">
         <v>1077</v>
       </c>
-      <c r="AA1" s="137" t="s">
+      <c r="AD1" s="137" t="s">
         <v>1078</v>
       </c>
-      <c r="AB1" s="137" t="s">
+      <c r="AE1" s="137" t="s">
         <v>1079</v>
       </c>
-      <c r="AC1" s="137" t="s">
+      <c r="AF1" s="137" t="s">
         <v>1080</v>
       </c>
-      <c r="AD1" s="137" t="s">
+      <c r="AG1" s="137" t="s">
         <v>1081</v>
       </c>
-      <c r="AE1" s="137" t="s">
+      <c r="AH1" s="137" t="s">
         <v>1082</v>
       </c>
-      <c r="AF1" s="137" t="s">
+      <c r="AI1" s="137" t="s">
         <v>1083</v>
       </c>
-      <c r="AG1" s="137" t="s">
+      <c r="AJ1" s="137" t="s">
         <v>1084</v>
       </c>
-      <c r="AH1" s="137" t="s">
+      <c r="AK1" s="137" t="s">
         <v>1085</v>
       </c>
-      <c r="AI1" s="137" t="s">
+      <c r="AL1" s="137" t="s">
         <v>1086</v>
       </c>
-      <c r="AJ1" s="137" t="s">
+      <c r="AM1" s="137" t="s">
         <v>1087</v>
       </c>
-      <c r="AK1" s="137" t="s">
+      <c r="AN1" s="137" t="s">
         <v>1088</v>
       </c>
-      <c r="AL1" s="137" t="s">
+      <c r="AO1" s="137" t="s">
         <v>1089</v>
       </c>
-      <c r="AM1" s="137" t="s">
+      <c r="AP1" s="137" t="s">
         <v>1090</v>
       </c>
-      <c r="AN1" s="137" t="s">
+      <c r="AQ1" s="137" t="s">
         <v>1091</v>
       </c>
-      <c r="AO1" s="137" t="s">
+      <c r="AR1" s="137" t="s">
         <v>1092</v>
       </c>
-      <c r="AP1" s="137" t="s">
+      <c r="AS1" s="137" t="s">
         <v>1093</v>
       </c>
-      <c r="AQ1" s="137" t="s">
+      <c r="AT1" s="137" t="s">
         <v>1094</v>
       </c>
-      <c r="AR1" s="137" t="s">
+      <c r="AU1" s="137" t="s">
         <v>1095</v>
       </c>
-      <c r="AS1" s="137" t="s">
+      <c r="AV1" s="137" t="s">
         <v>1096</v>
       </c>
-      <c r="AT1" s="137" t="s">
+      <c r="AW1" s="137" t="s">
         <v>1097</v>
       </c>
-      <c r="AU1" s="137" t="s">
+      <c r="AX1" s="137" t="s">
         <v>1098</v>
-      </c>
-      <c r="AV1" s="137" t="s">
-        <v>1099</v>
-      </c>
-      <c r="AW1" s="137" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AX1" s="137" t="s">
-        <v>1101</v>
       </c>
       <c r="AY1" s="137" t="s">
         <v>442</v>
       </c>
       <c r="AZ1" s="137" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BA1" s="137" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BB1" s="137" t="s">
+        <v>1101</v>
+      </c>
+      <c r="BC1" s="137" t="s">
         <v>1102</v>
-      </c>
-      <c r="BA1" s="137" t="s">
-        <v>1103</v>
-      </c>
-      <c r="BB1" s="137" t="s">
-        <v>1104</v>
-      </c>
-      <c r="BC1" s="137" t="s">
-        <v>1105</v>
       </c>
       <c r="BD1" s="137"/>
       <c r="BE1" s="137"/>
@@ -19932,47 +19614,47 @@
     </row>
     <row r="2" spans="1:55" ht="15.25">
       <c r="A2" s="138" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C2" s="141" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="D2" s="141" t="s">
         <v>446</v>
       </c>
       <c r="E2" s="141"/>
       <c r="F2" s="148" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H2" s="148" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I2" s="148" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J2" s="148" t="s">
         <v>1109</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="K2" s="148" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L2" s="148" t="s">
         <v>1110</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="M2" s="148" t="s">
         <v>1109</v>
       </c>
-      <c r="I2" s="148" t="s">
-        <v>1111</v>
-      </c>
-      <c r="J2" s="148" t="s">
-        <v>1112</v>
-      </c>
-      <c r="K2" s="148" t="s">
-        <v>1112</v>
-      </c>
-      <c r="L2" s="148" t="s">
-        <v>1113</v>
-      </c>
-      <c r="M2" s="148" t="s">
-        <v>1112</v>
-      </c>
       <c r="N2" s="148" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="O2" s="148" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="P2" s="148"/>
       <c r="Q2" s="148"/>
@@ -20019,13 +19701,13 @@
     </row>
     <row r="3" spans="1:55" ht="15.25">
       <c r="A3" s="138" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C3" s="141" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D3" s="141" t="s">
         <v>446</v>
@@ -20086,10 +19768,10 @@
     </row>
     <row r="4" spans="1:55" ht="15.25">
       <c r="A4" s="138" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B4" s="138" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C4" s="141"/>
       <c r="D4" s="141"/>
@@ -20149,10 +19831,10 @@
     </row>
     <row r="5" spans="1:55" ht="15.25">
       <c r="A5" s="138" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C5" s="141"/>
       <c r="D5" s="141"/>
@@ -20212,43 +19894,43 @@
     </row>
     <row r="6" spans="1:55" ht="15.25">
       <c r="A6" s="138" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B6" s="138" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C6" s="141"/>
       <c r="D6" s="141"/>
       <c r="E6" s="141"/>
       <c r="F6" s="148" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G6" s="148" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H6" s="148" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I6" s="148" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J6" s="148" t="s">
         <v>1123</v>
       </c>
-      <c r="H6" s="148" t="s">
+      <c r="K6" s="148" t="s">
         <v>1124</v>
       </c>
-      <c r="I6" s="148" t="s">
+      <c r="L6" s="148" t="s">
         <v>1125</v>
       </c>
-      <c r="J6" s="148" t="s">
+      <c r="M6" s="148" t="s">
         <v>1126</v>
       </c>
-      <c r="K6" s="148" t="s">
+      <c r="N6" s="148" t="s">
         <v>1127</v>
       </c>
-      <c r="L6" s="148" t="s">
+      <c r="O6" s="148" t="s">
         <v>1128</v>
-      </c>
-      <c r="M6" s="148" t="s">
-        <v>1129</v>
-      </c>
-      <c r="N6" s="148" t="s">
-        <v>1130</v>
-      </c>
-      <c r="O6" s="148" t="s">
-        <v>1131</v>
       </c>
       <c r="P6" s="148"/>
       <c r="Q6" s="148"/>
@@ -20295,13 +19977,13 @@
     </row>
     <row r="7" spans="1:55" ht="15.25">
       <c r="A7" s="138" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C7" s="141" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D7" s="141" t="s">
         <v>446</v>
@@ -20362,10 +20044,10 @@
     </row>
     <row r="8" spans="1:55" ht="15.25">
       <c r="A8" s="138" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B8" s="138" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C8" s="141"/>
       <c r="D8" s="141"/>
@@ -20425,10 +20107,10 @@
     </row>
     <row r="9" spans="1:55" ht="15.25">
       <c r="A9" s="138" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B9" s="138" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C9" s="141"/>
       <c r="D9" s="141"/>
@@ -20488,43 +20170,43 @@
     </row>
     <row r="10" spans="1:55" ht="15.25">
       <c r="A10" s="138" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B10" s="138" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C10" s="141"/>
       <c r="D10" s="141"/>
       <c r="E10" s="141"/>
       <c r="F10" s="148" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G10" s="148" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="H10" s="148" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="I10" s="148" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="J10" s="148" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="K10" s="148" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="L10" s="148" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="M10" s="148" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="N10" s="148" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="O10" s="148" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="P10" s="148"/>
       <c r="Q10" s="148"/>
@@ -20571,13 +20253,13 @@
     </row>
     <row r="11" spans="1:55" ht="15.25">
       <c r="A11" s="138" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C11" s="141" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D11" s="141" t="s">
         <v>446</v>
@@ -20638,10 +20320,10 @@
     </row>
     <row r="12" spans="1:55" ht="15.25">
       <c r="A12" s="138" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B12" s="138" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C12" s="141"/>
       <c r="D12" s="141"/>
@@ -20701,10 +20383,10 @@
     </row>
     <row r="13" spans="1:55" ht="15.25">
       <c r="A13" s="138" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B13" s="138" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C13" s="141"/>
       <c r="D13" s="141"/>
@@ -20764,10 +20446,10 @@
     </row>
     <row r="14" spans="1:55" ht="15.25">
       <c r="A14" s="138" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B14" s="138" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C14" s="141"/>
       <c r="D14" s="141"/>
@@ -20791,19 +20473,19 @@
         <v>185</v>
       </c>
       <c r="T14" s="148" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="U14" s="148" t="s">
         <v>520</v>
       </c>
       <c r="V14" s="148" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="W14" s="148" t="s">
         <v>91</v>
       </c>
       <c r="X14" s="148" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="Y14" s="170">
         <v>1000</v>
@@ -20847,13 +20529,13 @@
     </row>
     <row r="15" spans="1:55" ht="15.25">
       <c r="A15" s="138" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B15" s="138" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C15" s="141" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D15" s="141" t="s">
         <v>446</v>
@@ -20914,10 +20596,10 @@
     </row>
     <row r="16" spans="1:55" ht="15.25">
       <c r="A16" s="138" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B16" s="138" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C16" s="141"/>
       <c r="D16" s="141"/>
@@ -20977,10 +20659,10 @@
     </row>
     <row r="17" spans="1:55" ht="15.25">
       <c r="A17" s="138" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B17" s="138" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C17" s="141"/>
       <c r="D17" s="141"/>
@@ -21040,10 +20722,10 @@
     </row>
     <row r="18" spans="1:55" ht="15.25">
       <c r="A18" s="138" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B18" s="138" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C18" s="141"/>
       <c r="D18" s="141"/>
@@ -21067,19 +20749,19 @@
         <v>185</v>
       </c>
       <c r="T18" s="148" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="U18" s="148" t="s">
         <v>520</v>
       </c>
       <c r="V18" s="148" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="W18" s="148" t="s">
         <v>91</v>
       </c>
       <c r="X18" s="148" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="Y18" s="170">
         <v>1000</v>
@@ -21123,13 +20805,13 @@
     </row>
     <row r="19" spans="1:55" ht="15.25">
       <c r="A19" s="138" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C19" s="141" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D19" s="141" t="s">
         <v>446</v>
@@ -21190,10 +20872,10 @@
     </row>
     <row r="20" spans="1:55" ht="15.25">
       <c r="A20" s="138" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B20" s="138" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C20" s="141"/>
       <c r="D20" s="141"/>
@@ -21253,10 +20935,10 @@
     </row>
     <row r="21" spans="1:55" ht="15.25">
       <c r="A21" s="138" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B21" s="138" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C21" s="141"/>
       <c r="D21" s="141"/>
@@ -21316,10 +20998,10 @@
     </row>
     <row r="22" spans="1:55" ht="15.25">
       <c r="A22" s="138" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B22" s="138" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C22" s="141"/>
       <c r="D22" s="141"/>
@@ -21352,7 +21034,7 @@
       <c r="AA22" s="149"/>
       <c r="AB22" s="149"/>
       <c r="AC22" s="163" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="AD22" s="163"/>
       <c r="AE22" s="138"/>
@@ -21383,10 +21065,10 @@
     </row>
     <row r="23" spans="1:55" ht="15.25">
       <c r="A23" s="138" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B23" s="138" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C23" s="141"/>
       <c r="D23" s="141"/>
@@ -21419,7 +21101,7 @@
       <c r="AC23" s="163"/>
       <c r="AD23" s="163"/>
       <c r="AE23" s="138" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="AF23" s="144"/>
       <c r="AG23" s="144"/>
@@ -21448,13 +21130,13 @@
     </row>
     <row r="24" spans="1:55" ht="15.25">
       <c r="A24" s="138" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B24" s="138" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C24" s="141" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="D24" s="141" t="s">
         <v>446</v>
@@ -21515,10 +21197,10 @@
     </row>
     <row r="25" spans="1:55" ht="15.25">
       <c r="A25" s="138" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B25" s="138" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C25" s="141"/>
       <c r="D25" s="141"/>
@@ -21578,10 +21260,10 @@
     </row>
     <row r="26" spans="1:55" ht="15.25">
       <c r="A26" s="138" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B26" s="138" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C26" s="141"/>
       <c r="D26" s="141"/>
@@ -21612,7 +21294,7 @@
       <c r="AA26" s="149"/>
       <c r="AB26" s="149"/>
       <c r="AC26" s="163" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="AD26" s="163"/>
       <c r="AE26" s="138"/>
@@ -21643,10 +21325,10 @@
     </row>
     <row r="27" spans="1:55" ht="15.25">
       <c r="A27" s="138" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B27" s="138" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C27" s="141"/>
       <c r="D27" s="141"/>
@@ -21679,7 +21361,7 @@
       <c r="AA27" s="149"/>
       <c r="AB27" s="149"/>
       <c r="AC27" s="163" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="AD27" s="163"/>
       <c r="AE27" s="138"/>
@@ -21710,10 +21392,10 @@
     </row>
     <row r="28" spans="1:55" ht="15.25">
       <c r="A28" s="138" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B28" s="138" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C28" s="141"/>
       <c r="D28" s="141"/>
@@ -21753,7 +21435,7 @@
         <v>195</v>
       </c>
       <c r="AH28" s="159" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="AI28" s="144">
         <v>6</v>
@@ -21789,10 +21471,10 @@
     </row>
     <row r="29" spans="1:55" ht="15.25">
       <c r="A29" s="138" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B29" s="138" t="s">
         <v>1184</v>
-      </c>
-      <c r="B29" s="138" t="s">
-        <v>1187</v>
       </c>
       <c r="C29" s="141"/>
       <c r="D29" s="141"/>
@@ -21826,13 +21508,13 @@
       <c r="AD29" s="163"/>
       <c r="AE29" s="138"/>
       <c r="AF29" s="159" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="AG29" s="159" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="AI29" s="144">
         <v>7</v>
@@ -21868,10 +21550,10 @@
     </row>
     <row r="30" spans="1:55" ht="15.25">
       <c r="A30" s="138" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B30" s="138" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C30" s="141"/>
       <c r="D30" s="141"/>
@@ -21905,13 +21587,13 @@
       <c r="AD30" s="163"/>
       <c r="AE30" s="138"/>
       <c r="AF30" s="159" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="AG30" s="159" t="s">
         <v>195</v>
       </c>
       <c r="AH30" s="159" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="AI30" s="144">
         <v>8</v>
@@ -21947,10 +21629,10 @@
     </row>
     <row r="31" spans="1:55" ht="15.25">
       <c r="A31" s="138" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B31" s="138" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C31" s="141"/>
       <c r="D31" s="141"/>
@@ -21984,13 +21666,13 @@
       <c r="AD31" s="163"/>
       <c r="AE31" s="138"/>
       <c r="AF31" s="159" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="AG31" s="159" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AH31" s="159" t="s">
         <v>1189</v>
-      </c>
-      <c r="AH31" s="159" t="s">
-        <v>1192</v>
       </c>
       <c r="AI31" s="144">
         <v>9</v>
@@ -22026,10 +21708,10 @@
     </row>
     <row r="32" spans="1:55" ht="15.25">
       <c r="A32" s="138" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C32" s="141"/>
       <c r="D32" s="141"/>
@@ -22077,7 +21759,7 @@
         <v>195</v>
       </c>
       <c r="AP32" s="159" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="AQ32" s="144">
         <v>6</v>
@@ -22105,10 +21787,10 @@
     </row>
     <row r="33" spans="1:55" ht="15.25">
       <c r="A33" s="138" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B33" s="138" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C33" s="141"/>
       <c r="D33" s="141"/>
@@ -22139,7 +21821,7 @@
       <c r="AA33" s="149"/>
       <c r="AB33" s="149"/>
       <c r="AC33" s="163" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="AD33" s="163"/>
       <c r="AE33" s="138"/>
@@ -22172,10 +21854,10 @@
     </row>
     <row r="34" spans="1:55" ht="15.25">
       <c r="A34" s="138" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B34" s="138" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C34" s="141"/>
       <c r="D34" s="141"/>
@@ -22206,7 +21888,7 @@
       <c r="AA34" s="149"/>
       <c r="AB34" s="149"/>
       <c r="AC34" s="163" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="AD34" s="163"/>
       <c r="AE34" s="138"/>
@@ -22239,10 +21921,10 @@
     </row>
     <row r="35" spans="1:55" ht="15.25">
       <c r="A35" s="138" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B35" s="138" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C35" s="141"/>
       <c r="D35" s="141"/>
@@ -22302,10 +21984,10 @@
     </row>
     <row r="36" spans="1:55" ht="15.25">
       <c r="A36" s="138" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C36" s="141"/>
       <c r="D36" s="141"/>
@@ -22355,22 +22037,22 @@
       <c r="AT36" s="144"/>
       <c r="AU36" s="144"/>
       <c r="AV36" s="138" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AW36" s="138" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AX36" s="138" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AY36" s="138" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AZ36" s="151" t="s">
+        <v>1206</v>
+      </c>
+      <c r="BA36" s="151" t="s">
         <v>1207</v>
-      </c>
-      <c r="AW36" s="138" t="s">
-        <v>1207</v>
-      </c>
-      <c r="AX36" s="138" t="s">
-        <v>1207</v>
-      </c>
-      <c r="AY36" s="138" t="s">
-        <v>1208</v>
-      </c>
-      <c r="AZ36" s="151" t="s">
-        <v>1209</v>
-      </c>
-      <c r="BA36" s="151" t="s">
-        <v>1210</v>
       </c>
       <c r="BB36" s="138">
         <v>10</v>
@@ -22381,10 +22063,10 @@
     </row>
     <row r="37" spans="1:55" ht="15.25">
       <c r="A37" s="138" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B37" s="138" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C37" s="141"/>
       <c r="D37" s="141"/>
@@ -22444,10 +22126,10 @@
     </row>
     <row r="38" spans="1:55" ht="15.25">
       <c r="A38" s="138" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B38" s="138" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C38" s="141"/>
       <c r="D38" s="141"/>
@@ -22509,10 +22191,10 @@
     </row>
     <row r="39" spans="1:55" ht="15.25">
       <c r="A39" s="138" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B39" s="138" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C39" s="141"/>
       <c r="D39" s="141"/>
@@ -22576,10 +22258,10 @@
     </row>
     <row r="40" spans="1:55" ht="15.25">
       <c r="A40" s="138" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B40" s="138" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C40" s="141"/>
       <c r="D40" s="141"/>
@@ -22639,10 +22321,10 @@
     </row>
     <row r="41" spans="1:55" ht="15.25">
       <c r="A41" s="138" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B41" s="138" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C41" s="141"/>
       <c r="D41" s="141"/>
@@ -22682,7 +22364,7 @@
         <v>195</v>
       </c>
       <c r="AH41" s="159" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="AI41" s="144"/>
       <c r="AJ41" s="144"/>
@@ -22710,10 +22392,10 @@
     </row>
     <row r="42" spans="1:55" ht="15.25">
       <c r="A42" s="138" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="B42" s="138" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C42" s="141"/>
       <c r="D42" s="141"/>
@@ -22732,7 +22414,7 @@
         <v>183</v>
       </c>
       <c r="Q42" s="148" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="R42" s="148"/>
       <c r="S42" s="149"/>
@@ -22777,10 +22459,10 @@
     </row>
     <row r="43" spans="1:55" ht="15.25">
       <c r="A43" s="138" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="B43" s="138" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C43" s="141"/>
       <c r="D43" s="141"/>
@@ -22846,10 +22528,10 @@
     </row>
     <row r="44" spans="1:55" ht="15.25">
       <c r="A44" s="138" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B44" s="138" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C44" s="141"/>
       <c r="D44" s="141"/>
@@ -22915,10 +22597,10 @@
     </row>
     <row r="45" spans="1:55" ht="15.25">
       <c r="A45" s="138" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B45" s="138" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C45" s="141"/>
       <c r="D45" s="141"/>
@@ -22984,10 +22666,10 @@
     </row>
     <row r="46" spans="1:55" ht="15.25">
       <c r="A46" s="138" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="B46" s="138" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C46" s="141"/>
       <c r="D46" s="141"/>
@@ -23053,10 +22735,10 @@
     </row>
     <row r="47" spans="1:55" ht="15.25">
       <c r="A47" s="138" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B47" s="138" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C47" s="141"/>
       <c r="D47" s="141"/>
@@ -23118,10 +22800,10 @@
     </row>
     <row r="48" spans="1:55" ht="15.25">
       <c r="A48" s="138" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B48" s="138" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C48" s="141"/>
       <c r="D48" s="141"/>
@@ -23183,10 +22865,10 @@
     </row>
     <row r="49" spans="1:55" ht="15.25">
       <c r="A49" s="138" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C49" s="141"/>
       <c r="D49" s="141"/>
@@ -23252,45 +22934,45 @@
       <formula1>"CUSTOM_TEMPLATE,Base Template"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="2.520866141732283" bottom="2.520866141732283" header="2.3240157480314956" footer="2.3240157480314956"/>
+  <pageMargins left="0.7" right="0.7" top="3.406299212598425" bottom="3.406299212598425" header="3.2094488188976373" footer="3.2094488188976373"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3b8f14a0-b807-477a-b80f-61cb51eed3c6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74f7d316-a74d-421a-99fd-6625fc1b5dba}">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="23.285714285714285" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="100.28571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="74.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="71.71428571428571" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="71.57142857142857" collapsed="true"/>
-    <col min="7" max="7" style="4" width="22.714285714285715" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="91.57142857142857" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="80.14285714285714" collapsed="true"/>
-    <col min="10" max="10" style="4" width="22.714285714285715" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="87.57142857142857" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="99.14285714285714" collapsed="true"/>
-    <col min="13" max="13" style="4" width="22.714285714285715" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="73.71428571428571" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="4" width="81.85714285714286" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="4" width="27.285714285714285" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="4" width="70.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="4" width="70.57142857142857" collapsed="true"/>
-    <col min="19" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="27.285714285714285" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="118.57142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="87.42857142857143" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="48.57142857142857" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="84.71428571428571" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="84.57142857142857" collapsed="true"/>
+    <col min="7" max="7" style="4" width="26.857142857142858" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="108.28571428571429" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="94.71428571428571" collapsed="true"/>
+    <col min="10" max="10" style="4" width="26.857142857142858" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="103.42857142857143" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="117.28571428571429" collapsed="true"/>
+    <col min="13" max="13" style="4" width="26.857142857142858" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="87.14285714285714" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="96.85714285714286" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="32.142857142857146" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="4" width="82.71428571428571" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="4" width="83.42857142857143" collapsed="true"/>
+    <col min="19" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="41.75">
       <c r="A1" s="172" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="B1" s="173" t="s">
         <v>143</v>
@@ -23299,52 +22981,52 @@
         <v>144</v>
       </c>
       <c r="D1" s="176" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E1" s="177" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F1" s="172" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G1" s="176" t="s">
         <v>1238</v>
       </c>
-      <c r="E1" s="177" t="s">
+      <c r="H1" s="177" t="s">
         <v>1239</v>
       </c>
-      <c r="F1" s="172" t="s">
+      <c r="I1" s="172" t="s">
         <v>1240</v>
       </c>
-      <c r="G1" s="176" t="s">
+      <c r="J1" s="176" t="s">
         <v>1241</v>
       </c>
-      <c r="H1" s="177" t="s">
+      <c r="K1" s="177" t="s">
         <v>1242</v>
       </c>
-      <c r="I1" s="172" t="s">
+      <c r="L1" s="172" t="s">
         <v>1243</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="M1" s="176" t="s">
         <v>1244</v>
       </c>
-      <c r="K1" s="177" t="s">
+      <c r="N1" s="177" t="s">
         <v>1245</v>
       </c>
-      <c r="L1" s="172" t="s">
+      <c r="O1" s="172" t="s">
         <v>1246</v>
       </c>
-      <c r="M1" s="176" t="s">
+      <c r="P1" s="176" t="s">
         <v>1247</v>
       </c>
-      <c r="N1" s="177" t="s">
+      <c r="Q1" s="177" t="s">
         <v>1248</v>
       </c>
-      <c r="O1" s="172" t="s">
+      <c r="R1" s="172" t="s">
         <v>1249</v>
       </c>
-      <c r="P1" s="176" t="s">
+      <c r="S1" s="176" t="s">
         <v>1250</v>
-      </c>
-      <c r="Q1" s="177" t="s">
-        <v>1251</v>
-      </c>
-      <c r="R1" s="172" t="s">
-        <v>1252</v>
-      </c>
-      <c r="S1" s="176" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.05">
@@ -23358,7 +23040,7 @@
         <v>530</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E2" s="174" t="s">
         <v>533</v>
@@ -23367,7 +23049,7 @@
         <v>534</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="H2" s="174" t="s">
         <v>536</v>
@@ -23376,7 +23058,7 @@
         <v>537</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="K2" s="174" t="s">
         <v>538</v>
@@ -23385,7 +23067,7 @@
         <v>539</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
@@ -23405,7 +23087,7 @@
         <v>543</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E3" s="174" t="s">
         <v>545</v>
@@ -23414,7 +23096,7 @@
         <v>546</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="H3" s="174" t="s">
         <v>548</v>
@@ -23423,7 +23105,7 @@
         <v>549</v>
       </c>
       <c r="J3" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="K3" s="174" t="s">
         <v>550</v>
@@ -23432,7 +23114,7 @@
         <v>551</v>
       </c>
       <c r="M3" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -23452,34 +23134,34 @@
         <v>554</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E4" s="174" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F4" s="174" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="H4" s="174" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I4" s="174" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J4" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="K4" s="174" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L4" s="174" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -23493,40 +23175,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="174" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C5" s="174" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E5" s="174" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F5" s="174" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="H5" s="174" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I5" s="174" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="K5" s="174" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L5" s="174" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M5" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -23540,58 +23222,58 @@
         <v>5</v>
       </c>
       <c r="B6" s="175" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C6" s="175" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E6" s="175" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F6" s="175" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="H6" s="175" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I6" s="175" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J6" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="K6" s="175" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L6" s="175" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="N6" s="175" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O6" s="175" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P6" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="Q6" s="175" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="R6" s="175" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="S6" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.05">
@@ -23599,58 +23281,58 @@
         <v>6</v>
       </c>
       <c r="B7" s="175" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C7" s="175" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E7" s="175" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F7" s="175" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="H7" s="175" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I7" s="175" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J7" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="K7" s="175" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L7" s="175" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M7" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="N7" s="175" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O7" s="175" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P7" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="Q7" s="175" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="R7" s="175" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="S7" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="14.05">
@@ -23658,49 +23340,49 @@
         <v>7</v>
       </c>
       <c r="B8" s="175" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C8" s="175" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E8" s="175" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F8" s="175" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="H8" s="175" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I8" s="175" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="K8" s="175" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L8" s="175" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M8" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="N8" s="175" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O8" s="175" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="P8" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
@@ -23711,116 +23393,116 @@
         <v>8</v>
       </c>
       <c r="B9" s="175" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C9" s="175" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E9" s="175" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F9" s="175" t="s">
         <v>1255</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="G9" s="57" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H9" s="175" t="s">
         <v>1256</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E9" s="175" t="s">
+      <c r="I9" s="175" t="s">
         <v>1257</v>
       </c>
-      <c r="F9" s="175" t="s">
+      <c r="J9" s="57" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K9" s="175" t="s">
         <v>1258</v>
       </c>
-      <c r="G9" s="57" t="s">
-        <v>1174</v>
-      </c>
-      <c r="H9" s="175" t="s">
+      <c r="L9" s="175" t="s">
         <v>1259</v>
       </c>
-      <c r="I9" s="175" t="s">
+      <c r="M9" s="57" t="s">
+        <v>1171</v>
+      </c>
+      <c r="N9" s="175" t="s">
         <v>1260</v>
       </c>
-      <c r="J9" s="57" t="s">
-        <v>1174</v>
-      </c>
-      <c r="K9" s="175" t="s">
+      <c r="O9" s="175" t="s">
         <v>1261</v>
       </c>
-      <c r="L9" s="175" t="s">
+      <c r="P9" s="57" t="s">
+        <v>1171</v>
+      </c>
+      <c r="Q9" s="175" t="s">
         <v>1262</v>
       </c>
-      <c r="M9" s="57" t="s">
-        <v>1174</v>
-      </c>
-      <c r="N9" s="175" t="s">
+      <c r="R9" s="175" t="s">
         <v>1263</v>
       </c>
-      <c r="O9" s="175" t="s">
-        <v>1264</v>
-      </c>
-      <c r="P9" s="57" t="s">
-        <v>1174</v>
-      </c>
-      <c r="Q9" s="175" t="s">
-        <v>1265</v>
-      </c>
-      <c r="R9" s="175" t="s">
-        <v>1266</v>
-      </c>
       <c r="S9" s="57" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8a53adc7-957c-4734-a8e1-c5918e4a7981}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6cb93f69-fa44-4bf6-8ad0-085928f1d113}">
   <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="E1">
       <selection pane="topLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="97.28571428571429" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="105.28571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="35.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="34.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="21" width="45.285714285714285" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="21" width="32.142857142857146" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="21" width="40.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="21" width="41.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="21" width="35.857142857142854" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="21" width="41.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="21" width="35.857142857142854" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="21" width="48.285714285714285" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="39.285714285714285" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="21" width="45.714285714285715" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="21" width="47.285714285714285" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="21" width="53.57142857142857" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="21" width="51.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="21" width="58.857142857142854" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="21" width="50.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="21" width="64.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="21" width="30.428571428571427" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="21" width="51.42857142857143" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="21" width="33.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="21" width="42.285714285714285" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="21" width="33.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="21" width="34.857142857142854" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="21" width="27.285714285714285" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="21" width="22.285714285714285" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="21" width="20.857142857142858" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="21" width="31.571428571428573" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="21" width="33.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="21" width="53.857142857142854" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="21" width="45.285714285714285" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="21" width="42.285714285714285" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="21" width="28.857142857142858" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="21" width="61.857142857142854" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="21" width="50.0" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="21" width="71.71428571428571" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="21" width="81.85714285714286" collapsed="true"/>
-    <col min="40" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="115.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="124.57142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="40.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="21" width="53.42857142857143" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="21" width="37.857142857142854" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="21" width="47.285714285714285" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="21" width="48.285714285714285" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="21" width="42.285714285714285" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="21" width="48.285714285714285" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="21" width="42.285714285714285" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="21" width="57.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="46.142857142857146" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="21" width="53.857142857142854" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="21" width="55.857142857142854" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="21" width="63.285714285714285" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="21" width="60.285714285714285" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="21" width="69.57142857142857" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="21" width="59.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="21" width="75.71428571428571" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="21" width="35.857142857142854" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="21" width="60.857142857142854" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="21" width="38.857142857142854" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="21" width="50.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="21" width="38.857142857142854" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="21" width="41.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="21" width="32.142857142857146" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="21" width="26.285714285714285" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="21" width="24.571428571428573" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="21" width="37.142857142857146" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="21" width="38.857142857142854" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="21" width="63.714285714285715" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="21" width="53.42857142857143" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="21" width="50.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="21" width="34.0" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="21" width="73.14285714285714" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="21" width="59.0" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="21" width="84.71428571428571" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="21" width="96.85714285714286" collapsed="true"/>
+    <col min="40" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="14.9">
@@ -24193,24 +23875,24 @@
       <c r="AM5" s="46"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167e4974-3c9e-40cf-a02b-0c4b11d9ebbb}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f3cab984-9f34-46b1-ac46-d63a19f653c9}">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="I1">
       <selection pane="topLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.854285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="74.57428571428571" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="100.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="114.42857142857143" collapsed="true"/>
-    <col min="3" max="16384" style="4" width="62.857142857142854" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="118.28571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="135.42857142857142" collapsed="true"/>
+    <col min="3" max="16384" style="4" width="74.57142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.9">
@@ -24380,37 +24062,37 @@
       <c r="P5" s="46"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fcc3ca33-efb6-45d2-a391-140ee5519b42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24c2a017-a045-4e2b-ac34-42a35ebe69bc}">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="C1">
       <selection pane="topLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="97.28571428571429" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="109.71428571428571" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="31.428571428571427" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="33.285714285714285" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="53.57142857142857" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="37.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="46.142857142857146" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="31.285714285714285" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="50.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="75.28571428571429" collapsed="true"/>
-    <col min="11" max="12" style="4" width="22.714285714285715" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="59.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="56.142857142857146" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="4" width="49.57142857142857" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="4" width="37.142857142857146" collapsed="true"/>
-    <col min="17" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="115.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="129.85714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="37.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="39.285714285714285" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="63.285714285714285" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="43.57142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="54.42857142857143" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="36.857142857142854" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="59.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="89.0" collapsed="true"/>
+    <col min="11" max="12" style="4" width="26.857142857142858" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="69.71428571428571" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="66.28571428571429" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="58.57142857142857" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="43.714285714285715" collapsed="true"/>
+    <col min="17" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.9">
@@ -24576,53 +24258,53 @@
       <c r="P5" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cefad408-ad4e-4698-ac14-2d1d70743ee5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1a1d63ae-a325-4f20-a843-6cba46aef3f6}">
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="93.57142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="108.28571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="29.714285714285715" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="32.142857142857146" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="51.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="80.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="51.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="70.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="30.428571428571427" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="39.285714285714285" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="42.857142857142854" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="46.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="40.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="47.285714285714285" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="4" width="48.285714285714285" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="4" width="31.285714285714285" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="4" width="42.285714285714285" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="4" width="55.714285714285715" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="4" width="44.714285714285715" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="4" width="79.57142857142857" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="4" width="47.285714285714285" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="4" width="38.42857142857143" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="4" width="37.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="4" width="35.857142857142854" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="4" width="33.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="4" width="42.285714285714285" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="4" width="36.857142857142854" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="4" width="31.428571428571427" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="4" width="35.857142857142854" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="4" width="32.142857142857146" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="4" width="57.57142857142857" collapsed="true"/>
-    <col min="32" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="110.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="128.14285714285714" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="35.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="37.857142857142854" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="60.285714285714285" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="94.57142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="60.285714285714285" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="82.71428571428571" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="35.857142857142854" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="46.142857142857146" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="50.57142857142857" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="54.142857142857146" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="47.285714285714285" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="55.857142857142854" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="57.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="4" width="36.857142857142854" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="4" width="50.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="4" width="65.85714285714286" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="4" width="52.857142857142854" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="4" width="94.14285714285714" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="4" width="55.857142857142854" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="4" width="45.285714285714285" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="4" width="43.57142857142857" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="4" width="42.285714285714285" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="4" width="38.857142857142854" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="4" width="50.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="4" width="43.285714285714285" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="4" width="37.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="4" width="42.285714285714285" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="4" width="37.857142857142854" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="4" width="68.0" collapsed="true"/>
+    <col min="32" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.05">
@@ -25056,31 +24738,31 @@
       <c r="AE8" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fb27d816-c395-4c7a-af22-186d9f3c7445}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fbacb3a7-0427-4924-91cb-165e96c9b46d}">
   <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.714285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="26.854285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="124.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="115.57142857142857" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="36.42857142857143" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" style="4" width="49.57142857142857" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="28.142857142857142" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="40.0" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" style="4" width="30.428571428571427" collapsed="true"/>
-    <col min="11" max="17" customWidth="true" style="4" width="64.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="4" width="39.285714285714285" collapsed="true"/>
-    <col min="19" max="16384" style="4" width="22.714285714285715" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="146.71428571428572" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="136.71428571428572" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="42.857142857142854" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" style="4" width="58.57142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="33.142857142857146" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="47.285714285714285" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="4" width="35.857142857142854" collapsed="true"/>
+    <col min="11" max="17" customWidth="true" style="4" width="75.71428571428571" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="4" width="46.142857142857146" collapsed="true"/>
+    <col min="19" max="16384" style="4" width="26.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="14.9">
@@ -25379,32 +25061,32 @@
       <c r="AK4" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ccd801-3e9e-4a9b-bf06-071a3f901cbb}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0164c1c1-055b-4798-9b74-1921f43de967}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.854285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="27.004285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="99.57142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="108.14285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="63.714285714285715" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="4" width="47.285714285714285" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="47.857142857142854" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="35.857142857142854" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="33.285714285714285" collapsed="true"/>
-    <col min="9" max="9" style="4" width="22.857142857142858" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="25.857142857142858" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="26.714285714285715" collapsed="true"/>
-    <col min="12" max="16384" style="4" width="22.857142857142858" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="117.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="128.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="75.28571428571429" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="4" width="55.857142857142854" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="56.42857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="42.285714285714285" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="39.285714285714285" collapsed="true"/>
+    <col min="9" max="9" style="4" width="27.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="30.428571428571427" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="31.428571428571427" collapsed="true"/>
+    <col min="12" max="16384" style="4" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.05">
@@ -25827,7 +25509,7 @@
       <c r="A19" s="66"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.767322834645669" bottom="5.767322834645669" header="5.570472440944881" footer="5.570472440944881"/>
+  <pageMargins left="0.7" right="0.7" top="6.65275590551181" bottom="6.65275590551181" header="6.4559055118110225" footer="6.4559055118110225"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
--- a/AzentioAutomationFramework_FixedAsset/Test-data/KUBSTestData.xlsx
+++ b/AzentioAutomationFramework_FixedAsset/Test-data/KUBSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="21" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="AllMastersTestDataInfo" sheetId="1" r:id="rId1"/>
@@ -37,14 +37,15 @@
     <sheet name="FixedAsset_AssetCreation" sheetId="28" r:id="rId28"/>
     <sheet name="GLTestData" sheetId="29" r:id="rId29"/>
     <sheet name="GL2TestData" sheetId="30" r:id="rId30"/>
-    <sheet name="TestExecution" sheetId="31" r:id="rId31"/>
+    <sheet name="BankRecon" sheetId="32" r:id="rId31"/>
+    <sheet name="TestExecution" sheetId="31" r:id="rId32"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="1318">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -3063,9 +3064,6 @@
     <t>KUBS_BP_UAT_005_004_02_D1</t>
   </si>
   <si>
-    <t>1582</t>
-  </si>
-  <si>
     <t>KUBS_BP_UAT_005_004_03</t>
   </si>
   <si>
@@ -3096,9 +3094,6 @@
     <t>KUBS_BP_UAT_005_005_02_D1</t>
   </si>
   <si>
-    <t>1356</t>
-  </si>
-  <si>
     <t>KUBS_BP_UAT_005_005_03</t>
   </si>
   <si>
@@ -3111,9 +3106,6 @@
     <t>KUBS_BP_UAT_005_005_04_D1</t>
   </si>
   <si>
-    <t>700000.04</t>
-  </si>
-  <si>
     <t>KUBS_BP_UAT_005_006_01</t>
   </si>
   <si>
@@ -3129,9 +3121,6 @@
     <t>KUBS_BP_UAT_005_006_02_D1</t>
   </si>
   <si>
-    <t>1396</t>
-  </si>
-  <si>
     <t>KUBS_BP_UAT_005_006_03</t>
   </si>
   <si>
@@ -3142,9 +3131,6 @@
   </si>
   <si>
     <t>KUBS_BP_UAT_005_006_04_D1</t>
-  </si>
-  <si>
-    <t>800000.04</t>
   </si>
   <si>
     <t>KUBS_BP_UAT_005_007</t>
@@ -4843,148 +4829,323 @@
     <t>KUBS_BP_UAT_005_002_06_D1</t>
   </si>
   <si>
-    <t>1941</t>
-  </si>
-  <si>
-    <t>bc27667288</t>
-  </si>
-  <si>
-    <t>1942</t>
-  </si>
-  <si>
-    <t>bc37667062</t>
-  </si>
-  <si>
-    <t>1943</t>
-  </si>
-  <si>
-    <t>bc37615268</t>
-  </si>
-  <si>
-    <t>1944</t>
-  </si>
-  <si>
-    <t>bc37733288</t>
-  </si>
-  <si>
-    <t>1945</t>
-  </si>
-  <si>
-    <t>1637</t>
-  </si>
-  <si>
-    <t>bc37722497</t>
-  </si>
-  <si>
-    <t>1946</t>
-  </si>
-  <si>
-    <t>1638</t>
-  </si>
-  <si>
-    <t>bc37542128</t>
-  </si>
-  <si>
-    <t>1947</t>
-  </si>
-  <si>
-    <t>BUDM880113808</t>
-  </si>
-  <si>
-    <t>1948</t>
-  </si>
-  <si>
-    <t>1641</t>
-  </si>
-  <si>
-    <t>BUDM846610704</t>
-  </si>
-  <si>
-    <t>1949</t>
-  </si>
-  <si>
-    <t>1642</t>
-  </si>
-  <si>
-    <t>BUDM858414193</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>1643</t>
-  </si>
-  <si>
-    <t>bc37435399</t>
-  </si>
-  <si>
-    <t>1951</t>
-  </si>
-  <si>
-    <t>1648</t>
-  </si>
-  <si>
-    <t>BUDY642114232</t>
-  </si>
-  <si>
-    <t>1955</t>
-  </si>
-  <si>
-    <t>BUDM689011322</t>
-  </si>
-  <si>
-    <t>1956</t>
-  </si>
-  <si>
-    <t>BUDQ758213821</t>
-  </si>
-  <si>
-    <t>1957</t>
-  </si>
-  <si>
-    <t>BUDHY586414003</t>
-  </si>
-  <si>
-    <t>1958</t>
-  </si>
-  <si>
-    <t>BUDM842911899</t>
-  </si>
-  <si>
-    <t>1959</t>
-  </si>
-  <si>
-    <t>1649</t>
-  </si>
-  <si>
-    <t>BUDM630512880</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1650</t>
-  </si>
-  <si>
-    <t>bc37381526</t>
-  </si>
-  <si>
-    <t>bc375283457</t>
-  </si>
-  <si>
-    <t>bc37337182</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1657</t>
-  </si>
-  <si>
-    <t>1661</t>
-  </si>
-  <si>
-    <t>1662</t>
+    <t>1100000.06</t>
+  </si>
+  <si>
+    <t>1200000.06</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>bc27123802</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>bc37738904</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>bc37988589</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>bc37187235</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>1717</t>
+  </si>
+  <si>
+    <t>bc37848089</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>1718</t>
+  </si>
+  <si>
+    <t>bc37843103</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>BUDM681214244</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>BUDM918810688</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>1721</t>
+  </si>
+  <si>
+    <t>BUDM908113148</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>1722</t>
+  </si>
+  <si>
+    <t>bc37810769</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>bc37566699</t>
+  </si>
+  <si>
+    <t>1727</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>1729</t>
+  </si>
+  <si>
+    <t>bc374739161</t>
+  </si>
+  <si>
+    <t>bc37501739</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>1732</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>BUDY826614914</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>BUDM772811479</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>BUDQ605814106</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>BUDHY527912037</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>BUDM748413268</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>1734</t>
+  </si>
+  <si>
+    <t>BUDM503814526</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>1735</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_001</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_002</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_001_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_002_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_001_PQ_1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_001_PQ_2</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_001_PQ_3</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_001_PQ_1_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_001_PQ_2_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_001_PQ_3_D1</t>
+  </si>
+  <si>
+    <t>Allow unadjust entry from bank statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>BANK_REC_FORMAT_MST</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_002_PQ_1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_002_PQ_2</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_002_PQ_3</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_002_PQ_1_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_002_PQ_2_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_002_PQ_3_D1</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Validation
+Message</t>
+  </si>
+  <si>
+    <t>IDBI</t>
+  </si>
+  <si>
+    <t>File Location</t>
+  </si>
+  <si>
+    <t>C:\Users\ININDC00482\Downloads\IDBI_RECON1.CSV</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>Recon Period From Date</t>
+  </si>
+  <si>
+    <t>Recon Period To Date</t>
+  </si>
+  <si>
+    <t>Recon Period Month</t>
+  </si>
+  <si>
+    <t>Recon Period Fullmonth</t>
+  </si>
+  <si>
+    <t>Recon Period Year</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_009_001_TC_001</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_009_001_TC_001_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_009_001_TC_002</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_009_001_TC_003</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_009_001_TC_002_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_009_001_TC_003_D1</t>
+  </si>
+  <si>
+    <t>C:\Users\ININDC00482\Downloads\IDBI_RECON2.CSV</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_07_001TC_001</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_07_002TC_001</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_07_001TC_001_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_07_002TC_001_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_009_003_TC_001</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_009_003_TC_002</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_009_003_TC_003</t>
+  </si>
+  <si>
+    <t>RRN57</t>
+  </si>
+  <si>
+    <t>RRN223</t>
+  </si>
+  <si>
+    <t>RRN890</t>
+  </si>
+  <si>
+    <t>Unmatched Receipt number</t>
+  </si>
+  <si>
+    <t>Partial matched Receipt number</t>
+  </si>
+  <si>
+    <t>Transpose Receipt number</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_009_003_TC_001_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_009_003_TC_002_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_009_003_TC_003_D1</t>
   </si>
 </sst>
 </file>
@@ -4994,14 +5155,21 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
     <numFmt numFmtId="165" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="&quot;Rs.&quot;#,##0.00;[Red]\-&quot;Rs.&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;Rs.&quot;#,##0.00;[Red]\-&quot;Rs.&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -5117,6 +5285,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -5192,7 +5368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -5369,325 +5545,353 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
@@ -6000,7 +6204,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6016,14 +6220,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="204.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="73.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" style="4" width="67.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" hidden="true" style="4" width="35.0" collapsed="true"/>
-    <col min="4" max="4" style="4" width="204.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="60.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="10" width="63.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" hidden="true" style="4" width="10.28515625" collapsed="true"/>
-    <col min="8" max="16384" style="4" width="204.28515625" collapsed="true"/>
+    <col min="1" max="1" width="73.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="67.28515625" style="4" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35" style="4" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="204.28515625" style="4" collapsed="1"/>
+    <col min="5" max="5" width="60.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.7109375" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.28515625" style="4" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="204.28515625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6200,17 +6404,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="108.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="121.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="41.42578125" collapsed="true"/>
-    <col min="4" max="4" style="4" width="28.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="53.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="97.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="86.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="89.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="52.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="65.42578125" collapsed="true"/>
-    <col min="11" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="108" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="121.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.42578125" style="4" collapsed="1"/>
+    <col min="5" max="5" width="53.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="97.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="86.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="89" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="52.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="65.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6289,19 +6493,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="114.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="125.7109375" collapsed="true"/>
-    <col min="3" max="4" style="4" width="28.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="54.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="124.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="53.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="60.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="50.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="38.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="40.0" collapsed="true"/>
-    <col min="12" max="13" style="4" width="28.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="44.7109375" collapsed="true"/>
-    <col min="15" max="16384" style="4" width="28.5703125" collapsed="true"/>
+    <col min="1" max="1" width="114.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="125.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="28.5703125" style="4" collapsed="1"/>
+    <col min="5" max="5" width="54.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="124.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="53.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="60.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="50" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="38.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="40" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="28.5703125" style="4" collapsed="1"/>
+    <col min="14" max="14" width="44.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="28.5703125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -6404,31 +6608,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="117.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="128.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="48.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="56.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="71.5703125" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" style="4" width="59.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="31.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="108.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="73" width="103.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="98.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="81.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="48.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="53.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="4" width="51.42578125" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" style="4" width="105.28515625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="4" width="44.7109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="4" width="53.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="4" width="50.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="4" width="44.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="4" width="35.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="4" width="35.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="4" width="47.28515625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="4" width="30.42578125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="4" width="79.5703125" collapsed="true"/>
-    <col min="27" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="117.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="128.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="48.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="56.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="71.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="59.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="108.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="103" style="73" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="98.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="81.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="48.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="53.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="51.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="105.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="44.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="53.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="50.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="44.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="35.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="35" style="4" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="47.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="30.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="79.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -6772,14 +6976,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="115.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="122.42578125" collapsed="true"/>
-    <col min="3" max="4" style="4" width="28.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="102.85546875" collapsed="true"/>
-    <col min="6" max="8" style="4" width="28.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="53.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="53.42578125" collapsed="true"/>
-    <col min="11" max="16384" style="4" width="28.5703125" collapsed="true"/>
+    <col min="1" max="1" width="115" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="122.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="28.5703125" style="4" collapsed="1"/>
+    <col min="5" max="5" width="102.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="28.5703125" style="4" collapsed="1"/>
+    <col min="9" max="9" width="53.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="53.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="28.5703125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6938,20 +7142,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="128.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="138.7109375" collapsed="true"/>
-    <col min="3" max="3" style="4" width="28.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="41.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="42.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="43.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="66.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="70.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="37.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="39.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="39.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="48.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="33.140625" collapsed="true"/>
-    <col min="14" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="128" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="138.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.42578125" style="4" collapsed="1"/>
+    <col min="4" max="4" width="41" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="42.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="66" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="70.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="37.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="39.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="48.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -7553,18 +7757,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="105.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="115.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="37.0" collapsed="true"/>
-    <col min="4" max="7" style="4" width="60.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="48.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="60.85546875" collapsed="true"/>
-    <col min="11" max="21" style="4" width="60.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="4" width="66.0" collapsed="true"/>
-    <col min="23" max="48" style="4" width="60.5703125" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" style="4" width="92.0" collapsed="true"/>
-    <col min="50" max="16384" style="4" width="60.5703125" collapsed="true"/>
+    <col min="1" max="1" width="105.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="115.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="60.5703125" style="4" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="48.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="60.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="21" width="60.5703125" style="4" collapsed="1"/>
+    <col min="22" max="22" width="66" style="4" customWidth="1" collapsed="1"/>
+    <col min="23" max="48" width="60.5703125" style="4" collapsed="1"/>
+    <col min="49" max="49" width="92" style="4" customWidth="1" collapsed="1"/>
+    <col min="50" max="16384" width="60.5703125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
@@ -9143,17 +9347,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="143.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="136.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="57.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="52.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="51.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="51.0" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="4" width="46.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="43.5703125" collapsed="true"/>
-    <col min="10" max="13" style="4" width="28.42578125" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" style="4" width="50.140625" collapsed="true"/>
-    <col min="16" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="143.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="136.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="57.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="52.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="46.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="43.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="13" width="28.42578125" style="4" collapsed="1"/>
+    <col min="14" max="15" width="50.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -9551,844 +9755,845 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="115.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="100.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="92.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="17.42578125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="4" width="92.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="97.85546875" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" style="4" width="102.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="173.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="129.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="103.42578125" collapsed="true"/>
-    <col min="15" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="28.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="48" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="32.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="179" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="179" t="s">
         <v>437</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="100" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="179" t="s">
         <v>439</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="179" t="s">
         <v>440</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="179" t="s">
         <v>441</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="179" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="94" t="s">
+      <c r="N1" s="56" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="52" t="s">
         <v>444</v>
       </c>
-      <c r="C2" s="98" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D2" s="98" t="s">
+      <c r="C2" s="164" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D2" s="164" t="s">
         <v>445</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="159" t="s">
         <v>446</v>
       </c>
-      <c r="F2" s="98" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G2" s="99" t="s">
+      <c r="F2" s="164" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G2" s="180" t="s">
         <v>447</v>
       </c>
-      <c r="H2" s="62">
+      <c r="H2" s="61">
         <v>40</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="159" t="s">
         <v>448</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="159" t="s">
         <v>449</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="153" t="s">
         <v>451</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="153" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="52" t="s">
         <v>452</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="52" t="s">
         <v>453</v>
       </c>
-      <c r="C3" s="98" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D3" s="98" t="s">
+      <c r="C3" s="164" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D3" s="164" t="s">
         <v>445</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="F3" s="98" t="s">
-        <v>1246</v>
-      </c>
-      <c r="G3" s="99" t="s">
+      <c r="F3" s="164" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G3" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="61">
         <v>60</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="159" t="s">
         <v>456</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="159" t="s">
         <v>457</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="153" t="s">
         <v>458</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="153" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>459</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="52" t="s">
         <v>460</v>
       </c>
-      <c r="C4" s="98" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D4" s="98" t="s">
+      <c r="C4" s="164" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D4" s="164" t="s">
         <v>445</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="159" t="s">
         <v>461</v>
       </c>
-      <c r="F4" s="98" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G4" s="99" t="s">
+      <c r="F4" s="164" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G4" s="180" t="s">
         <v>462</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="61">
         <v>50</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="159" t="s">
         <v>463</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="159" t="s">
         <v>464</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="153" t="s">
         <v>465</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="153" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="52" t="s">
         <v>466</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="C5" s="98" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D5" s="98" t="s">
+      <c r="C5" s="164" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D5" s="164" t="s">
         <v>445</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="159" t="s">
         <v>468</v>
       </c>
-      <c r="F5" s="98" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G5" s="99" t="s">
+      <c r="F5" s="164" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G5" s="180" t="s">
         <v>469</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="61">
         <v>90</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="159" t="s">
         <v>470</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="159" t="s">
         <v>471</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="153" t="s">
         <v>472</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="153" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="52" t="s">
         <v>473</v>
       </c>
-      <c r="C6" s="98" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D6" s="98" t="s">
+      <c r="C6" s="164" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D6" s="164" t="s">
         <v>445</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="F6" s="98" t="s">
-        <v>1252</v>
-      </c>
-      <c r="G6" s="99" t="s">
+      <c r="F6" s="164" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G6" s="180" t="s">
         <v>447</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="61">
         <v>40</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="159" t="s">
         <v>448</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="159" t="s">
         <v>449</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="153" t="s">
         <v>474</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="153" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="52" t="s">
         <v>475</v>
       </c>
-      <c r="C7" s="98" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D7" s="98" t="s">
+      <c r="C7" s="164" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D7" s="164" t="s">
         <v>445</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="F7" s="98" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G7" s="99" t="s">
+      <c r="F7" s="164" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G7" s="180" t="s">
         <v>447</v>
       </c>
-      <c r="H7" s="62">
+      <c r="H7" s="61">
         <v>60</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="159" t="s">
         <v>448</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="159" t="s">
         <v>449</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="153" t="s">
         <v>474</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="153" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="52" t="s">
         <v>476</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="164" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D8" s="164" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" s="159" t="s">
+        <v>454</v>
+      </c>
+      <c r="F8" s="164" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G8" s="180" t="s">
+        <v>455</v>
+      </c>
+      <c r="H8" s="61">
+        <v>50</v>
+      </c>
+      <c r="I8" s="159" t="s">
+        <v>456</v>
+      </c>
+      <c r="J8" s="159" t="s">
+        <v>457</v>
+      </c>
+      <c r="K8" s="153" t="s">
+        <v>450</v>
+      </c>
+      <c r="L8" s="153" t="s">
+        <v>474</v>
+      </c>
+      <c r="M8" s="153" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="153" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="C9" s="164" t="s">
         <v>1233</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D9" s="164" t="s">
         <v>445</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E9" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F9" s="164" t="s">
         <v>1232</v>
       </c>
-      <c r="G8" s="99" t="s">
+      <c r="G9" s="180" t="s">
+        <v>462</v>
+      </c>
+      <c r="H9" s="61">
+        <v>90</v>
+      </c>
+      <c r="I9" s="159" t="s">
+        <v>456</v>
+      </c>
+      <c r="J9" s="159" t="s">
+        <v>457</v>
+      </c>
+      <c r="K9" s="153" t="s">
+        <v>450</v>
+      </c>
+      <c r="L9" s="153" t="s">
+        <v>474</v>
+      </c>
+      <c r="M9" s="153" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" s="153" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10" s="164" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D10" s="164" t="s">
+        <v>445</v>
+      </c>
+      <c r="E10" s="159" t="s">
+        <v>454</v>
+      </c>
+      <c r="F10" s="164" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G10" s="180" t="s">
+        <v>469</v>
+      </c>
+      <c r="H10" s="61">
+        <v>40</v>
+      </c>
+      <c r="I10" s="159" t="s">
+        <v>456</v>
+      </c>
+      <c r="J10" s="159" t="s">
+        <v>457</v>
+      </c>
+      <c r="K10" s="153" t="s">
+        <v>450</v>
+      </c>
+      <c r="L10" s="153" t="s">
+        <v>474</v>
+      </c>
+      <c r="M10" s="153" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="153" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" s="164"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="159" t="s">
+        <v>454</v>
+      </c>
+      <c r="F11" s="164"/>
+      <c r="G11" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H11" s="61">
+        <v>60</v>
+      </c>
+      <c r="I11" s="159" t="s">
+        <v>456</v>
+      </c>
+      <c r="J11" s="159" t="s">
+        <v>457</v>
+      </c>
+      <c r="K11" s="153" t="s">
+        <v>450</v>
+      </c>
+      <c r="L11" s="153" t="s">
+        <v>474</v>
+      </c>
+      <c r="M11" s="153" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="153" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="159" t="s">
+        <v>454</v>
+      </c>
+      <c r="F12" s="164"/>
+      <c r="G12" s="180" t="s">
+        <v>455</v>
+      </c>
+      <c r="H12" s="61">
         <v>50</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="I12" s="159" t="s">
         <v>456</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J12" s="159" t="s">
         <v>457</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K12" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L12" s="153" t="s">
         <v>474</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M12" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N12" s="153" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="48" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B9" s="48" t="s">
-        <v>477</v>
-      </c>
-      <c r="C9" s="98" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D9" s="98" t="s">
-        <v>445</v>
-      </c>
-      <c r="E9" s="58" t="s">
+      <c r="B13" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="F9" s="98" t="s">
-        <v>1235</v>
-      </c>
-      <c r="G9" s="99" t="s">
-        <v>462</v>
-      </c>
-      <c r="H9" s="62">
+      <c r="F13" s="164"/>
+      <c r="G13" s="180" t="s">
+        <v>455</v>
+      </c>
+      <c r="H13" s="61">
         <v>90</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I13" s="159" t="s">
         <v>456</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J13" s="159" t="s">
         <v>457</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K13" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L13" s="153" t="s">
         <v>474</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M13" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N13" s="153" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="48" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="C10" s="98" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D10" s="98" t="s">
-        <v>445</v>
-      </c>
-      <c r="E10" s="58" t="s">
+      <c r="B14" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="F10" s="98" t="s">
-        <v>1238</v>
-      </c>
-      <c r="G10" s="99" t="s">
-        <v>469</v>
-      </c>
-      <c r="H10" s="62">
+      <c r="F14" s="164"/>
+      <c r="G14" s="180" t="s">
+        <v>455</v>
+      </c>
+      <c r="H14" s="61">
         <v>40</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I14" s="159" t="s">
         <v>456</v>
       </c>
-      <c r="J10" s="58" t="s">
+      <c r="J14" s="159" t="s">
         <v>457</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K14" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L14" s="153" t="s">
         <v>474</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M14" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N14" s="153" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="48" t="s">
+    <row r="15" spans="1:14">
+      <c r="A15" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>479</v>
-      </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="58" t="s">
+      <c r="B15" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="99" t="s">
+      <c r="F15" s="164"/>
+      <c r="G15" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H15" s="61">
         <v>60</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I15" s="159" t="s">
         <v>456</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J15" s="159" t="s">
         <v>457</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K15" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L15" s="153" t="s">
         <v>474</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M15" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N15" s="153" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="48" t="s">
+    <row r="16" spans="1:14">
+      <c r="A16" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>480</v>
-      </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="58" t="s">
+      <c r="B16" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99" t="s">
+      <c r="F16" s="164"/>
+      <c r="G16" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H16" s="61">
         <v>50</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I16" s="159" t="s">
         <v>456</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J16" s="159" t="s">
         <v>457</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K16" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L16" s="153" t="s">
         <v>474</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M16" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N16" s="153" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="48" t="s">
+    <row r="17" spans="1:14">
+      <c r="A17" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="58" t="s">
+      <c r="B17" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="99" t="s">
+      <c r="F17" s="164"/>
+      <c r="G17" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H17" s="61">
         <v>90</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I17" s="159" t="s">
         <v>456</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J17" s="159" t="s">
         <v>457</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K17" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L17" s="153" t="s">
         <v>474</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M17" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N17" s="153" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="48" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>482</v>
-      </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="58" t="s">
+      <c r="B18" s="52" t="s">
+        <v>486</v>
+      </c>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="99" t="s">
+      <c r="F18" s="164"/>
+      <c r="G18" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H18" s="61">
         <v>40</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I18" s="159" t="s">
         <v>456</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="J18" s="159" t="s">
         <v>457</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K18" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L18" s="153" t="s">
         <v>474</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M18" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N18" s="153" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="48" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>483</v>
-      </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="58" t="s">
+      <c r="B19" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="99" t="s">
+      <c r="F19" s="164"/>
+      <c r="G19" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H19" s="61">
         <v>60</v>
       </c>
-      <c r="I15" s="58" t="s">
+      <c r="I19" s="159" t="s">
         <v>456</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="J19" s="159" t="s">
         <v>457</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K19" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L19" s="153" t="s">
         <v>474</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M19" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N19" s="153" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="48" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>484</v>
-      </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="58" t="s">
+      <c r="B20" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="99" t="s">
+      <c r="F20" s="164"/>
+      <c r="G20" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H20" s="61">
         <v>50</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I20" s="159" t="s">
         <v>456</v>
       </c>
-      <c r="J16" s="58" t="s">
+      <c r="J20" s="159" t="s">
         <v>457</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K20" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L20" s="153" t="s">
         <v>474</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M20" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="N16" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>485</v>
-      </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="58" t="s">
-        <v>454</v>
-      </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="99" t="s">
-        <v>455</v>
-      </c>
-      <c r="H17" s="62">
-        <v>90</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>456</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>457</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="58" t="s">
-        <v>454</v>
-      </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="99" t="s">
-        <v>455</v>
-      </c>
-      <c r="H18" s="62">
-        <v>40</v>
-      </c>
-      <c r="I18" s="58" t="s">
-        <v>456</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>457</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>487</v>
-      </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="58" t="s">
-        <v>454</v>
-      </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="99" t="s">
-        <v>455</v>
-      </c>
-      <c r="H19" s="62">
-        <v>60</v>
-      </c>
-      <c r="I19" s="58" t="s">
-        <v>456</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>457</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>488</v>
-      </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="58" t="s">
-        <v>454</v>
-      </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="99" t="s">
-        <v>455</v>
-      </c>
-      <c r="H20" s="62">
-        <v>50</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>456</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>457</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="153" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10400,39 +10605,39 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="O12" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="91.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="93.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="17.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="13.28515625" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" style="4" width="73.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="73" width="78.28515625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="4" width="78.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="124.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="129.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="4" width="120.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="4" width="55.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="4" width="19.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="4" width="55.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="4" width="74.5703125" collapsed="true"/>
-    <col min="20" max="22" customWidth="true" style="4" width="79.5703125" collapsed="true"/>
-    <col min="23" max="23" style="4" width="28.42578125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="4" width="60.5703125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="4" width="58.42578125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="4" width="75.7109375" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="73" width="50.5703125" collapsed="true"/>
-    <col min="28" max="1023" style="4" width="28.42578125" collapsed="true"/>
-    <col min="1024" max="1024" customWidth="true" style="118" width="27.28515625" collapsed="true"/>
-    <col min="1025" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="91.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="93.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="73.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="78.28515625" style="73" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="78.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="124" style="4" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="129.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="120.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="55.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="55.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="74.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="20" max="22" width="79.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="28.42578125" style="4" collapsed="1"/>
+    <col min="24" max="24" width="60.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="58.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="75.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="50.5703125" style="73" customWidth="1" collapsed="1"/>
+    <col min="28" max="1023" width="28.42578125" style="4" collapsed="1"/>
+    <col min="1024" max="1024" width="27.28515625" style="118" customWidth="1" collapsed="1"/>
+    <col min="1025" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -10526,13 +10731,13 @@
         <v>500</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="D2" s="98" t="s">
         <v>445</v>
       </c>
       <c r="E2" s="98" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="F2" s="98" t="s">
         <v>447</v>
@@ -10591,13 +10796,13 @@
         <v>508</v>
       </c>
       <c r="C3" s="103" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="D3" s="103" t="s">
         <v>445</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="F3" s="103" t="s">
         <v>447</v>
@@ -10707,7 +10912,7 @@
         <v>514</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="D5" s="98" t="s">
         <v>445</v>
@@ -10811,7 +11016,7 @@
       <c r="O7" s="60"/>
       <c r="P7" s="60"/>
       <c r="Q7" s="60" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="R7" s="60"/>
       <c r="S7" s="60"/>
@@ -10891,7 +11096,7 @@
         <v>524</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="D9" s="98" t="s">
         <v>445</v>
@@ -10995,7 +11200,7 @@
       <c r="O11" s="60"/>
       <c r="P11" s="60"/>
       <c r="Q11" s="60" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="R11" s="60"/>
       <c r="S11" s="60"/>
@@ -11079,7 +11284,7 @@
         <v>534</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D13" s="98" t="s">
         <v>445</v>
@@ -11183,7 +11388,7 @@
       <c r="O15" s="60"/>
       <c r="P15" s="60"/>
       <c r="Q15" s="60" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="R15" s="60"/>
       <c r="S15" s="60"/>
@@ -11263,7 +11468,7 @@
         <v>543</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="D17" s="98" t="s">
         <v>445</v>
@@ -11367,7 +11572,7 @@
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="60" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="R19" s="60"/>
       <c r="S19" s="60"/>
@@ -11447,7 +11652,7 @@
         <v>551</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="D21" s="98" t="s">
         <v>445</v>
@@ -11551,7 +11756,7 @@
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="60" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="R23" s="60"/>
       <c r="S23" s="60"/>
@@ -11582,7 +11787,7 @@
         <v>557</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="D24" s="98" t="s">
         <v>445</v>
@@ -11719,7 +11924,7 @@
         <v>563</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="D27" s="98" t="s">
         <v>445</v>
@@ -11823,7 +12028,7 @@
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="60" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="R29" s="60"/>
       <c r="S29" s="60"/>
@@ -11854,7 +12059,7 @@
         <v>569</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D30" s="98" t="s">
         <v>445</v>
@@ -11991,7 +12196,7 @@
         <v>576</v>
       </c>
       <c r="C33" s="98" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="D33" s="98" t="s">
         <v>445</v>
@@ -12095,7 +12300,7 @@
       <c r="O35" s="111"/>
       <c r="P35" s="111"/>
       <c r="Q35" s="111" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="R35" s="111"/>
       <c r="S35" s="111"/>
@@ -12232,7 +12437,7 @@
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="F38" s="55"/>
       <c r="G38" s="57" t="s">
@@ -12291,13 +12496,13 @@
         <v>588</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="D39" s="55" t="s">
         <v>445</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="F39" s="55" t="s">
         <v>455</v>
@@ -12356,13 +12561,13 @@
         <v>590</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="D40" s="55" t="s">
         <v>445</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="F40" s="55" t="s">
         <v>462</v>
@@ -12421,13 +12626,13 @@
         <v>592</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D41" s="55" t="s">
         <v>445</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="F41" s="55" t="s">
         <v>469</v>
@@ -12541,7 +12746,7 @@
         <v>597</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D43" s="55" t="s">
         <v>445</v>
@@ -12663,7 +12868,7 @@
       </c>
       <c r="P45" s="60"/>
       <c r="Q45" s="60" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="R45" s="60"/>
       <c r="S45" s="60"/>
@@ -12702,16 +12907,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="70.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="92.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
-    <col min="5" max="15" style="4" width="59.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="4" width="19.42578125" collapsed="true"/>
-    <col min="17" max="26" style="4" width="59.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="4" width="15.5703125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="4" width="69.5703125" collapsed="true"/>
-    <col min="29" max="16384" style="4" width="59.140625" collapsed="true"/>
+    <col min="1" max="1" width="70" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="92.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="15" width="59.140625" style="4" collapsed="1"/>
+    <col min="16" max="16" width="19.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="26" width="59.140625" style="4" collapsed="1"/>
+    <col min="27" max="27" width="12.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="69.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="59.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -12858,7 +13063,7 @@
         <v>607</v>
       </c>
       <c r="C3" s="98" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
       <c r="D3" s="98" t="s">
         <v>445</v>
@@ -12957,7 +13162,7 @@
       <c r="N5" s="60"/>
       <c r="O5" s="60"/>
       <c r="P5" s="60" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="Q5" s="60"/>
       <c r="R5" s="60"/>
@@ -12990,7 +13195,7 @@
         <v>613</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="D6" s="98" t="s">
         <v>445</v>
@@ -13093,7 +13298,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="60"/>
       <c r="P8" s="60" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="Q8" s="60"/>
       <c r="R8" s="60"/>
@@ -13145,7 +13350,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="60"/>
       <c r="P9" s="60" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="Q9" s="60"/>
       <c r="R9" s="60"/>
@@ -13197,7 +13402,7 @@
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
       <c r="P10" s="60" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="Q10" s="60"/>
       <c r="R10" s="60"/>
@@ -13230,7 +13435,7 @@
         <v>626</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>627</v>
+        <v>1241</v>
       </c>
       <c r="D11" s="98" t="s">
         <v>445</v>
@@ -13268,10 +13473,10 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="B12" s="60" t="s">
         <v>628</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>629</v>
       </c>
       <c r="C12" s="98"/>
       <c r="D12" s="98"/>
@@ -13308,10 +13513,10 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="60" t="s">
+        <v>629</v>
+      </c>
+      <c r="B13" s="60" t="s">
         <v>630</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>631</v>
       </c>
       <c r="C13" s="98"/>
       <c r="D13" s="98"/>
@@ -13327,7 +13532,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
       <c r="P13" s="60" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -13340,16 +13545,16 @@
       <c r="Y13" s="112"/>
       <c r="Z13" s="61"/>
       <c r="AA13" s="121" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AB13" s="105"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="60" t="s">
+        <v>632</v>
+      </c>
+      <c r="B14" s="60" t="s">
         <v>633</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>634</v>
       </c>
       <c r="C14" s="98"/>
       <c r="D14" s="98"/>
@@ -13371,7 +13576,7 @@
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
       <c r="P14" s="60" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="Q14" s="60"/>
       <c r="R14" s="60"/>
@@ -13393,18 +13598,18 @@
       <c r="Z14" s="61"/>
       <c r="AA14" s="121"/>
       <c r="AB14" s="116" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="60" t="s">
+        <v>635</v>
+      </c>
+      <c r="B15" s="60" t="s">
         <v>636</v>
       </c>
-      <c r="B15" s="60" t="s">
-        <v>637</v>
-      </c>
       <c r="C15" s="98" t="s">
-        <v>638</v>
+        <v>1242</v>
       </c>
       <c r="D15" s="98" t="s">
         <v>445</v>
@@ -13442,10 +13647,10 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="60" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C16" s="98"/>
       <c r="D16" s="98"/>
@@ -13482,10 +13687,10 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="60" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C17" s="98"/>
       <c r="D17" s="98"/>
@@ -13501,7 +13706,7 @@
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="Q17" s="60"/>
       <c r="R17" s="60"/>
@@ -13520,16 +13725,16 @@
       <c r="Y17" s="112"/>
       <c r="Z17" s="61"/>
       <c r="AA17" s="121" t="s">
-        <v>643</v>
+        <v>1212</v>
       </c>
       <c r="AB17" s="105"/>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="60" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C18" s="98"/>
       <c r="D18" s="98"/>
@@ -13551,7 +13756,7 @@
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="Q18" s="60"/>
       <c r="R18" s="60"/>
@@ -13573,18 +13778,18 @@
       <c r="Z18" s="61"/>
       <c r="AA18" s="121"/>
       <c r="AB18" s="116" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="60" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>649</v>
+        <v>1243</v>
       </c>
       <c r="D19" s="98" t="s">
         <v>445</v>
@@ -13622,10 +13827,10 @@
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="60" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C20" s="98"/>
       <c r="D20" s="98"/>
@@ -13662,10 +13867,10 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="60" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C21" s="98"/>
       <c r="D21" s="98"/>
@@ -13681,7 +13886,7 @@
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="Q21" s="60"/>
       <c r="R21" s="60"/>
@@ -13700,16 +13905,16 @@
       <c r="Y21" s="114"/>
       <c r="Z21" s="116"/>
       <c r="AA21" s="122" t="s">
-        <v>654</v>
+        <v>1213</v>
       </c>
       <c r="AB21" s="61"/>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="60" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C22" s="98"/>
       <c r="D22" s="98"/>
@@ -13760,10 +13965,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="55.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="65.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="66.0" collapsed="true"/>
-    <col min="4" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="55.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="65.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="66" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13875,28 +14080,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="55.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="57.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="12.7734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="13.140625" collapsed="true"/>
-    <col min="6" max="8" style="4" width="28.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="59.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="43.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="53.42578125" collapsed="true"/>
-    <col min="12" max="12" style="4" width="28.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="82.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="4" width="22.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="4" width="51.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="4" width="48.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="4" width="45.28515625" collapsed="true"/>
-    <col min="18" max="16384" style="4" width="28.5703125" collapsed="true"/>
+    <col min="1" max="1" width="55.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="57" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="28.5703125" style="4" collapsed="1"/>
+    <col min="9" max="9" width="59" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="43.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="53.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.5703125" style="4" collapsed="1"/>
+    <col min="13" max="13" width="82.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="51" style="4" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="48.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="45.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="28.5703125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -13925,48 +14130,48 @@
         <v>156</v>
       </c>
       <c r="I1" s="126" t="s">
+        <v>652</v>
+      </c>
+      <c r="J1" s="126" t="s">
+        <v>653</v>
+      </c>
+      <c r="K1" s="126" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="126" t="s">
+        <v>655</v>
+      </c>
+      <c r="M1" s="126" t="s">
+        <v>656</v>
+      </c>
+      <c r="N1" s="126" t="s">
         <v>657</v>
       </c>
-      <c r="J1" s="126" t="s">
+      <c r="O1" s="126" t="s">
         <v>658</v>
       </c>
-      <c r="K1" s="126" t="s">
+      <c r="P1" s="126" t="s">
         <v>659</v>
       </c>
-      <c r="L1" s="126" t="s">
+      <c r="Q1" s="126" t="s">
         <v>660</v>
-      </c>
-      <c r="M1" s="126" t="s">
-        <v>661</v>
-      </c>
-      <c r="N1" s="126" t="s">
-        <v>662</v>
-      </c>
-      <c r="O1" s="126" t="s">
-        <v>663</v>
-      </c>
-      <c r="P1" s="126" t="s">
-        <v>664</v>
-      </c>
-      <c r="Q1" s="126" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="124" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B2" s="124" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C2" s="125" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="D2" s="125" t="s">
         <v>445</v>
       </c>
       <c r="E2" s="127" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="F2" s="127" t="s">
         <v>368</v>
@@ -13978,20 +14183,20 @@
         <v>185</v>
       </c>
       <c r="I2" s="129" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="J2" s="129" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="K2" s="129" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="L2" s="127" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M2" s="128"/>
       <c r="N2" s="127" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
@@ -13999,10 +14204,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="124" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B3" s="124" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C3" s="125"/>
       <c r="D3" s="125"/>
@@ -14014,10 +14219,10 @@
       <c r="J3" s="128"/>
       <c r="K3" s="128"/>
       <c r="L3" s="127" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M3" s="127" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="N3" s="128"/>
       <c r="O3" s="128"/>
@@ -14026,10 +14231,10 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="124" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B4" s="124" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C4" s="125"/>
       <c r="D4" s="125"/>
@@ -14041,7 +14246,7 @@
       <c r="J4" s="128"/>
       <c r="K4" s="128"/>
       <c r="L4" s="127" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M4" s="128"/>
       <c r="N4" s="128"/>
@@ -14051,10 +14256,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="124" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B5" s="124" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C5" s="125"/>
       <c r="D5" s="125"/>
@@ -14066,7 +14271,7 @@
       <c r="J5" s="128"/>
       <c r="K5" s="128"/>
       <c r="L5" s="127" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M5" s="128"/>
       <c r="N5" s="128"/>
@@ -14076,19 +14281,19 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="124" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B6" s="124" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C6" s="125" t="s">
-        <v>1264</v>
+        <v>1249</v>
       </c>
       <c r="D6" s="125" t="s">
         <v>445</v>
       </c>
       <c r="E6" s="127" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="F6" s="127" t="s">
         <v>368</v>
@@ -14100,37 +14305,37 @@
         <v>185</v>
       </c>
       <c r="I6" s="129" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="J6" s="129" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="K6" s="129" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="L6" s="127" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M6" s="128"/>
       <c r="N6" s="127" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="O6" s="129" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="P6" s="129" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q6" s="129" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="124" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C7" s="125"/>
       <c r="D7" s="125"/>
@@ -14142,10 +14347,10 @@
       <c r="J7" s="128"/>
       <c r="K7" s="128"/>
       <c r="L7" s="127" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M7" s="127" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="N7" s="128"/>
       <c r="O7" s="128"/>
@@ -14154,10 +14359,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="124" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C8" s="125"/>
       <c r="D8" s="125"/>
@@ -14169,7 +14374,7 @@
       <c r="J8" s="128"/>
       <c r="K8" s="128"/>
       <c r="L8" s="127" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M8" s="128"/>
       <c r="N8" s="128"/>
@@ -14179,10 +14384,10 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="124" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -14194,7 +14399,7 @@
       <c r="J9" s="128"/>
       <c r="K9" s="128"/>
       <c r="L9" s="127" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M9" s="128"/>
       <c r="N9" s="128"/>
@@ -14204,19 +14409,19 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="124" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C10" s="125" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D10" s="125" t="s">
         <v>445</v>
       </c>
       <c r="E10" s="127" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="F10" s="127" t="s">
         <v>368</v>
@@ -14228,20 +14433,20 @@
         <v>185</v>
       </c>
       <c r="I10" s="129" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="J10" s="129" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="K10" s="129" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="L10" s="127" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M10" s="128"/>
       <c r="N10" s="127" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="O10" s="128"/>
       <c r="P10" s="128"/>
@@ -14249,10 +14454,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="124" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C11" s="125"/>
       <c r="D11" s="125"/>
@@ -14264,10 +14469,10 @@
       <c r="J11" s="128"/>
       <c r="K11" s="128"/>
       <c r="L11" s="127" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M11" s="127" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="N11" s="128"/>
       <c r="O11" s="128"/>
@@ -14276,10 +14481,10 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="124" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B12" s="124" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C12" s="125"/>
       <c r="D12" s="125"/>
@@ -14291,7 +14496,7 @@
       <c r="J12" s="128"/>
       <c r="K12" s="128"/>
       <c r="L12" s="127" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M12" s="128"/>
       <c r="N12" s="128"/>
@@ -14301,10 +14506,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="124" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C13" s="125"/>
       <c r="D13" s="125"/>
@@ -14316,7 +14521,7 @@
       <c r="J13" s="128"/>
       <c r="K13" s="128"/>
       <c r="L13" s="127" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M13" s="128"/>
       <c r="N13" s="128"/>
@@ -14340,18 +14545,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="115.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="100.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="78.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="62.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="92.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="92.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="97.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="102.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="173.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="129.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="103.42578125" collapsed="true"/>
-    <col min="12" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="115" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="100.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="78" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="62.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="92" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="92.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="97.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="102.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="173.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="129.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="103.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -14365,7 +14570,7 @@
         <v>145</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E1" s="63" t="s">
         <v>438</v>
@@ -14399,7 +14604,7 @@
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="58" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F2" s="99" t="s">
         <v>455</v>
@@ -14408,7 +14613,7 @@
         <v>456</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>474</v>
@@ -14430,7 +14635,7 @@
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="58" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F3" s="99" t="s">
         <v>462</v>
@@ -14439,10 +14644,10 @@
         <v>463</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>100</v>
@@ -14461,7 +14666,7 @@
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="58" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="F4" s="99" t="s">
         <v>469</v>
@@ -14470,10 +14675,10 @@
         <v>470</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>100</v>
@@ -14492,7 +14697,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="58" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F5" s="99" t="s">
         <v>447</v>
@@ -14501,10 +14706,10 @@
         <v>448</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>100</v>
@@ -14529,7 +14734,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" style="4" width="28.5703125" collapsed="true"/>
+    <col min="1" max="16384" width="28.5703125" style="4" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="6.9480314960629919" bottom="6.9480314960629919" header="6.7511811023622039" footer="6.7511811023622039"/>
@@ -14547,7 +14752,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" style="4" width="28.5703125" collapsed="true"/>
+    <col min="1" max="16384" width="28.5703125" style="4" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="6.9480314960629919" bottom="6.9480314960629919" header="6.7511811023622039" footer="6.7511811023622039"/>
@@ -14565,18 +14770,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="117.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="125.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="83.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="44.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="84.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="66.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="108.0" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="4" width="102.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="79.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="69.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="63.140625" collapsed="true"/>
-    <col min="13" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="117.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="125.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="84.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="66.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="108" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="102.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="79.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="69.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="63.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -14590,19 +14795,19 @@
         <v>145</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>442</v>
@@ -14615,140 +14820,140 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="14" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
       <c r="E2" s="99" t="s">
+        <v>707</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>708</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>709</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>710</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="J2" s="58" t="s">
         <v>712</v>
-      </c>
-      <c r="F2" s="99" t="s">
-        <v>713</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>714</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>715</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="130" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B3" s="130" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C3" s="103"/>
       <c r="D3" s="103"/>
       <c r="E3" s="131" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F3" s="132" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="J3" s="133" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="14" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="99" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F4" s="99" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="14" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
       <c r="E5" s="99" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F5" s="99"/>
       <c r="G5" s="58" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="14" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C6" s="98"/>
       <c r="D6" s="98"/>
       <c r="E6" s="99" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -14784,19 +14989,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="73.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="86.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="74.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="64.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="63.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="80.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="73.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="37.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="78.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="67.28515625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="4" width="105.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="92.140625" collapsed="true"/>
-    <col min="14" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="73.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="86.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="74.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="64.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="63.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="80.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="73.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="78" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="67.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="105.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="92.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -14810,28 +15015,28 @@
         <v>145</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>258</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>737</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>738</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>739</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>740</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>741</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>742</v>
       </c>
       <c r="L1" s="22" t="s">
         <v>442</v>
@@ -14842,16 +15047,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="14" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
       <c r="E2" s="98"/>
       <c r="F2" s="99" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G2" s="99" t="s">
         <v>228</v>
@@ -14860,19 +15065,19 @@
         <v>12</v>
       </c>
       <c r="I2" s="99" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="J2" s="99" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="K2" s="99" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -14908,22 +15113,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="94.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="103.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="68.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="45.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="73.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="69.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="114.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="50.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="71.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="55.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="48.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="86.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="109.7109375" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" style="4" width="105.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="4" width="116.42578125" collapsed="true"/>
-    <col min="17" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="94.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="103" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="68" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="73.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="69.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="114.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="50.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="71.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="55.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="48.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="86.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="109.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="105.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="116.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -14937,37 +15142,37 @@
         <v>145</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>258</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>750</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>751</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>753</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>754</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>757</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>758</v>
       </c>
       <c r="O1" s="22" t="s">
         <v>442</v>
@@ -14978,46 +15183,46 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="14" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
       <c r="E2" s="98"/>
       <c r="F2" s="99" t="s">
+        <v>756</v>
+      </c>
+      <c r="G2" s="99" t="s">
+        <v>757</v>
+      </c>
+      <c r="H2" s="99" t="s">
+        <v>758</v>
+      </c>
+      <c r="I2" s="99" t="s">
+        <v>759</v>
+      </c>
+      <c r="J2" s="99" t="s">
+        <v>760</v>
+      </c>
+      <c r="K2" s="99" t="s">
         <v>761</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="L2" s="99" t="s">
+        <v>761</v>
+      </c>
+      <c r="M2" s="99" t="s">
         <v>762</v>
       </c>
-      <c r="H2" s="99" t="s">
+      <c r="N2" s="99" t="s">
+        <v>756</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>763</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="P2" s="58" t="s">
         <v>764</v>
-      </c>
-      <c r="J2" s="99" t="s">
-        <v>765</v>
-      </c>
-      <c r="K2" s="99" t="s">
-        <v>766</v>
-      </c>
-      <c r="L2" s="99" t="s">
-        <v>766</v>
-      </c>
-      <c r="M2" s="99" t="s">
-        <v>767</v>
-      </c>
-      <c r="N2" s="99" t="s">
-        <v>761</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>768</v>
-      </c>
-      <c r="P2" s="58" t="s">
-        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -15041,13 +15246,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="89.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="97.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="45.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="66.7109375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="4" width="71.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="82.7109375" collapsed="true"/>
-    <col min="8" max="16384" style="4" width="28.5703125" collapsed="true"/>
+    <col min="1" max="1" width="89.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="97.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="66.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="71.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="82.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="28.5703125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -15061,10 +15266,10 @@
         <v>145</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>442</v>
@@ -15075,10 +15280,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="14" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C2" s="135"/>
       <c r="D2" s="135"/>
@@ -15086,10 +15291,10 @@
         <v>1001</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -15108,21 +15313,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="93.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="82.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="62.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="55.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="91.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="117.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="97.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="84.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="73.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="89.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="56.42578125" collapsed="true"/>
-    <col min="12" max="14" customWidth="true" style="4" width="78.42578125" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" style="4" width="69.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="4" width="77.85546875" collapsed="true"/>
-    <col min="18" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="93.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="82.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="62.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="55.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="91.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="117.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="97.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="84.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="73.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="89" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="56.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="78.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="69.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="77.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -15136,7 +15341,7 @@
         <v>145</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>257</v>
@@ -15145,31 +15350,31 @@
         <v>258</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>64</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="P1" s="22" t="s">
         <v>442</v>
@@ -15180,10 +15385,10 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="14" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
@@ -15192,7 +15397,7 @@
       </c>
       <c r="F2" s="98"/>
       <c r="G2" s="99" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="H2" s="99" t="s">
         <v>228</v>
@@ -15208,15 +15413,15 @@
         <v>267</v>
       </c>
       <c r="Q2" s="58" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="14" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C3" s="98"/>
       <c r="D3" s="98"/>
@@ -15225,16 +15430,16 @@
       </c>
       <c r="F3" s="98"/>
       <c r="G3" s="99" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="H3" s="99" t="s">
         <v>229</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="K3" s="99" t="s">
         <v>89</v>
@@ -15255,7 +15460,7 @@
         <v>267</v>
       </c>
       <c r="Q3" s="58" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -15290,38 +15495,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="140" width="50.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="140" width="60.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="140" width="21.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="140" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="140" width="49.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="140" width="34.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="140" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="140" width="32.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="140" width="32.85546875" collapsed="true"/>
-    <col min="10" max="13" customWidth="true" style="140" width="20.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="140" width="32.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="140" width="35.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="140" width="30.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="140" width="43.28515625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="140" width="32.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="140" width="47.85546875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="140" width="37.85546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="140" width="21.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="140" width="28.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="140" width="21.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="140" width="22.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="140" width="35.42578125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="140" width="32.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="140" width="35.42578125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="140" width="28.0" collapsed="true"/>
-    <col min="29" max="31" customWidth="true" style="140" width="24.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="140" width="42.140625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="168" width="44.85546875" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="168" width="37.42578125" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="140" width="34.0" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="140" width="33.0" collapsed="true"/>
-    <col min="37" max="16384" style="140" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="50.5703125" style="140" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.28515625" style="140" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" style="140" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" style="140" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5703125" style="140" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.42578125" style="140" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" style="140" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.140625" style="140" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.85546875" style="140" customWidth="1" collapsed="1"/>
+    <col min="10" max="13" width="20.28515625" style="140" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="32.85546875" style="140" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="35" style="140" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="30.42578125" style="140" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="43.28515625" style="140" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="32.140625" style="140" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="47.85546875" style="140" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="37.85546875" style="140" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.7109375" style="140" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="28.85546875" style="140" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.7109375" style="140" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="22" style="140" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="35.42578125" style="140" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="32.140625" style="140" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="35.42578125" style="140" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28" style="140" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="24" style="140" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="42.140625" style="140" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="44.85546875" style="168" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="37.42578125" style="168" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="34" style="140" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="33" style="140" customWidth="1" collapsed="1"/>
+    <col min="37" max="16384" width="16.140625" style="140" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="169" customFormat="1">
@@ -15338,19 +15543,19 @@
         <v>146</v>
       </c>
       <c r="E1" s="137" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F1" s="142" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G1" s="137" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="H1" s="137" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="I1" s="137" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="J1" s="137" t="s">
         <v>31</v>
@@ -15365,92 +15570,92 @@
         <v>229</v>
       </c>
       <c r="N1" s="137" t="s">
+        <v>789</v>
+      </c>
+      <c r="O1" s="137" t="s">
+        <v>790</v>
+      </c>
+      <c r="P1" s="142" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q1" s="137" t="s">
+        <v>792</v>
+      </c>
+      <c r="R1" s="137" t="s">
+        <v>793</v>
+      </c>
+      <c r="S1" s="137" t="s">
         <v>794</v>
       </c>
-      <c r="O1" s="137" t="s">
+      <c r="T1" s="137" t="s">
         <v>795</v>
       </c>
-      <c r="P1" s="142" t="s">
+      <c r="U1" s="137" t="s">
         <v>796</v>
       </c>
-      <c r="Q1" s="137" t="s">
+      <c r="V1" s="137" t="s">
         <v>797</v>
       </c>
-      <c r="R1" s="137" t="s">
+      <c r="W1" s="142" t="s">
         <v>798</v>
       </c>
-      <c r="S1" s="137" t="s">
+      <c r="X1" s="137" t="s">
         <v>799</v>
-      </c>
-      <c r="T1" s="137" t="s">
-        <v>800</v>
-      </c>
-      <c r="U1" s="137" t="s">
-        <v>801</v>
-      </c>
-      <c r="V1" s="137" t="s">
-        <v>802</v>
-      </c>
-      <c r="W1" s="142" t="s">
-        <v>803</v>
-      </c>
-      <c r="X1" s="137" t="s">
-        <v>804</v>
       </c>
       <c r="Y1" s="137" t="s">
         <v>339</v>
       </c>
       <c r="Z1" s="137" t="s">
+        <v>800</v>
+      </c>
+      <c r="AA1" s="137" t="s">
+        <v>801</v>
+      </c>
+      <c r="AB1" s="137" t="s">
+        <v>802</v>
+      </c>
+      <c r="AC1" s="137" t="s">
+        <v>803</v>
+      </c>
+      <c r="AD1" s="137" t="s">
+        <v>804</v>
+      </c>
+      <c r="AE1" s="137" t="s">
         <v>805</v>
       </c>
-      <c r="AA1" s="137" t="s">
+      <c r="AF1" s="137" t="s">
         <v>806</v>
       </c>
-      <c r="AB1" s="137" t="s">
+      <c r="AG1" s="166" t="s">
         <v>807</v>
       </c>
-      <c r="AC1" s="137" t="s">
+      <c r="AH1" s="166" t="s">
         <v>808</v>
       </c>
-      <c r="AD1" s="137" t="s">
+      <c r="AI1" s="137" t="s">
         <v>809</v>
-      </c>
-      <c r="AE1" s="137" t="s">
-        <v>810</v>
-      </c>
-      <c r="AF1" s="137" t="s">
-        <v>811</v>
-      </c>
-      <c r="AG1" s="166" t="s">
-        <v>812</v>
-      </c>
-      <c r="AH1" s="166" t="s">
-        <v>813</v>
-      </c>
-      <c r="AI1" s="137" t="s">
-        <v>814</v>
       </c>
       <c r="AJ1" s="137"/>
     </row>
     <row r="2" spans="1:36" ht="15.75">
       <c r="A2" s="138" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C2" s="141"/>
       <c r="D2" s="141"/>
       <c r="E2" s="141"/>
       <c r="F2" s="143" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G2" s="144" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="H2" s="141"/>
       <c r="I2" s="147" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="J2" s="152" t="s">
         <v>501</v>
@@ -15490,13 +15695,13 @@
     </row>
     <row r="3" spans="1:36" ht="15.75">
       <c r="A3" s="138" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C3" s="141" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D3" s="141" t="s">
         <v>445</v>
@@ -15538,10 +15743,10 @@
     </row>
     <row r="4" spans="1:36" ht="15.75">
       <c r="A4" s="138" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B4" s="138" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C4" s="141"/>
       <c r="D4" s="141"/>
@@ -15584,10 +15789,10 @@
     </row>
     <row r="5" spans="1:36" ht="15.75">
       <c r="A5" s="138" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C5" s="141"/>
       <c r="D5" s="141"/>
@@ -15595,7 +15800,7 @@
       <c r="F5" s="143"/>
       <c r="G5" s="145"/>
       <c r="H5" s="141" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="I5" s="147"/>
       <c r="J5" s="153" t="s">
@@ -15630,23 +15835,23 @@
     </row>
     <row r="6" spans="1:36" ht="15.75">
       <c r="A6" s="138" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B6" s="138" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C6" s="141"/>
       <c r="D6" s="141"/>
       <c r="E6" s="141"/>
       <c r="F6" s="143" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G6" s="145" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="H6" s="141"/>
       <c r="I6" s="148" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="J6" s="153" t="s">
         <v>501</v>
@@ -15686,13 +15891,13 @@
     </row>
     <row r="7" spans="1:36" ht="15.75">
       <c r="A7" s="138" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C7" s="141" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D7" s="141" t="s">
         <v>445</v>
@@ -15734,10 +15939,10 @@
     </row>
     <row r="8" spans="1:36" ht="15.75">
       <c r="A8" s="138" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B8" s="138" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C8" s="141"/>
       <c r="D8" s="141"/>
@@ -15778,10 +15983,10 @@
     </row>
     <row r="9" spans="1:36" ht="15.75">
       <c r="A9" s="138" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B9" s="138" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C9" s="141"/>
       <c r="D9" s="141"/>
@@ -15789,7 +15994,7 @@
       <c r="F9" s="143"/>
       <c r="G9" s="145"/>
       <c r="H9" s="141" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="I9" s="148"/>
       <c r="J9" s="153" t="s">
@@ -15824,23 +16029,23 @@
     </row>
     <row r="10" spans="1:36" ht="15.75">
       <c r="A10" s="138" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B10" s="138" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C10" s="141"/>
       <c r="D10" s="141"/>
       <c r="E10" s="141"/>
       <c r="F10" s="143" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G10" s="145"/>
       <c r="H10" s="141" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="I10" s="148" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="J10" s="153" t="s">
         <v>501</v>
@@ -15874,10 +16079,10 @@
     </row>
     <row r="11" spans="1:36" ht="15.75">
       <c r="A11" s="138" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C11" s="141"/>
       <c r="D11" s="141"/>
@@ -15893,7 +16098,7 @@
       <c r="L11" s="155"/>
       <c r="M11" s="155"/>
       <c r="N11" s="159" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="O11" s="162"/>
       <c r="P11" s="158"/>
@@ -15920,13 +16125,13 @@
     </row>
     <row r="12" spans="1:36" ht="15.75">
       <c r="A12" s="138" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B12" s="138" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C12" s="141" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D12" s="141" t="s">
         <v>445</v>
@@ -15968,10 +16173,10 @@
     </row>
     <row r="13" spans="1:36" ht="15.75">
       <c r="A13" s="138" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B13" s="138" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C13" s="141"/>
       <c r="D13" s="141"/>
@@ -16012,10 +16217,10 @@
     </row>
     <row r="14" spans="1:36" ht="15.75">
       <c r="A14" s="138" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B14" s="138" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C14" s="141"/>
       <c r="D14" s="141"/>
@@ -16032,7 +16237,7 @@
       <c r="M14" s="156"/>
       <c r="N14" s="159"/>
       <c r="O14" s="162" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="P14" s="158"/>
       <c r="Q14" s="163"/>
@@ -16058,25 +16263,25 @@
     </row>
     <row r="15" spans="1:36" ht="15.75">
       <c r="A15" s="138" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B15" s="138" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C15" s="141"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="143" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G15" s="144" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="H15" s="146" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="I15" s="147" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="J15" s="152" t="s">
         <v>501</v>
@@ -16107,7 +16312,7 @@
       <c r="AB15" s="158"/>
       <c r="AC15" s="155"/>
       <c r="AD15" s="153" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="AE15" s="153"/>
       <c r="AF15" s="164"/>
@@ -16118,13 +16323,13 @@
     </row>
     <row r="16" spans="1:36" ht="15.75">
       <c r="A16" s="138" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B16" s="138" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C16" s="141" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="D16" s="141" t="s">
         <v>445</v>
@@ -16166,10 +16371,10 @@
     </row>
     <row r="17" spans="1:36" ht="15.75">
       <c r="A17" s="138" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B17" s="138" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C17" s="141"/>
       <c r="D17" s="141"/>
@@ -16210,10 +16415,10 @@
     </row>
     <row r="18" spans="1:36" ht="15.75">
       <c r="A18" s="138" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B18" s="138" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C18" s="141"/>
       <c r="D18" s="141"/>
@@ -16221,7 +16426,7 @@
       <c r="F18" s="143"/>
       <c r="G18" s="144"/>
       <c r="H18" s="146" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="I18" s="147"/>
       <c r="J18" s="153" t="s">
@@ -16256,25 +16461,25 @@
     </row>
     <row r="19" spans="1:36" ht="15.75">
       <c r="A19" s="138" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C19" s="141"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="143" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G19" s="144" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="H19" s="146" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="I19" s="147" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="J19" s="152" t="s">
         <v>501</v>
@@ -16305,7 +16510,7 @@
       <c r="AB19" s="158"/>
       <c r="AC19" s="155"/>
       <c r="AD19" s="153" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="AE19" s="153"/>
       <c r="AF19" s="164"/>
@@ -16316,13 +16521,13 @@
     </row>
     <row r="20" spans="1:36" ht="15.75">
       <c r="A20" s="138" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B20" s="138" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C20" s="141" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D20" s="141" t="s">
         <v>445</v>
@@ -16364,10 +16569,10 @@
     </row>
     <row r="21" spans="1:36" ht="15.75">
       <c r="A21" s="138" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B21" s="138" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C21" s="141"/>
       <c r="D21" s="141"/>
@@ -16408,10 +16613,10 @@
     </row>
     <row r="22" spans="1:36" ht="15.75">
       <c r="A22" s="138" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B22" s="138" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C22" s="141"/>
       <c r="D22" s="141"/>
@@ -16419,7 +16624,7 @@
       <c r="F22" s="143"/>
       <c r="G22" s="144"/>
       <c r="H22" s="146" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="I22" s="147"/>
       <c r="J22" s="153" t="s">
@@ -16454,10 +16659,10 @@
     </row>
     <row r="23" spans="1:36" ht="15.75">
       <c r="A23" s="138" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B23" s="138" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C23" s="141"/>
       <c r="D23" s="141"/>
@@ -16475,17 +16680,17 @@
       <c r="N23" s="158"/>
       <c r="O23" s="161"/>
       <c r="P23" s="159" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="Q23" s="164" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="R23" s="153" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="S23" s="164"/>
       <c r="T23" s="148" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="U23" s="155"/>
       <c r="V23" s="164"/>
@@ -16506,13 +16711,13 @@
     </row>
     <row r="24" spans="1:36" ht="15.75">
       <c r="A24" s="138" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B24" s="138" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C24" s="141" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="D24" s="141" t="s">
         <v>445</v>
@@ -16554,10 +16759,10 @@
     </row>
     <row r="25" spans="1:36" ht="15.75">
       <c r="A25" s="138" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B25" s="138" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C25" s="141"/>
       <c r="D25" s="141"/>
@@ -16598,10 +16803,10 @@
     </row>
     <row r="26" spans="1:36" ht="15.75">
       <c r="A26" s="138" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B26" s="138" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C26" s="141"/>
       <c r="D26" s="141"/>
@@ -16622,7 +16827,7 @@
       <c r="Q26" s="164"/>
       <c r="R26" s="153"/>
       <c r="S26" s="164" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="T26" s="148"/>
       <c r="U26" s="155"/>
@@ -16644,10 +16849,10 @@
     </row>
     <row r="27" spans="1:36" ht="15.75">
       <c r="A27" s="138" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B27" s="138" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C27" s="141"/>
       <c r="D27" s="141"/>
@@ -16665,17 +16870,17 @@
       <c r="N27" s="160"/>
       <c r="O27" s="161"/>
       <c r="P27" s="160" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="Q27" s="164" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="R27" s="153" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="S27" s="164"/>
       <c r="T27" s="151" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="U27" s="139"/>
       <c r="V27" s="164"/>
@@ -16696,13 +16901,13 @@
     </row>
     <row r="28" spans="1:36" ht="15.75">
       <c r="A28" s="138" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B28" s="138" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C28" s="141" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D28" s="141" t="s">
         <v>445</v>
@@ -16744,10 +16949,10 @@
     </row>
     <row r="29" spans="1:36" ht="15.75">
       <c r="A29" s="138" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B29" s="138" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C29" s="141"/>
       <c r="D29" s="141"/>
@@ -16788,10 +16993,10 @@
     </row>
     <row r="30" spans="1:36" ht="15.75">
       <c r="A30" s="138" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B30" s="138" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C30" s="141"/>
       <c r="D30" s="141"/>
@@ -16812,7 +17017,7 @@
       <c r="Q30" s="164"/>
       <c r="R30" s="153"/>
       <c r="S30" s="164" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="T30" s="151"/>
       <c r="U30" s="139"/>
@@ -16834,10 +17039,10 @@
     </row>
     <row r="31" spans="1:36" ht="15.75">
       <c r="A31" s="138" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B31" s="138" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C31" s="141"/>
       <c r="D31" s="141"/>
@@ -16855,17 +17060,17 @@
       <c r="N31" s="160"/>
       <c r="O31" s="161"/>
       <c r="P31" s="160" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="Q31" s="164" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="R31" s="153" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="S31" s="164"/>
       <c r="T31" s="151" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="U31" s="139"/>
       <c r="V31" s="164"/>
@@ -16886,13 +17091,13 @@
     </row>
     <row r="32" spans="1:36" ht="15.75">
       <c r="A32" s="138" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="C32" s="141" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D32" s="141" t="s">
         <v>445</v>
@@ -16934,10 +17139,10 @@
     </row>
     <row r="33" spans="1:36" ht="15.75">
       <c r="A33" s="138" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B33" s="138" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C33" s="141"/>
       <c r="D33" s="141"/>
@@ -16978,10 +17183,10 @@
     </row>
     <row r="34" spans="1:36" ht="15.75">
       <c r="A34" s="138" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B34" s="138" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C34" s="141"/>
       <c r="D34" s="141"/>
@@ -17002,7 +17207,7 @@
       <c r="Q34" s="164"/>
       <c r="R34" s="153"/>
       <c r="S34" s="164" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="T34" s="151"/>
       <c r="U34" s="139"/>
@@ -17024,10 +17229,10 @@
     </row>
     <row r="35" spans="1:36" ht="15.75">
       <c r="A35" s="138" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B35" s="138" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C35" s="141"/>
       <c r="D35" s="141"/>
@@ -17045,17 +17250,17 @@
       <c r="N35" s="160"/>
       <c r="O35" s="161"/>
       <c r="P35" s="160" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="Q35" s="164" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="R35" s="153" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="S35" s="164"/>
       <c r="T35" s="151" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="U35" s="139"/>
       <c r="V35" s="164"/>
@@ -17076,13 +17281,13 @@
     </row>
     <row r="36" spans="1:36" ht="15.75">
       <c r="A36" s="138" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C36" s="141" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="D36" s="141" t="s">
         <v>445</v>
@@ -17124,10 +17329,10 @@
     </row>
     <row r="37" spans="1:36" ht="15.75">
       <c r="A37" s="138" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B37" s="138" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C37" s="141"/>
       <c r="D37" s="141"/>
@@ -17168,10 +17373,10 @@
     </row>
     <row r="38" spans="1:36" ht="15.75">
       <c r="A38" s="138" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B38" s="138" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C38" s="141"/>
       <c r="D38" s="141"/>
@@ -17192,7 +17397,7 @@
       <c r="Q38" s="164"/>
       <c r="R38" s="153"/>
       <c r="S38" s="164" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="T38" s="151"/>
       <c r="U38" s="139"/>
@@ -17214,10 +17419,10 @@
     </row>
     <row r="39" spans="1:36" ht="15.75">
       <c r="A39" s="138" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B39" s="138" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="C39" s="141"/>
       <c r="D39" s="141"/>
@@ -17236,11 +17441,11 @@
       <c r="O39" s="161"/>
       <c r="P39" s="158"/>
       <c r="Q39" s="164" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="R39" s="155"/>
       <c r="S39" s="164" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="T39" s="149"/>
       <c r="U39" s="155"/>
@@ -17262,10 +17467,10 @@
     </row>
     <row r="40" spans="1:36" ht="15.75">
       <c r="A40" s="138" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="B40" s="138" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="C40" s="141"/>
       <c r="D40" s="141"/>
@@ -17284,29 +17489,29 @@
       <c r="O40" s="161"/>
       <c r="P40" s="158"/>
       <c r="Q40" s="164" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="R40" s="155"/>
       <c r="S40" s="164" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="T40" s="148"/>
       <c r="U40" s="153" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="V40" s="164"/>
       <c r="W40" s="148" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="X40" s="148" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="Y40" s="153" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="Z40" s="164"/>
       <c r="AA40" s="164" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="AB40" s="158"/>
       <c r="AC40" s="155"/>
@@ -17320,13 +17525,13 @@
     </row>
     <row r="41" spans="1:36" ht="15.75">
       <c r="A41" s="138" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B41" s="138" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C41" s="141" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D41" s="141" t="s">
         <v>445</v>
@@ -17368,10 +17573,10 @@
     </row>
     <row r="42" spans="1:36" ht="15.75">
       <c r="A42" s="138" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B42" s="138" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="C42" s="141"/>
       <c r="D42" s="141"/>
@@ -17412,10 +17617,10 @@
     </row>
     <row r="43" spans="1:36" ht="15.75">
       <c r="A43" s="138" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B43" s="138" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C43" s="141"/>
       <c r="D43" s="141"/>
@@ -17443,7 +17648,7 @@
       <c r="X43" s="148"/>
       <c r="Y43" s="153"/>
       <c r="Z43" s="164" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="AA43" s="164"/>
       <c r="AB43" s="158"/>
@@ -17458,10 +17663,10 @@
     </row>
     <row r="44" spans="1:36" ht="15.75">
       <c r="A44" s="138" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B44" s="138" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="C44" s="141"/>
       <c r="D44" s="141"/>
@@ -17482,29 +17687,29 @@
       <c r="Q44" s="163"/>
       <c r="R44" s="155"/>
       <c r="S44" s="164" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="T44" s="148"/>
       <c r="U44" s="153" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="V44" s="164" t="s">
+        <v>936</v>
+      </c>
+      <c r="W44" s="148" t="s">
+        <v>940</v>
+      </c>
+      <c r="X44" s="148" t="s">
+        <v>926</v>
+      </c>
+      <c r="Y44" s="153" t="s">
+        <v>927</v>
+      </c>
+      <c r="Z44" s="164" t="s">
+        <v>936</v>
+      </c>
+      <c r="AA44" s="164" t="s">
         <v>941</v>
-      </c>
-      <c r="W44" s="148" t="s">
-        <v>945</v>
-      </c>
-      <c r="X44" s="148" t="s">
-        <v>931</v>
-      </c>
-      <c r="Y44" s="153" t="s">
-        <v>932</v>
-      </c>
-      <c r="Z44" s="164" t="s">
-        <v>941</v>
-      </c>
-      <c r="AA44" s="164" t="s">
-        <v>946</v>
       </c>
       <c r="AB44" s="158"/>
       <c r="AC44" s="155"/>
@@ -17518,13 +17723,13 @@
     </row>
     <row r="45" spans="1:36" ht="15.75">
       <c r="A45" s="138" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B45" s="138" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C45" s="141" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="D45" s="141" t="s">
         <v>445</v>
@@ -17566,10 +17771,10 @@
     </row>
     <row r="46" spans="1:36" ht="15.75">
       <c r="A46" s="138" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B46" s="138" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="C46" s="141"/>
       <c r="D46" s="141"/>
@@ -17610,10 +17815,10 @@
     </row>
     <row r="47" spans="1:36" ht="15.75">
       <c r="A47" s="138" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B47" s="138" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C47" s="141"/>
       <c r="D47" s="141"/>
@@ -17641,7 +17846,7 @@
       <c r="X47" s="148"/>
       <c r="Y47" s="153"/>
       <c r="Z47" s="164" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="AA47" s="164"/>
       <c r="AB47" s="158"/>
@@ -17656,10 +17861,10 @@
     </row>
     <row r="48" spans="1:36" ht="15.75">
       <c r="A48" s="138" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B48" s="138" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C48" s="141"/>
       <c r="D48" s="141"/>
@@ -17680,27 +17885,27 @@
       <c r="Q48" s="163"/>
       <c r="R48" s="155"/>
       <c r="S48" s="164" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="T48" s="148"/>
       <c r="U48" s="153" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="V48" s="164" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="W48" s="148" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="X48" s="148" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="Y48" s="153" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="Z48" s="164"/>
       <c r="AA48" s="164" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="AB48" s="158"/>
       <c r="AC48" s="155"/>
@@ -17714,13 +17919,13 @@
     </row>
     <row r="49" spans="1:36" ht="15.75">
       <c r="A49" s="138" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C49" s="141" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D49" s="141" t="s">
         <v>445</v>
@@ -17762,10 +17967,10 @@
     </row>
     <row r="50" spans="1:36" ht="15.75">
       <c r="A50" s="138" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B50" s="138" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C50" s="141"/>
       <c r="D50" s="141"/>
@@ -17806,10 +18011,10 @@
     </row>
     <row r="51" spans="1:36" ht="15.75">
       <c r="A51" s="138" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B51" s="138" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C51" s="141"/>
       <c r="D51" s="141"/>
@@ -17837,7 +18042,7 @@
       <c r="X51" s="148"/>
       <c r="Y51" s="153"/>
       <c r="Z51" s="164" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AA51" s="164"/>
       <c r="AB51" s="158"/>
@@ -17852,10 +18057,10 @@
     </row>
     <row r="52" spans="1:36" ht="15.75">
       <c r="A52" s="138" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B52" s="138" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C52" s="141"/>
       <c r="D52" s="141"/>
@@ -17876,26 +18081,26 @@
       <c r="Q52" s="163"/>
       <c r="R52" s="155"/>
       <c r="S52" s="164" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="T52" s="149"/>
       <c r="U52" s="153" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="V52" s="164" t="s">
+        <v>961</v>
+      </c>
+      <c r="W52" s="148" t="s">
+        <v>925</v>
+      </c>
+      <c r="X52" s="148" t="s">
+        <v>965</v>
+      </c>
+      <c r="Y52" s="153" t="s">
+        <v>927</v>
+      </c>
+      <c r="Z52" s="164" t="s">
         <v>966</v>
-      </c>
-      <c r="W52" s="148" t="s">
-        <v>930</v>
-      </c>
-      <c r="X52" s="148" t="s">
-        <v>970</v>
-      </c>
-      <c r="Y52" s="153" t="s">
-        <v>932</v>
-      </c>
-      <c r="Z52" s="164" t="s">
-        <v>971</v>
       </c>
       <c r="AA52" s="164"/>
       <c r="AB52" s="159"/>
@@ -17910,13 +18115,13 @@
     </row>
     <row r="53" spans="1:36" ht="15.75">
       <c r="A53" s="138" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="B53" s="138" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C53" s="141" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="D53" s="141" t="s">
         <v>445</v>
@@ -17958,10 +18163,10 @@
     </row>
     <row r="54" spans="1:36" ht="15.75">
       <c r="A54" s="138" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B54" s="138" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C54" s="141"/>
       <c r="D54" s="141"/>
@@ -18002,10 +18207,10 @@
     </row>
     <row r="55" spans="1:36" ht="15.75">
       <c r="A55" s="138" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B55" s="138" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C55" s="141"/>
       <c r="D55" s="141"/>
@@ -18033,7 +18238,7 @@
       <c r="X55" s="148"/>
       <c r="Y55" s="153"/>
       <c r="Z55" s="164" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="AA55" s="164"/>
       <c r="AB55" s="159"/>
@@ -18048,10 +18253,10 @@
     </row>
     <row r="56" spans="1:36" ht="15.75">
       <c r="A56" s="138" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B56" s="138" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C56" s="141"/>
       <c r="D56" s="141"/>
@@ -18072,26 +18277,26 @@
       <c r="Q56" s="163"/>
       <c r="R56" s="155"/>
       <c r="S56" s="164" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="T56" s="149"/>
       <c r="U56" s="153" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="V56" s="164"/>
       <c r="W56" s="148" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="X56" s="148" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="Y56" s="153" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="Z56" s="164"/>
       <c r="AA56" s="164"/>
       <c r="AB56" s="159" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="AC56" s="155"/>
       <c r="AD56" s="155"/>
@@ -18104,13 +18309,13 @@
     </row>
     <row r="57" spans="1:36" ht="15.75">
       <c r="A57" s="138" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="B57" s="138" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C57" s="141" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="D57" s="141" t="s">
         <v>445</v>
@@ -18152,10 +18357,10 @@
     </row>
     <row r="58" spans="1:36" ht="15.75">
       <c r="A58" s="138" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B58" s="138" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="C58" s="141"/>
       <c r="D58" s="141"/>
@@ -18196,10 +18401,10 @@
     </row>
     <row r="59" spans="1:36" ht="15.75">
       <c r="A59" s="138" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B59" s="138" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C59" s="141"/>
       <c r="D59" s="141"/>
@@ -18227,7 +18432,7 @@
       <c r="X59" s="148"/>
       <c r="Y59" s="153"/>
       <c r="Z59" s="164" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="AA59" s="164"/>
       <c r="AB59" s="159"/>
@@ -18242,10 +18447,10 @@
     </row>
     <row r="60" spans="1:36" ht="15.75">
       <c r="A60" s="138" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B60" s="138" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C60" s="141"/>
       <c r="D60" s="141"/>
@@ -18270,16 +18475,16 @@
       <c r="U60" s="155"/>
       <c r="V60" s="164"/>
       <c r="W60" s="148" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="X60" s="149"/>
       <c r="Y60" s="153" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="Z60" s="164"/>
       <c r="AA60" s="164"/>
       <c r="AB60" s="159" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="AC60" s="155"/>
       <c r="AD60" s="155"/>
@@ -18294,10 +18499,10 @@
     </row>
     <row r="61" spans="1:36" ht="15.75">
       <c r="A61" s="138" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B61" s="138" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C61" s="141"/>
       <c r="D61" s="141"/>
@@ -18322,16 +18527,16 @@
       <c r="U61" s="155"/>
       <c r="V61" s="164"/>
       <c r="W61" s="148" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="X61" s="149"/>
       <c r="Y61" s="153" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="Z61" s="164"/>
       <c r="AA61" s="164"/>
       <c r="AB61" s="159" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="AC61" s="155"/>
       <c r="AD61" s="155"/>
@@ -18346,10 +18551,10 @@
     </row>
     <row r="62" spans="1:36" ht="15.75">
       <c r="A62" s="138" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B62" s="138" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C62" s="141"/>
       <c r="D62" s="141"/>
@@ -18377,15 +18582,15 @@
       <c r="X62" s="149"/>
       <c r="Y62" s="155"/>
       <c r="Z62" s="164" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AA62" s="164"/>
       <c r="AB62" s="159" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="AC62" s="155"/>
       <c r="AD62" s="155" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="AE62" s="155"/>
       <c r="AF62" s="164"/>
@@ -18396,13 +18601,13 @@
     </row>
     <row r="63" spans="1:36" ht="15.75">
       <c r="A63" s="138" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B63" s="138" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C63" s="141" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D63" s="141" t="s">
         <v>445</v>
@@ -18444,10 +18649,10 @@
     </row>
     <row r="64" spans="1:36" ht="15.75">
       <c r="A64" s="138" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="B64" s="138" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C64" s="141"/>
       <c r="D64" s="141"/>
@@ -18488,10 +18693,10 @@
     </row>
     <row r="65" spans="1:36" ht="15.75">
       <c r="A65" s="138" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B65" s="138" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C65" s="141"/>
       <c r="D65" s="141"/>
@@ -18519,14 +18724,14 @@
       <c r="X65" s="149"/>
       <c r="Y65" s="155"/>
       <c r="Z65" s="164" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AA65" s="164"/>
       <c r="AB65" s="159"/>
       <c r="AC65" s="155"/>
       <c r="AD65" s="155"/>
       <c r="AE65" s="165" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="AF65" s="164"/>
       <c r="AG65" s="167"/>
@@ -18536,10 +18741,10 @@
     </row>
     <row r="66" spans="1:36" ht="15.75">
       <c r="A66" s="138" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B66" s="138" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C66" s="141"/>
       <c r="D66" s="141"/>
@@ -18576,16 +18781,16 @@
       <c r="AG66" s="167"/>
       <c r="AH66" s="167"/>
       <c r="AI66" s="144" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="AJ66" s="144"/>
     </row>
     <row r="67" spans="1:36" ht="15.75">
       <c r="A67" s="139" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B67" s="139" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C67" s="141"/>
       <c r="D67" s="141"/>
@@ -18616,7 +18821,7 @@
       <c r="AA67" s="164"/>
       <c r="AB67" s="158"/>
       <c r="AC67" s="155" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="AD67" s="155"/>
       <c r="AE67" s="155"/>
@@ -18662,7 +18867,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="123" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" style="4" width="123.0" collapsed="true"/>
+    <col min="1" max="16384" width="123" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -18729,27 +18934,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="62" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" style="140" width="62.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="140" width="21.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="140" width="20.42578125" collapsed="true"/>
-    <col min="5" max="6" style="140" width="62.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="140" width="88.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="140" width="63.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="140" width="79.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="140" width="62.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="140" width="70.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="140" width="85.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="140" width="67.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="140" width="86.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="140" width="77.42578125" collapsed="true"/>
-    <col min="16" max="28" style="140" width="62.0" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="140" width="57.5703125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="140" width="42.5703125" collapsed="true"/>
-    <col min="31" max="33" style="140" width="62.0" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="140" width="63.140625" collapsed="true"/>
-    <col min="35" max="36" style="140" width="62.0" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="140" width="65.5703125" collapsed="true"/>
-    <col min="38" max="16384" style="140" width="62.0" collapsed="true"/>
+    <col min="1" max="2" width="62" style="140" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" style="140" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" style="140" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="62" style="140" collapsed="1"/>
+    <col min="7" max="7" width="88.5703125" style="140" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.42578125" style="140" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="79.5703125" style="140" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="62.7109375" style="140" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="70.85546875" style="140" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="85.85546875" style="140" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="67.28515625" style="140" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="86.42578125" style="140" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="77.42578125" style="140" customWidth="1" collapsed="1"/>
+    <col min="16" max="28" width="62" style="140" collapsed="1"/>
+    <col min="29" max="29" width="57.5703125" style="140" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="42.5703125" style="140" customWidth="1" collapsed="1"/>
+    <col min="31" max="33" width="62" style="140" collapsed="1"/>
+    <col min="34" max="34" width="63.140625" style="140" customWidth="1" collapsed="1"/>
+    <col min="35" max="36" width="62" style="140" collapsed="1"/>
+    <col min="37" max="37" width="65.5703125" style="140" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="62" style="140" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67">
@@ -18766,43 +18971,43 @@
         <v>146</v>
       </c>
       <c r="E1" s="137" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F1" s="142" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G1" s="137" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H1" s="137" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I1" s="137" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J1" s="137" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K1" s="137" t="s">
         <v>1012</v>
       </c>
-      <c r="G1" s="137" t="s">
+      <c r="L1" s="137" t="s">
         <v>1013</v>
       </c>
-      <c r="H1" s="137" t="s">
+      <c r="M1" s="137" t="s">
         <v>1014</v>
       </c>
-      <c r="I1" s="137" t="s">
+      <c r="N1" s="137" t="s">
         <v>1015</v>
       </c>
-      <c r="J1" s="137" t="s">
+      <c r="O1" s="137" t="s">
         <v>1016</v>
-      </c>
-      <c r="K1" s="137" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L1" s="137" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M1" s="137" t="s">
-        <v>1019</v>
-      </c>
-      <c r="N1" s="137" t="s">
-        <v>1020</v>
-      </c>
-      <c r="O1" s="137" t="s">
-        <v>1021</v>
       </c>
       <c r="P1" s="142" t="s">
         <v>257</v>
       </c>
       <c r="Q1" s="142" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="R1" s="142" t="s">
         <v>298</v>
@@ -18811,112 +19016,112 @@
         <v>156</v>
       </c>
       <c r="T1" s="137" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="U1" s="137" t="s">
         <v>60</v>
       </c>
       <c r="V1" s="137" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="W1" s="137" t="s">
         <v>66</v>
       </c>
       <c r="X1" s="137" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Y1" s="142" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Z1" s="137" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AA1" s="137" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AB1" s="137" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AC1" s="137" t="s">
         <v>1025</v>
       </c>
-      <c r="Y1" s="142" t="s">
+      <c r="AD1" s="137" t="s">
         <v>1026</v>
       </c>
-      <c r="Z1" s="137" t="s">
+      <c r="AE1" s="137" t="s">
         <v>1027</v>
       </c>
-      <c r="AA1" s="137" t="s">
+      <c r="AF1" s="137" t="s">
         <v>1028</v>
       </c>
-      <c r="AB1" s="137" t="s">
+      <c r="AG1" s="137" t="s">
         <v>1029</v>
       </c>
-      <c r="AC1" s="137" t="s">
+      <c r="AH1" s="137" t="s">
         <v>1030</v>
       </c>
-      <c r="AD1" s="137" t="s">
+      <c r="AI1" s="137" t="s">
         <v>1031</v>
       </c>
-      <c r="AE1" s="137" t="s">
+      <c r="AJ1" s="137" t="s">
         <v>1032</v>
       </c>
-      <c r="AF1" s="137" t="s">
+      <c r="AK1" s="137" t="s">
         <v>1033</v>
       </c>
-      <c r="AG1" s="137" t="s">
+      <c r="AL1" s="137" t="s">
         <v>1034</v>
       </c>
-      <c r="AH1" s="137" t="s">
+      <c r="AM1" s="137" t="s">
         <v>1035</v>
       </c>
-      <c r="AI1" s="137" t="s">
+      <c r="AN1" s="137" t="s">
         <v>1036</v>
       </c>
-      <c r="AJ1" s="137" t="s">
+      <c r="AO1" s="137" t="s">
         <v>1037</v>
       </c>
-      <c r="AK1" s="137" t="s">
+      <c r="AP1" s="137" t="s">
         <v>1038</v>
       </c>
-      <c r="AL1" s="137" t="s">
+      <c r="AQ1" s="137" t="s">
         <v>1039</v>
       </c>
-      <c r="AM1" s="137" t="s">
+      <c r="AR1" s="137" t="s">
         <v>1040</v>
       </c>
-      <c r="AN1" s="137" t="s">
+      <c r="AS1" s="137" t="s">
         <v>1041</v>
       </c>
-      <c r="AO1" s="137" t="s">
+      <c r="AT1" s="137" t="s">
         <v>1042</v>
       </c>
-      <c r="AP1" s="137" t="s">
+      <c r="AU1" s="137" t="s">
         <v>1043</v>
       </c>
-      <c r="AQ1" s="137" t="s">
+      <c r="AV1" s="137" t="s">
         <v>1044</v>
       </c>
-      <c r="AR1" s="137" t="s">
+      <c r="AW1" s="137" t="s">
         <v>1045</v>
       </c>
-      <c r="AS1" s="137" t="s">
+      <c r="AX1" s="137" t="s">
         <v>1046</v>
-      </c>
-      <c r="AT1" s="137" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AU1" s="137" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AV1" s="137" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AW1" s="137" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AX1" s="137" t="s">
-        <v>1051</v>
       </c>
       <c r="AY1" s="137" t="s">
         <v>442</v>
       </c>
       <c r="AZ1" s="137" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="BA1" s="137" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="BB1" s="137" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="BC1" s="137" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="BD1" s="137"/>
       <c r="BE1" s="137"/>
@@ -18933,47 +19138,47 @@
     </row>
     <row r="2" spans="1:67" ht="15.75">
       <c r="A2" s="138" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C2" s="141" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="D2" s="141" t="s">
         <v>445</v>
       </c>
       <c r="E2" s="141"/>
       <c r="F2" s="148" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="H2" s="148" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="I2" s="148" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="J2" s="148" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="K2" s="148" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="L2" s="148" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="M2" s="148" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="N2" s="148" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="O2" s="148" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="P2" s="148"/>
       <c r="Q2" s="148"/>
@@ -19020,13 +19225,13 @@
     </row>
     <row r="3" spans="1:67" ht="15.75">
       <c r="A3" s="138" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C3" s="141" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="D3" s="141" t="s">
         <v>445</v>
@@ -19087,10 +19292,10 @@
     </row>
     <row r="4" spans="1:67" ht="15.75">
       <c r="A4" s="138" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="B4" s="138" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C4" s="141"/>
       <c r="D4" s="141"/>
@@ -19150,10 +19355,10 @@
     </row>
     <row r="5" spans="1:67" ht="15.75">
       <c r="A5" s="138" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C5" s="141"/>
       <c r="D5" s="141"/>
@@ -19213,43 +19418,43 @@
     </row>
     <row r="6" spans="1:67" ht="15.75">
       <c r="A6" s="138" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="B6" s="138" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C6" s="141"/>
       <c r="D6" s="141"/>
       <c r="E6" s="141"/>
       <c r="F6" s="148" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="G6" s="148" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H6" s="148" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I6" s="148" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J6" s="148" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K6" s="148" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L6" s="148" t="s">
         <v>1073</v>
       </c>
-      <c r="H6" s="148" t="s">
+      <c r="M6" s="148" t="s">
         <v>1074</v>
       </c>
-      <c r="I6" s="148" t="s">
+      <c r="N6" s="148" t="s">
         <v>1075</v>
       </c>
-      <c r="J6" s="148" t="s">
+      <c r="O6" s="148" t="s">
         <v>1076</v>
-      </c>
-      <c r="K6" s="148" t="s">
-        <v>1077</v>
-      </c>
-      <c r="L6" s="148" t="s">
-        <v>1078</v>
-      </c>
-      <c r="M6" s="148" t="s">
-        <v>1079</v>
-      </c>
-      <c r="N6" s="148" t="s">
-        <v>1080</v>
-      </c>
-      <c r="O6" s="148" t="s">
-        <v>1081</v>
       </c>
       <c r="P6" s="148"/>
       <c r="Q6" s="148"/>
@@ -19296,13 +19501,13 @@
     </row>
     <row r="7" spans="1:67" ht="15.75">
       <c r="A7" s="138" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="C7" s="141" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="D7" s="141" t="s">
         <v>445</v>
@@ -19363,10 +19568,10 @@
     </row>
     <row r="8" spans="1:67" ht="15.75">
       <c r="A8" s="138" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="B8" s="138" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C8" s="141"/>
       <c r="D8" s="141"/>
@@ -19426,10 +19631,10 @@
     </row>
     <row r="9" spans="1:67" ht="15.75">
       <c r="A9" s="138" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B9" s="138" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C9" s="141"/>
       <c r="D9" s="141"/>
@@ -19489,43 +19694,43 @@
     </row>
     <row r="10" spans="1:67" ht="15.75">
       <c r="A10" s="138" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="B10" s="138" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="C10" s="141"/>
       <c r="D10" s="141"/>
       <c r="E10" s="141"/>
       <c r="F10" s="148" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="G10" s="148" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="H10" s="148" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="I10" s="148" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="J10" s="148" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="K10" s="148" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="L10" s="148" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="M10" s="148" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="N10" s="148" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="O10" s="148" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="P10" s="148"/>
       <c r="Q10" s="148"/>
@@ -19572,13 +19777,13 @@
     </row>
     <row r="11" spans="1:67" ht="15.75">
       <c r="A11" s="138" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="C11" s="141" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D11" s="141" t="s">
         <v>445</v>
@@ -19639,10 +19844,10 @@
     </row>
     <row r="12" spans="1:67" ht="15.75">
       <c r="A12" s="138" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B12" s="138" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="C12" s="141"/>
       <c r="D12" s="141"/>
@@ -19702,10 +19907,10 @@
     </row>
     <row r="13" spans="1:67" ht="15.75">
       <c r="A13" s="138" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="B13" s="138" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="C13" s="141"/>
       <c r="D13" s="141"/>
@@ -19765,10 +19970,10 @@
     </row>
     <row r="14" spans="1:67" ht="15.75">
       <c r="A14" s="138" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B14" s="138" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="C14" s="141"/>
       <c r="D14" s="141"/>
@@ -19792,19 +19997,19 @@
         <v>185</v>
       </c>
       <c r="T14" s="148" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="U14" s="148" t="s">
         <v>501</v>
       </c>
       <c r="V14" s="148" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="W14" s="148" t="s">
         <v>91</v>
       </c>
       <c r="X14" s="148" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="Y14" s="170">
         <v>1000</v>
@@ -19848,13 +20053,13 @@
     </row>
     <row r="15" spans="1:67" ht="15.75">
       <c r="A15" s="138" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="B15" s="138" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="C15" s="141" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="D15" s="141" t="s">
         <v>445</v>
@@ -19915,10 +20120,10 @@
     </row>
     <row r="16" spans="1:67" ht="15.75">
       <c r="A16" s="138" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="B16" s="138" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="C16" s="141"/>
       <c r="D16" s="141"/>
@@ -19978,10 +20183,10 @@
     </row>
     <row r="17" spans="1:55" ht="15.75">
       <c r="A17" s="138" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B17" s="138" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="C17" s="141"/>
       <c r="D17" s="141"/>
@@ -20041,10 +20246,10 @@
     </row>
     <row r="18" spans="1:55" ht="15.75">
       <c r="A18" s="138" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="B18" s="138" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="C18" s="141"/>
       <c r="D18" s="141"/>
@@ -20068,19 +20273,19 @@
         <v>185</v>
       </c>
       <c r="T18" s="148" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="U18" s="148" t="s">
         <v>501</v>
       </c>
       <c r="V18" s="148" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="W18" s="148" t="s">
         <v>91</v>
       </c>
       <c r="X18" s="148" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="Y18" s="170">
         <v>1000</v>
@@ -20124,13 +20329,13 @@
     </row>
     <row r="19" spans="1:55" ht="15.75">
       <c r="A19" s="138" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="C19" s="141" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="D19" s="141" t="s">
         <v>445</v>
@@ -20191,10 +20396,10 @@
     </row>
     <row r="20" spans="1:55" ht="15.75">
       <c r="A20" s="138" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B20" s="138" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="C20" s="141"/>
       <c r="D20" s="141"/>
@@ -20254,10 +20459,10 @@
     </row>
     <row r="21" spans="1:55" ht="15.75">
       <c r="A21" s="138" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B21" s="138" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="C21" s="141"/>
       <c r="D21" s="141"/>
@@ -20317,10 +20522,10 @@
     </row>
     <row r="22" spans="1:55" ht="15.75">
       <c r="A22" s="138" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B22" s="138" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C22" s="141"/>
       <c r="D22" s="141"/>
@@ -20353,7 +20558,7 @@
       <c r="AA22" s="149"/>
       <c r="AB22" s="149"/>
       <c r="AC22" s="163" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="AD22" s="163"/>
       <c r="AE22" s="138"/>
@@ -20384,10 +20589,10 @@
     </row>
     <row r="23" spans="1:55" ht="15.75">
       <c r="A23" s="138" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="B23" s="138" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="C23" s="141"/>
       <c r="D23" s="141"/>
@@ -20420,7 +20625,7 @@
       <c r="AC23" s="163"/>
       <c r="AD23" s="163"/>
       <c r="AE23" s="138" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="AF23" s="144"/>
       <c r="AG23" s="144"/>
@@ -20449,13 +20654,13 @@
     </row>
     <row r="24" spans="1:55" ht="15.75">
       <c r="A24" s="138" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="B24" s="138" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C24" s="141" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="D24" s="141" t="s">
         <v>445</v>
@@ -20516,10 +20721,10 @@
     </row>
     <row r="25" spans="1:55" ht="15.75">
       <c r="A25" s="138" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B25" s="138" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="C25" s="141"/>
       <c r="D25" s="141"/>
@@ -20579,10 +20784,10 @@
     </row>
     <row r="26" spans="1:55" ht="15.75">
       <c r="A26" s="138" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="B26" s="138" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="C26" s="141"/>
       <c r="D26" s="141"/>
@@ -20613,7 +20818,7 @@
       <c r="AA26" s="149"/>
       <c r="AB26" s="149"/>
       <c r="AC26" s="163" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="AD26" s="163"/>
       <c r="AE26" s="138"/>
@@ -20644,10 +20849,10 @@
     </row>
     <row r="27" spans="1:55" ht="15.75">
       <c r="A27" s="138" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="B27" s="138" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="C27" s="141"/>
       <c r="D27" s="141"/>
@@ -20680,7 +20885,7 @@
       <c r="AA27" s="149"/>
       <c r="AB27" s="149"/>
       <c r="AC27" s="163" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="AD27" s="163"/>
       <c r="AE27" s="138"/>
@@ -20711,10 +20916,10 @@
     </row>
     <row r="28" spans="1:55" ht="15.75">
       <c r="A28" s="138" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="B28" s="138" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="C28" s="141"/>
       <c r="D28" s="141"/>
@@ -20754,7 +20959,7 @@
         <v>195</v>
       </c>
       <c r="AH28" s="159" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="AI28" s="144">
         <v>6</v>
@@ -20790,10 +20995,10 @@
     </row>
     <row r="29" spans="1:55" ht="15.75">
       <c r="A29" s="138" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="B29" s="138" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C29" s="141"/>
       <c r="D29" s="141"/>
@@ -20827,13 +21032,13 @@
       <c r="AD29" s="163"/>
       <c r="AE29" s="138"/>
       <c r="AF29" s="159" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="AG29" s="159" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="AI29" s="144">
         <v>7</v>
@@ -20869,10 +21074,10 @@
     </row>
     <row r="30" spans="1:55" ht="15.75">
       <c r="A30" s="138" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="B30" s="138" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="C30" s="141"/>
       <c r="D30" s="141"/>
@@ -20906,13 +21111,13 @@
       <c r="AD30" s="163"/>
       <c r="AE30" s="138"/>
       <c r="AF30" s="159" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="AG30" s="159" t="s">
         <v>195</v>
       </c>
       <c r="AH30" s="159" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="AI30" s="144">
         <v>8</v>
@@ -20948,10 +21153,10 @@
     </row>
     <row r="31" spans="1:55" ht="15.75">
       <c r="A31" s="138" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="B31" s="138" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="C31" s="141"/>
       <c r="D31" s="141"/>
@@ -20985,13 +21190,13 @@
       <c r="AD31" s="163"/>
       <c r="AE31" s="138"/>
       <c r="AF31" s="159" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="AG31" s="159" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="AH31" s="159" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="AI31" s="144">
         <v>9</v>
@@ -21027,10 +21232,10 @@
     </row>
     <row r="32" spans="1:55" ht="15.75">
       <c r="A32" s="138" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="C32" s="141"/>
       <c r="D32" s="141"/>
@@ -21078,7 +21283,7 @@
         <v>195</v>
       </c>
       <c r="AP32" s="159" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="AQ32" s="144">
         <v>6</v>
@@ -21106,10 +21311,10 @@
     </row>
     <row r="33" spans="1:55" ht="15.75">
       <c r="A33" s="138" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="B33" s="138" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="C33" s="141"/>
       <c r="D33" s="141"/>
@@ -21140,7 +21345,7 @@
       <c r="AA33" s="149"/>
       <c r="AB33" s="149"/>
       <c r="AC33" s="163" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="AD33" s="163"/>
       <c r="AE33" s="138"/>
@@ -21173,10 +21378,10 @@
     </row>
     <row r="34" spans="1:55" ht="15.75">
       <c r="A34" s="138" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="B34" s="138" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C34" s="141"/>
       <c r="D34" s="141"/>
@@ -21207,7 +21412,7 @@
       <c r="AA34" s="149"/>
       <c r="AB34" s="149"/>
       <c r="AC34" s="163" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="AD34" s="163"/>
       <c r="AE34" s="138"/>
@@ -21240,10 +21445,10 @@
     </row>
     <row r="35" spans="1:55" ht="15.75">
       <c r="A35" s="138" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="B35" s="138" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C35" s="141"/>
       <c r="D35" s="141"/>
@@ -21303,10 +21508,10 @@
     </row>
     <row r="36" spans="1:55" ht="15.75">
       <c r="A36" s="138" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="C36" s="141"/>
       <c r="D36" s="141"/>
@@ -21356,22 +21561,22 @@
       <c r="AT36" s="144"/>
       <c r="AU36" s="144"/>
       <c r="AV36" s="138" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="AW36" s="138" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="AX36" s="138" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="AY36" s="138" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="AZ36" s="151" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="BA36" s="151" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="BB36" s="138">
         <v>10</v>
@@ -21382,10 +21587,10 @@
     </row>
     <row r="37" spans="1:55" ht="15.75">
       <c r="A37" s="138" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="B37" s="138" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="C37" s="141"/>
       <c r="D37" s="141"/>
@@ -21445,10 +21650,10 @@
     </row>
     <row r="38" spans="1:55" ht="15.75">
       <c r="A38" s="138" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B38" s="138" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="C38" s="141"/>
       <c r="D38" s="141"/>
@@ -21510,10 +21715,10 @@
     </row>
     <row r="39" spans="1:55" ht="15.75">
       <c r="A39" s="138" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="B39" s="138" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="C39" s="141"/>
       <c r="D39" s="141"/>
@@ -21577,10 +21782,10 @@
     </row>
     <row r="40" spans="1:55" ht="15.75">
       <c r="A40" s="138" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="B40" s="138" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="C40" s="141"/>
       <c r="D40" s="141"/>
@@ -21640,10 +21845,10 @@
     </row>
     <row r="41" spans="1:55" ht="15.75">
       <c r="A41" s="138" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="B41" s="138" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C41" s="141"/>
       <c r="D41" s="141"/>
@@ -21683,7 +21888,7 @@
         <v>195</v>
       </c>
       <c r="AH41" s="159" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="AI41" s="144"/>
       <c r="AJ41" s="144"/>
@@ -21711,10 +21916,10 @@
     </row>
     <row r="42" spans="1:55" ht="15.75">
       <c r="A42" s="138" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="B42" s="138" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="C42" s="141"/>
       <c r="D42" s="141"/>
@@ -21733,7 +21938,7 @@
         <v>183</v>
       </c>
       <c r="Q42" s="148" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="R42" s="148"/>
       <c r="S42" s="149"/>
@@ -21778,10 +21983,10 @@
     </row>
     <row r="43" spans="1:55" ht="15.75">
       <c r="A43" s="138" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B43" s="138" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C43" s="141"/>
       <c r="D43" s="141"/>
@@ -21847,10 +22052,10 @@
     </row>
     <row r="44" spans="1:55" ht="15.75">
       <c r="A44" s="138" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="B44" s="138" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="C44" s="141"/>
       <c r="D44" s="141"/>
@@ -21916,10 +22121,10 @@
     </row>
     <row r="45" spans="1:55" ht="15.75">
       <c r="A45" s="138" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="B45" s="138" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C45" s="141"/>
       <c r="D45" s="141"/>
@@ -21985,10 +22190,10 @@
     </row>
     <row r="46" spans="1:55" ht="15.75">
       <c r="A46" s="138" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="B46" s="138" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="C46" s="141"/>
       <c r="D46" s="141"/>
@@ -22054,10 +22259,10 @@
     </row>
     <row r="47" spans="1:55" ht="15.75">
       <c r="A47" s="138" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B47" s="138" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="C47" s="141"/>
       <c r="D47" s="141"/>
@@ -22119,10 +22324,10 @@
     </row>
     <row r="48" spans="1:55" ht="15.75">
       <c r="A48" s="138" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="B48" s="138" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="C48" s="141"/>
       <c r="D48" s="141"/>
@@ -22184,10 +22389,10 @@
     </row>
     <row r="49" spans="1:55" ht="15.75">
       <c r="A49" s="138" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="C49" s="141"/>
       <c r="D49" s="141"/>
@@ -22260,6 +22465,871 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="31.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="15" max="17" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="64.5" customHeight="1">
+      <c r="A1" s="178" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="178" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="178" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="178" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="181" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F1" s="181" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G1" s="181" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="181" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1" s="181" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J1" s="181" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K1" s="181" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L1" s="181" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M1" s="181" t="s">
+        <v>1287</v>
+      </c>
+      <c r="N1" s="181" t="s">
+        <v>1285</v>
+      </c>
+      <c r="O1" s="181" t="s">
+        <v>1312</v>
+      </c>
+      <c r="P1" s="181" t="s">
+        <v>1313</v>
+      </c>
+      <c r="Q1" s="181" t="s">
+        <v>1314</v>
+      </c>
+      <c r="R1" s="178" t="s">
+        <v>442</v>
+      </c>
+      <c r="S1" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="186" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15">
+      <c r="A2" s="182" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B2" s="182" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C2" s="183" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D2" s="183"/>
+      <c r="E2" s="182" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F2" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G2" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S2" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T2" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U2" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15">
+      <c r="A3" s="182" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B3" s="182" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C3" s="183" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D3" s="183" t="s">
+        <v>445</v>
+      </c>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G3" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S3" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T3" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U3" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15">
+      <c r="A4" s="182" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B4" s="182" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G4" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S4" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T4" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U4" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30">
+      <c r="A5" s="182" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B5" s="182" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G5" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H5" s="184">
+        <v>18</v>
+      </c>
+      <c r="I5" s="184">
+        <v>19</v>
+      </c>
+      <c r="J5" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L5" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N5" s="182"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="185"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S5" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T5" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U5" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15">
+      <c r="A6" s="182" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B6" s="182" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="182" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F6" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G6" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S6" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T6" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U6" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15">
+      <c r="A7" s="182" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B7" s="182" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G7" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S7" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T7" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U7" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15">
+      <c r="A8" s="182" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B8" s="182" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G8" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="185"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="185"/>
+      <c r="R8" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S8" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T8" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U8" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="30">
+      <c r="A9" s="182" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B9" s="182" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G9" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H9" s="184">
+        <v>18</v>
+      </c>
+      <c r="I9" s="184">
+        <v>19</v>
+      </c>
+      <c r="J9" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K9" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L9" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M9" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N9" s="182"/>
+      <c r="O9" s="185"/>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="185"/>
+      <c r="R9" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S9" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T9" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U9" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30">
+      <c r="A10" s="182" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B10" s="182" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G10" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H10" s="184">
+        <v>18</v>
+      </c>
+      <c r="I10" s="184">
+        <v>19</v>
+      </c>
+      <c r="J10" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K10" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L10" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M10" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N10" s="182"/>
+      <c r="O10" s="185"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S10" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T10" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U10" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30">
+      <c r="A11" s="182" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B11" s="182" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G11" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H11" s="184">
+        <v>20</v>
+      </c>
+      <c r="I11" s="184">
+        <v>21</v>
+      </c>
+      <c r="J11" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K11" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L11" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M11" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N11" s="182"/>
+      <c r="O11" s="185"/>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="185"/>
+      <c r="R11" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S11" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T11" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U11" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="30">
+      <c r="A12" s="182" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B12" s="182" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G12" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H12" s="184">
+        <v>18</v>
+      </c>
+      <c r="I12" s="184">
+        <v>19</v>
+      </c>
+      <c r="J12" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K12" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L12" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M12" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N12" s="182"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S12" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T12" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U12" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="30">
+      <c r="A13" s="182" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B13" s="182" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G13" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H13" s="184">
+        <v>18</v>
+      </c>
+      <c r="I13" s="184">
+        <v>19</v>
+      </c>
+      <c r="J13" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K13" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L13" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M13" s="185" t="s">
+        <v>1301</v>
+      </c>
+      <c r="N13" s="182"/>
+      <c r="O13" s="185"/>
+      <c r="P13" s="185"/>
+      <c r="Q13" s="185"/>
+      <c r="R13" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S13" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T13" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U13" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="30">
+      <c r="A14" s="182" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B14" s="182" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G14" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H14" s="184">
+        <v>18</v>
+      </c>
+      <c r="I14" s="184">
+        <v>19</v>
+      </c>
+      <c r="J14" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L14" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M14" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N14" s="182"/>
+      <c r="O14" s="185"/>
+      <c r="P14" s="185"/>
+      <c r="Q14" s="185"/>
+      <c r="R14" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S14" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T14" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U14" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="30">
+      <c r="A15" s="182" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B15" s="182" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G15" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H15" s="184">
+        <v>18</v>
+      </c>
+      <c r="I15" s="184">
+        <v>19</v>
+      </c>
+      <c r="J15" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K15" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L15" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M15" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N15" s="182"/>
+      <c r="O15" s="185" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P15" s="185" t="s">
+        <v>1310</v>
+      </c>
+      <c r="Q15" s="185" t="s">
+        <v>1311</v>
+      </c>
+      <c r="R15" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S15" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T15" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U15" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="30">
+      <c r="A16" s="182" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B16" s="182" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G16" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H16" s="184">
+        <v>18</v>
+      </c>
+      <c r="I16" s="184">
+        <v>19</v>
+      </c>
+      <c r="J16" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L16" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M16" s="185" t="s">
+        <v>1301</v>
+      </c>
+      <c r="N16" s="182"/>
+      <c r="O16" s="185" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P16" s="185" t="s">
+        <v>1310</v>
+      </c>
+      <c r="Q16" s="185" t="s">
+        <v>1311</v>
+      </c>
+      <c r="R16" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S16" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T16" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U16" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="30">
+      <c r="A17" s="182" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B17" s="182" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G17" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H17" s="184">
+        <v>18</v>
+      </c>
+      <c r="I17" s="184">
+        <v>19</v>
+      </c>
+      <c r="J17" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L17" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M17" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N17" s="182"/>
+      <c r="O17" s="185"/>
+      <c r="P17" s="185"/>
+      <c r="Q17" s="185"/>
+      <c r="R17" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S17" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T17" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U17" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22268,30 +23338,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="28.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="125.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="92.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="51.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="89.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="89.42578125" collapsed="true"/>
-    <col min="7" max="7" style="4" width="28.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="114.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="100.140625" collapsed="true"/>
-    <col min="10" max="10" style="4" width="28.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="109.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="124.0" collapsed="true"/>
-    <col min="13" max="13" style="4" width="28.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="92.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="4" width="102.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="4" width="34.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="4" width="87.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="4" width="88.140625" collapsed="true"/>
-    <col min="19" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="28.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="125.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="92.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="89.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="89.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.42578125" style="4" collapsed="1"/>
+    <col min="8" max="8" width="114.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="100.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.42578125" style="4" collapsed="1"/>
+    <col min="11" max="11" width="109.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="124" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.42578125" style="4" collapsed="1"/>
+    <col min="14" max="14" width="92.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="102.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="34" style="4" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="87.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="88.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45">
       <c r="A1" s="172" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="B1" s="173" t="s">
         <v>143</v>
@@ -22300,52 +23370,52 @@
         <v>144</v>
       </c>
       <c r="D1" s="176" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E1" s="177" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F1" s="172" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G1" s="176" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H1" s="177" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I1" s="172" t="s">
         <v>1188</v>
       </c>
-      <c r="E1" s="177" t="s">
+      <c r="J1" s="176" t="s">
         <v>1189</v>
       </c>
-      <c r="F1" s="172" t="s">
+      <c r="K1" s="177" t="s">
         <v>1190</v>
       </c>
-      <c r="G1" s="176" t="s">
+      <c r="L1" s="172" t="s">
         <v>1191</v>
       </c>
-      <c r="H1" s="177" t="s">
+      <c r="M1" s="176" t="s">
         <v>1192</v>
       </c>
-      <c r="I1" s="172" t="s">
+      <c r="N1" s="177" t="s">
         <v>1193</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="O1" s="172" t="s">
         <v>1194</v>
       </c>
-      <c r="K1" s="177" t="s">
+      <c r="P1" s="176" t="s">
         <v>1195</v>
       </c>
-      <c r="L1" s="172" t="s">
+      <c r="Q1" s="177" t="s">
         <v>1196</v>
       </c>
-      <c r="M1" s="176" t="s">
+      <c r="R1" s="172" t="s">
         <v>1197</v>
       </c>
-      <c r="N1" s="177" t="s">
+      <c r="S1" s="176" t="s">
         <v>1198</v>
-      </c>
-      <c r="O1" s="172" t="s">
-        <v>1199</v>
-      </c>
-      <c r="P1" s="176" t="s">
-        <v>1200</v>
-      </c>
-      <c r="Q1" s="177" t="s">
-        <v>1201</v>
-      </c>
-      <c r="R1" s="172" t="s">
-        <v>1202</v>
-      </c>
-      <c r="S1" s="176" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -22359,7 +23429,7 @@
         <v>510</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E2" s="174" t="s">
         <v>513</v>
@@ -22368,7 +23438,7 @@
         <v>514</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="H2" s="174" t="s">
         <v>515</v>
@@ -22377,7 +23447,7 @@
         <v>516</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="K2" s="174" t="s">
         <v>517</v>
@@ -22386,7 +23456,7 @@
         <v>518</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
@@ -22406,7 +23476,7 @@
         <v>521</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E3" s="174" t="s">
         <v>523</v>
@@ -22415,7 +23485,7 @@
         <v>524</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="H3" s="174" t="s">
         <v>525</v>
@@ -22424,7 +23494,7 @@
         <v>526</v>
       </c>
       <c r="J3" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="K3" s="174" t="s">
         <v>527</v>
@@ -22433,7 +23503,7 @@
         <v>528</v>
       </c>
       <c r="M3" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -22453,7 +23523,7 @@
         <v>530</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E4" s="174" t="s">
         <v>533</v>
@@ -22462,7 +23532,7 @@
         <v>534</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="H4" s="174" t="s">
         <v>535</v>
@@ -22471,7 +23541,7 @@
         <v>536</v>
       </c>
       <c r="J4" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="K4" s="174" t="s">
         <v>537</v>
@@ -22480,7 +23550,7 @@
         <v>538</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -22500,7 +23570,7 @@
         <v>540</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E5" s="174" t="s">
         <v>542</v>
@@ -22509,7 +23579,7 @@
         <v>543</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="H5" s="174" t="s">
         <v>544</v>
@@ -22518,7 +23588,7 @@
         <v>545</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="K5" s="174" t="s">
         <v>546</v>
@@ -22527,7 +23597,7 @@
         <v>547</v>
       </c>
       <c r="M5" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -22547,7 +23617,7 @@
         <v>549</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E6" s="175" t="s">
         <v>550</v>
@@ -22556,7 +23626,7 @@
         <v>551</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="H6" s="175" t="s">
         <v>552</v>
@@ -22565,7 +23635,7 @@
         <v>553</v>
       </c>
       <c r="J6" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="K6" s="175" t="s">
         <v>554</v>
@@ -22574,7 +23644,7 @@
         <v>555</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="N6" s="175" t="s">
         <v>556</v>
@@ -22583,7 +23653,7 @@
         <v>557</v>
       </c>
       <c r="P6" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="Q6" s="175" t="s">
         <v>558</v>
@@ -22592,7 +23662,7 @@
         <v>559</v>
       </c>
       <c r="S6" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -22606,7 +23676,7 @@
         <v>561</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E7" s="175" t="s">
         <v>562</v>
@@ -22615,7 +23685,7 @@
         <v>563</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="H7" s="175" t="s">
         <v>564</v>
@@ -22624,7 +23694,7 @@
         <v>565</v>
       </c>
       <c r="J7" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="K7" s="175" t="s">
         <v>566</v>
@@ -22633,7 +23703,7 @@
         <v>567</v>
       </c>
       <c r="M7" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="N7" s="175" t="s">
         <v>568</v>
@@ -22642,7 +23712,7 @@
         <v>569</v>
       </c>
       <c r="P7" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="Q7" s="175" t="s">
         <v>570</v>
@@ -22651,7 +23721,7 @@
         <v>571</v>
       </c>
       <c r="S7" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -22665,7 +23735,7 @@
         <v>574</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E8" s="175" t="s">
         <v>575</v>
@@ -22674,7 +23744,7 @@
         <v>576</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="H8" s="175" t="s">
         <v>577</v>
@@ -22683,7 +23753,7 @@
         <v>578</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="K8" s="175" t="s">
         <v>579</v>
@@ -22692,16 +23762,16 @@
         <v>580</v>
       </c>
       <c r="M8" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="N8" s="175" t="s">
         <v>581</v>
       </c>
       <c r="O8" s="175" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="P8" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
@@ -22712,58 +23782,58 @@
         <v>8</v>
       </c>
       <c r="B9" s="175" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C9" s="175" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E9" s="175" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F9" s="175" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H9" s="175" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I9" s="175" t="s">
         <v>1205</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="J9" s="57" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K9" s="175" t="s">
         <v>1206</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E9" s="175" t="s">
+      <c r="L9" s="175" t="s">
         <v>1207</v>
       </c>
-      <c r="F9" s="175" t="s">
+      <c r="M9" s="57" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N9" s="175" t="s">
         <v>1208</v>
       </c>
-      <c r="G9" s="57" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H9" s="175" t="s">
+      <c r="O9" s="175" t="s">
         <v>1209</v>
       </c>
-      <c r="I9" s="175" t="s">
+      <c r="P9" s="57" t="s">
+        <v>1119</v>
+      </c>
+      <c r="Q9" s="175" t="s">
         <v>1210</v>
       </c>
-      <c r="J9" s="57" t="s">
-        <v>1124</v>
-      </c>
-      <c r="K9" s="175" t="s">
+      <c r="R9" s="175" t="s">
         <v>1211</v>
       </c>
-      <c r="L9" s="175" t="s">
-        <v>1212</v>
-      </c>
-      <c r="M9" s="57" t="s">
-        <v>1124</v>
-      </c>
-      <c r="N9" s="175" t="s">
-        <v>1213</v>
-      </c>
-      <c r="O9" s="175" t="s">
-        <v>1214</v>
-      </c>
-      <c r="P9" s="57" t="s">
-        <v>1124</v>
-      </c>
-      <c r="Q9" s="175" t="s">
-        <v>1215</v>
-      </c>
-      <c r="R9" s="175" t="s">
-        <v>1216</v>
-      </c>
       <c r="S9" s="57" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
@@ -22782,46 +23852,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="121.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="131.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="43.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="42.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="21" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="21" width="40.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="21" width="50.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="21" width="51.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="21" width="44.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="21" width="51.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="21" width="44.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="21" width="60.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="48.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="21" width="57.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="21" width="59.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="21" width="66.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="21" width="63.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="21" width="73.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="21" width="62.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="21" width="80.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="21" width="37.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="21" width="64.28515625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="21" width="41.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="21" width="52.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="21" width="41.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="21" width="43.28515625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="21" width="34.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="21" width="27.7109375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="21" width="25.85546875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="21" width="39.28515625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="21" width="41.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="21" width="67.28515625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="21" width="56.42578125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="21" width="52.85546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="21" width="35.85546875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="21" width="77.28515625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="21" width="62.42578125" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="21" width="89.5703125" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="21" width="102.42578125" collapsed="true"/>
-    <col min="40" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="121.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="131.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40" style="21" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="50" style="21" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51" style="21" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="44.7109375" style="21" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="51" style="21" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="44.7109375" style="21" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="60.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="48.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="57" style="21" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="59" style="21" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="66.85546875" style="21" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="63.7109375" style="21" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="73.5703125" style="21" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="62.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="80" style="21" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="37.85546875" style="21" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="64.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="41" style="21" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="52.85546875" style="21" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="41" style="21" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="43.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="34" style="21" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="27.7109375" style="21" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="25.85546875" style="21" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="39.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="41" style="21" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="67.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="56.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="52.85546875" style="21" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="35.85546875" style="21" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="77.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="62.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="89.5703125" style="21" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="102.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="40" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -23209,9 +24279,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="78.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="125.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="143.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="4" width="78.85546875" collapsed="true"/>
+    <col min="1" max="1" width="125.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="143.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="78.85546875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -23396,22 +24466,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="121.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="137.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="39.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="41.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="66.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="46.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="57.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="38.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="62.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="94.140625" collapsed="true"/>
-    <col min="11" max="12" style="4" width="28.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="73.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="70.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="4" width="61.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="4" width="46.140625" collapsed="true"/>
-    <col min="17" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="121.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="137.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="66.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="46" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="57.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="62.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="94.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="28.42578125" style="4" collapsed="1"/>
+    <col min="13" max="13" width="73.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="70.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="61.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="46.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -23592,38 +24662,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="117.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="135.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="37.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="40.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="63.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="100.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="63.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="87.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="37.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="48.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="53.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="57.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="50.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="4" width="59.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="4" width="60.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="4" width="38.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="4" width="52.85546875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="4" width="69.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="4" width="55.85546875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="4" width="99.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="4" width="59.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="4" width="47.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="4" width="46.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="4" width="44.7109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="4" width="41.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="4" width="52.85546875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="4" width="45.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="4" width="39.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="4" width="44.7109375" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="4" width="40.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="4" width="71.85546875" collapsed="true"/>
-    <col min="32" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="117.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="135.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="63.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="100" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="63.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="87.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="37.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="48.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="53.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="57.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="50" style="4" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="59" style="4" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="60.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="38.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="52.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="69.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="55.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="99.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="59" style="4" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="47.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="46" style="4" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="44.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="41" style="4" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="52.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="39.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="44.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="40" style="4" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="71.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="32" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -24072,16 +25142,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="155.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="144.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="45.28515625" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" style="4" width="61.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="35.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="50.0" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" style="4" width="37.85546875" collapsed="true"/>
-    <col min="11" max="17" customWidth="true" style="4" width="80.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="4" width="48.7109375" collapsed="true"/>
-    <col min="19" max="16384" style="4" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="155.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="144.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="61.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="50" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="37.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="17" width="80" style="4" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="48.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="28.42578125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -24395,17 +25465,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="124.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="135.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="79.5703125" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="4" width="59.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="59.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="44.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="41.42578125" collapsed="true"/>
-    <col min="9" max="9" style="4" width="28.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="32.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="33.140625" collapsed="true"/>
-    <col min="12" max="16384" style="4" width="28.5703125" collapsed="true"/>
+    <col min="1" max="1" width="124.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="135.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="79.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="59" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="59.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="44.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.5703125" style="4" collapsed="1"/>
+    <col min="10" max="10" width="32.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="33.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="28.5703125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/AzentioAutomationFramework_FixedAsset/Test-data/KUBSTestData.xlsx
+++ b/AzentioAutomationFramework_FixedAsset/Test-data/KUBSTestData.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="1362">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -5146,6 +5146,138 @@
   </si>
   <si>
     <t>KUBS_TAX_UAT_009_003_TC_003_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_006_01</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_006_02</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_006_03</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_006_01_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_006_02_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_006_03_D1</t>
+  </si>
+  <si>
+    <t>BANK_RECON_DTL</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_007_01</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_007_02</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_007_03</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_007_04</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_007_01_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_007_02_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_007_03_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_007_04_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_07_001TC_001_PRQ_1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_07_001TC_001_PRQ_1_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_011_001TC_001</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_011_001TC_001_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_011_001TC_002</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_011_001TC_002_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_0010_001TC_001</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_0010_001TC_002</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_0010_001TC_003</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_0010_001TC_001_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_0010_001TC_002_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_0010_001TC_003_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_011_001TC_003</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_011_001TC_003_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_008_001TC_002</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_008_002TC_001</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_008_001TC_002_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_008_002TC_001_D1</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>C:\Users\ININDC00482\Downloads\TMB_BANKRECON_01.CSV</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_006_05_01</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_006_05_02</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_006_05_03</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_006_05_01_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_006_05_02_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_006_001_TC_006_05_03_D1</t>
+  </si>
+  <si>
+    <t>C:\Users\ININDC00482\Downloads\IDBI_RECON6.CSV</t>
   </si>
 </sst>
 </file>
@@ -6204,7 +6336,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9755,8 +9887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
@@ -10607,8 +10739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:Y7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
@@ -22465,10 +22597,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -22698,10 +22830,10 @@
         <v>339821100</v>
       </c>
       <c r="H5" s="184">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I5" s="184">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J5" s="184" t="s">
         <v>235</v>
@@ -22868,10 +23000,10 @@
         <v>339821100</v>
       </c>
       <c r="H9" s="184">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I9" s="184">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J9" s="184" t="s">
         <v>235</v>
@@ -22904,10 +23036,10 @@
     </row>
     <row r="10" spans="1:21" ht="30">
       <c r="A10" s="182" t="s">
-        <v>1302</v>
+        <v>1318</v>
       </c>
       <c r="B10" s="182" t="s">
-        <v>1304</v>
+        <v>1321</v>
       </c>
       <c r="C10" s="183"/>
       <c r="D10" s="183"/>
@@ -22919,10 +23051,10 @@
         <v>339821100</v>
       </c>
       <c r="H10" s="184">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="184">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J10" s="184" t="s">
         <v>235</v>
@@ -22941,7 +23073,7 @@
       <c r="P10" s="185"/>
       <c r="Q10" s="185"/>
       <c r="R10" s="182" t="s">
-        <v>1277</v>
+        <v>1324</v>
       </c>
       <c r="S10" s="153" t="s">
         <v>501</v>
@@ -22953,46 +23085,30 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30">
+    <row r="11" spans="1:21" ht="15">
       <c r="A11" s="182" t="s">
-        <v>1303</v>
+        <v>1319</v>
       </c>
       <c r="B11" s="182" t="s">
-        <v>1305</v>
+        <v>1322</v>
       </c>
       <c r="C11" s="183"/>
       <c r="D11" s="183"/>
       <c r="E11" s="182"/>
-      <c r="F11" s="182" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G11" s="182">
-        <v>339821100</v>
-      </c>
-      <c r="H11" s="184">
-        <v>20</v>
-      </c>
-      <c r="I11" s="184">
-        <v>21</v>
-      </c>
-      <c r="J11" s="184" t="s">
-        <v>235</v>
-      </c>
-      <c r="K11" s="184">
-        <v>2023</v>
-      </c>
-      <c r="L11" s="184" t="s">
-        <v>236</v>
-      </c>
-      <c r="M11" s="185" t="s">
-        <v>1288</v>
-      </c>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="185"/>
       <c r="N11" s="182"/>
       <c r="O11" s="185"/>
       <c r="P11" s="185"/>
       <c r="Q11" s="185"/>
       <c r="R11" s="182" t="s">
-        <v>1277</v>
+        <v>1324</v>
       </c>
       <c r="S11" s="153" t="s">
         <v>501</v>
@@ -23004,46 +23120,30 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30">
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" s="182" t="s">
-        <v>1295</v>
+        <v>1320</v>
       </c>
       <c r="B12" s="182" t="s">
-        <v>1296</v>
+        <v>1323</v>
       </c>
       <c r="C12" s="183"/>
       <c r="D12" s="183"/>
       <c r="E12" s="182"/>
-      <c r="F12" s="182" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G12" s="182">
-        <v>339821100</v>
-      </c>
-      <c r="H12" s="184">
-        <v>18</v>
-      </c>
-      <c r="I12" s="184">
-        <v>19</v>
-      </c>
-      <c r="J12" s="184" t="s">
-        <v>235</v>
-      </c>
-      <c r="K12" s="184">
-        <v>2023</v>
-      </c>
-      <c r="L12" s="184" t="s">
-        <v>236</v>
-      </c>
-      <c r="M12" s="185" t="s">
-        <v>1288</v>
-      </c>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="185"/>
       <c r="N12" s="182"/>
       <c r="O12" s="185"/>
       <c r="P12" s="185"/>
       <c r="Q12" s="185"/>
       <c r="R12" s="182" t="s">
-        <v>1277</v>
+        <v>1324</v>
       </c>
       <c r="S12" s="153" t="s">
         <v>501</v>
@@ -23057,10 +23157,10 @@
     </row>
     <row r="13" spans="1:21" ht="30">
       <c r="A13" s="182" t="s">
-        <v>1297</v>
+        <v>1355</v>
       </c>
       <c r="B13" s="182" t="s">
-        <v>1299</v>
+        <v>1358</v>
       </c>
       <c r="C13" s="183"/>
       <c r="D13" s="183"/>
@@ -23072,10 +23172,10 @@
         <v>339821100</v>
       </c>
       <c r="H13" s="184">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I13" s="184">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J13" s="184" t="s">
         <v>235</v>
@@ -23087,14 +23187,14 @@
         <v>236</v>
       </c>
       <c r="M13" s="185" t="s">
-        <v>1301</v>
+        <v>1361</v>
       </c>
       <c r="N13" s="182"/>
       <c r="O13" s="185"/>
       <c r="P13" s="185"/>
       <c r="Q13" s="185"/>
       <c r="R13" s="182" t="s">
-        <v>1277</v>
+        <v>1324</v>
       </c>
       <c r="S13" s="153" t="s">
         <v>501</v>
@@ -23106,120 +23206,66 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="30">
+    <row r="14" spans="1:21" ht="15">
       <c r="A14" s="182" t="s">
-        <v>1298</v>
+        <v>1356</v>
       </c>
       <c r="B14" s="182" t="s">
-        <v>1300</v>
+        <v>1359</v>
       </c>
       <c r="C14" s="183"/>
       <c r="D14" s="183"/>
       <c r="E14" s="182"/>
-      <c r="F14" s="182" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G14" s="182">
-        <v>339821100</v>
-      </c>
-      <c r="H14" s="184">
-        <v>18</v>
-      </c>
-      <c r="I14" s="184">
-        <v>19</v>
-      </c>
-      <c r="J14" s="184" t="s">
-        <v>235</v>
-      </c>
-      <c r="K14" s="184">
-        <v>2023</v>
-      </c>
-      <c r="L14" s="184" t="s">
-        <v>236</v>
-      </c>
-      <c r="M14" s="185" t="s">
-        <v>1288</v>
-      </c>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="185"/>
       <c r="N14" s="182"/>
       <c r="O14" s="185"/>
       <c r="P14" s="185"/>
       <c r="Q14" s="185"/>
-      <c r="R14" s="182" t="s">
-        <v>1277</v>
-      </c>
-      <c r="S14" s="153" t="s">
-        <v>501</v>
-      </c>
-      <c r="T14" s="153" t="s">
-        <v>501</v>
-      </c>
-      <c r="U14" s="153" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="30">
+      <c r="R14" s="182"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="153"/>
+    </row>
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" s="182" t="s">
-        <v>1306</v>
+        <v>1357</v>
       </c>
       <c r="B15" s="182" t="s">
-        <v>1315</v>
+        <v>1360</v>
       </c>
       <c r="C15" s="183"/>
       <c r="D15" s="183"/>
       <c r="E15" s="182"/>
-      <c r="F15" s="182" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G15" s="182">
-        <v>339821100</v>
-      </c>
-      <c r="H15" s="184">
-        <v>18</v>
-      </c>
-      <c r="I15" s="184">
-        <v>19</v>
-      </c>
-      <c r="J15" s="184" t="s">
-        <v>235</v>
-      </c>
-      <c r="K15" s="184">
-        <v>2023</v>
-      </c>
-      <c r="L15" s="184" t="s">
-        <v>236</v>
-      </c>
-      <c r="M15" s="185" t="s">
-        <v>1288</v>
-      </c>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="185"/>
       <c r="N15" s="182"/>
-      <c r="O15" s="185" t="s">
-        <v>1309</v>
-      </c>
-      <c r="P15" s="185" t="s">
-        <v>1310</v>
-      </c>
-      <c r="Q15" s="185" t="s">
-        <v>1311</v>
-      </c>
-      <c r="R15" s="182" t="s">
-        <v>1277</v>
-      </c>
-      <c r="S15" s="153" t="s">
-        <v>501</v>
-      </c>
-      <c r="T15" s="153" t="s">
-        <v>501</v>
-      </c>
-      <c r="U15" s="153" t="s">
-        <v>501</v>
-      </c>
+      <c r="O15" s="185"/>
+      <c r="P15" s="185"/>
+      <c r="Q15" s="185"/>
+      <c r="R15" s="182"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="153"/>
+      <c r="U15" s="153"/>
     </row>
     <row r="16" spans="1:21" ht="30">
       <c r="A16" s="182" t="s">
-        <v>1307</v>
+        <v>1325</v>
       </c>
       <c r="B16" s="182" t="s">
-        <v>1316</v>
+        <v>1329</v>
       </c>
       <c r="C16" s="183"/>
       <c r="D16" s="183"/>
@@ -23231,10 +23277,10 @@
         <v>339821100</v>
       </c>
       <c r="H16" s="184">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I16" s="184">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J16" s="184" t="s">
         <v>235</v>
@@ -23246,20 +23292,14 @@
         <v>236</v>
       </c>
       <c r="M16" s="185" t="s">
-        <v>1301</v>
+        <v>1288</v>
       </c>
       <c r="N16" s="182"/>
-      <c r="O16" s="185" t="s">
-        <v>1309</v>
-      </c>
-      <c r="P16" s="185" t="s">
-        <v>1310</v>
-      </c>
-      <c r="Q16" s="185" t="s">
-        <v>1311</v>
-      </c>
+      <c r="O16" s="185"/>
+      <c r="P16" s="185"/>
+      <c r="Q16" s="185"/>
       <c r="R16" s="182" t="s">
-        <v>1277</v>
+        <v>1324</v>
       </c>
       <c r="S16" s="153" t="s">
         <v>501</v>
@@ -23271,54 +23311,987 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="30">
+    <row r="17" spans="1:21" ht="15">
       <c r="A17" s="182" t="s">
-        <v>1308</v>
+        <v>1326</v>
       </c>
       <c r="B17" s="182" t="s">
-        <v>1317</v>
+        <v>1330</v>
       </c>
       <c r="C17" s="183"/>
       <c r="D17" s="183"/>
       <c r="E17" s="182"/>
-      <c r="F17" s="182" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G17" s="182">
-        <v>339821100</v>
-      </c>
-      <c r="H17" s="184">
-        <v>18</v>
-      </c>
-      <c r="I17" s="184">
-        <v>19</v>
-      </c>
-      <c r="J17" s="184" t="s">
-        <v>235</v>
-      </c>
-      <c r="K17" s="184">
-        <v>2023</v>
-      </c>
-      <c r="L17" s="184" t="s">
-        <v>236</v>
-      </c>
-      <c r="M17" s="185" t="s">
-        <v>1288</v>
-      </c>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="184"/>
+      <c r="K17" s="184"/>
+      <c r="L17" s="184"/>
+      <c r="M17" s="185"/>
       <c r="N17" s="182"/>
       <c r="O17" s="185"/>
       <c r="P17" s="185"/>
       <c r="Q17" s="185"/>
       <c r="R17" s="182" t="s">
+        <v>1324</v>
+      </c>
+      <c r="S17" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T17" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U17" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15">
+      <c r="A18" s="182" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B18" s="182" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="185"/>
+      <c r="N18" s="182"/>
+      <c r="O18" s="185"/>
+      <c r="P18" s="185"/>
+      <c r="Q18" s="185"/>
+      <c r="R18" s="182" t="s">
+        <v>1324</v>
+      </c>
+      <c r="S18" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T18" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U18" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15">
+      <c r="A19" s="182" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B19" s="182" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="184"/>
+      <c r="K19" s="184"/>
+      <c r="L19" s="184"/>
+      <c r="M19" s="185"/>
+      <c r="N19" s="182"/>
+      <c r="O19" s="185"/>
+      <c r="P19" s="185"/>
+      <c r="Q19" s="185"/>
+      <c r="R19" s="182" t="s">
+        <v>1324</v>
+      </c>
+      <c r="S19" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T19" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U19" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="30">
+      <c r="A20" s="182" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B20" s="182" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G20" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H20" s="184">
+        <v>26</v>
+      </c>
+      <c r="I20" s="184">
+        <v>27</v>
+      </c>
+      <c r="J20" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K20" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L20" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M20" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N20" s="182"/>
+      <c r="O20" s="185"/>
+      <c r="P20" s="185"/>
+      <c r="Q20" s="185"/>
+      <c r="R20" s="182" t="s">
+        <v>1324</v>
+      </c>
+      <c r="S20" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T20" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U20" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="30">
+      <c r="A21" s="182" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B21" s="182" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G21" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H21" s="184">
+        <v>26</v>
+      </c>
+      <c r="I21" s="184">
+        <v>27</v>
+      </c>
+      <c r="J21" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K21" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L21" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M21" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N21" s="182"/>
+      <c r="O21" s="185"/>
+      <c r="P21" s="185"/>
+      <c r="Q21" s="185"/>
+      <c r="R21" s="182" t="s">
         <v>1277</v>
       </c>
-      <c r="S17" s="153" t="s">
-        <v>501</v>
-      </c>
-      <c r="T17" s="153" t="s">
-        <v>501</v>
-      </c>
-      <c r="U17" s="153" t="s">
+      <c r="S21" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T21" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U21" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="30">
+      <c r="A22" s="182" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B22" s="182" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G22" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H22" s="184">
+        <v>20</v>
+      </c>
+      <c r="I22" s="184">
+        <v>21</v>
+      </c>
+      <c r="J22" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K22" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L22" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M22" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N22" s="182"/>
+      <c r="O22" s="185"/>
+      <c r="P22" s="185"/>
+      <c r="Q22" s="185"/>
+      <c r="R22" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S22" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T22" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U22" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="30">
+      <c r="A23" s="182" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B23" s="182" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C23" s="183"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G23" s="182">
+        <v>27103398</v>
+      </c>
+      <c r="H23" s="184">
+        <v>1</v>
+      </c>
+      <c r="I23" s="184">
+        <v>2</v>
+      </c>
+      <c r="J23" s="184" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K23" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L23" s="184" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M23" s="185" t="s">
+        <v>1354</v>
+      </c>
+      <c r="N23" s="182"/>
+      <c r="O23" s="185"/>
+      <c r="P23" s="185"/>
+      <c r="Q23" s="185"/>
+      <c r="R23" s="182" t="s">
+        <v>1324</v>
+      </c>
+      <c r="S23" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T23" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U23" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="30">
+      <c r="A24" s="182" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B24" s="182" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G24" s="182">
+        <v>27103398</v>
+      </c>
+      <c r="H24" s="184">
+        <v>1</v>
+      </c>
+      <c r="I24" s="184">
+        <v>2</v>
+      </c>
+      <c r="J24" s="184" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K24" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L24" s="184" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M24" s="185" t="s">
+        <v>1354</v>
+      </c>
+      <c r="N24" s="182"/>
+      <c r="O24" s="185"/>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="185"/>
+      <c r="R24" s="182" t="s">
+        <v>1324</v>
+      </c>
+      <c r="S24" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T24" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U24" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="30">
+      <c r="A25" s="182" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B25" s="182" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G25" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H25" s="184">
+        <v>26</v>
+      </c>
+      <c r="I25" s="184">
+        <v>27</v>
+      </c>
+      <c r="J25" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L25" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N25" s="182"/>
+      <c r="O25" s="185"/>
+      <c r="P25" s="185"/>
+      <c r="Q25" s="185"/>
+      <c r="R25" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S25" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T25" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U25" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="30">
+      <c r="A26" s="182" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B26" s="182" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G26" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H26" s="184">
+        <v>26</v>
+      </c>
+      <c r="I26" s="184">
+        <v>27</v>
+      </c>
+      <c r="J26" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L26" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" s="185" t="s">
+        <v>1301</v>
+      </c>
+      <c r="N26" s="182"/>
+      <c r="O26" s="185"/>
+      <c r="P26" s="185"/>
+      <c r="Q26" s="185"/>
+      <c r="R26" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S26" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T26" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U26" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="30">
+      <c r="A27" s="182" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B27" s="182" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C27" s="183"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G27" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H27" s="184">
+        <v>26</v>
+      </c>
+      <c r="I27" s="184">
+        <v>27</v>
+      </c>
+      <c r="J27" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L27" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N27" s="182"/>
+      <c r="O27" s="185"/>
+      <c r="P27" s="185"/>
+      <c r="Q27" s="185"/>
+      <c r="R27" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S27" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T27" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U27" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="30">
+      <c r="A28" s="182" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B28" s="182" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G28" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H28" s="184">
+        <v>26</v>
+      </c>
+      <c r="I28" s="184">
+        <v>27</v>
+      </c>
+      <c r="J28" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L28" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N28" s="182"/>
+      <c r="O28" s="185" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P28" s="185" t="s">
+        <v>1310</v>
+      </c>
+      <c r="Q28" s="185" t="s">
+        <v>1311</v>
+      </c>
+      <c r="R28" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S28" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T28" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U28" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="30">
+      <c r="A29" s="182" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B29" s="182" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G29" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H29" s="184">
+        <v>26</v>
+      </c>
+      <c r="I29" s="184">
+        <v>27</v>
+      </c>
+      <c r="J29" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L29" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" s="185" t="s">
+        <v>1301</v>
+      </c>
+      <c r="N29" s="182"/>
+      <c r="O29" s="185" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P29" s="185" t="s">
+        <v>1310</v>
+      </c>
+      <c r="Q29" s="185" t="s">
+        <v>1311</v>
+      </c>
+      <c r="R29" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S29" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T29" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U29" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="30">
+      <c r="A30" s="182" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B30" s="182" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C30" s="183"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G30" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H30" s="184">
+        <v>26</v>
+      </c>
+      <c r="I30" s="184">
+        <v>27</v>
+      </c>
+      <c r="J30" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L30" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N30" s="182"/>
+      <c r="O30" s="185"/>
+      <c r="P30" s="185"/>
+      <c r="Q30" s="185"/>
+      <c r="R30" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S30" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T30" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U30" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="30">
+      <c r="A31" s="182" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B31" s="182" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C31" s="183"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G31" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H31" s="184">
+        <v>26</v>
+      </c>
+      <c r="I31" s="184">
+        <v>27</v>
+      </c>
+      <c r="J31" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L31" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M31" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N31" s="182"/>
+      <c r="O31" s="185"/>
+      <c r="P31" s="185"/>
+      <c r="Q31" s="185"/>
+      <c r="R31" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S31" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T31" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U31" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="30">
+      <c r="A32" s="182" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B32" s="182" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C32" s="183"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G32" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H32" s="184">
+        <v>26</v>
+      </c>
+      <c r="I32" s="184">
+        <v>27</v>
+      </c>
+      <c r="J32" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L32" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N32" s="182"/>
+      <c r="O32" s="185"/>
+      <c r="P32" s="185"/>
+      <c r="Q32" s="185"/>
+      <c r="R32" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S32" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T32" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U32" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="30">
+      <c r="A33" s="182" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B33" s="182" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G33" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H33" s="184">
+        <v>26</v>
+      </c>
+      <c r="I33" s="184">
+        <v>27</v>
+      </c>
+      <c r="J33" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K33" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L33" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M33" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N33" s="182"/>
+      <c r="O33" s="185"/>
+      <c r="P33" s="185"/>
+      <c r="Q33" s="185"/>
+      <c r="R33" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S33" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T33" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U33" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="30">
+      <c r="A34" s="182" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B34" s="182" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G34" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H34" s="184">
+        <v>26</v>
+      </c>
+      <c r="I34" s="184">
+        <v>27</v>
+      </c>
+      <c r="J34" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L34" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M34" s="185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N34" s="182"/>
+      <c r="O34" s="185"/>
+      <c r="P34" s="185"/>
+      <c r="Q34" s="185"/>
+      <c r="R34" s="182" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S34" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T34" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U34" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="30">
+      <c r="A35" s="182" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B35" s="182" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G35" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H35" s="184">
+        <v>26</v>
+      </c>
+      <c r="I35" s="184">
+        <v>27</v>
+      </c>
+      <c r="J35" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L35" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M35" s="185" t="s">
+        <v>1361</v>
+      </c>
+      <c r="N35" s="182"/>
+      <c r="O35" s="185"/>
+      <c r="P35" s="185"/>
+      <c r="Q35" s="185"/>
+      <c r="R35" s="182" t="s">
+        <v>1324</v>
+      </c>
+      <c r="S35" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T35" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U35" s="153" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="30">
+      <c r="A36" s="182" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B36" s="182" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G36" s="182">
+        <v>339821100</v>
+      </c>
+      <c r="H36" s="184">
+        <v>26</v>
+      </c>
+      <c r="I36" s="184">
+        <v>27</v>
+      </c>
+      <c r="J36" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" s="184">
+        <v>2023</v>
+      </c>
+      <c r="L36" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="M36" s="185" t="s">
+        <v>1361</v>
+      </c>
+      <c r="N36" s="182"/>
+      <c r="O36" s="185"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="182" t="s">
+        <v>1324</v>
+      </c>
+      <c r="S36" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="T36" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="U36" s="153" t="s">
         <v>501</v>
       </c>
     </row>
